--- a/Code/Results/Cases/Case_1_63/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_63/res_bus/vm_pu.xlsx
@@ -421,13 +421,13 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.8693048878271099</v>
+        <v>0.8693048878271098</v>
       </c>
       <c r="D2">
-        <v>1.017502759210612</v>
+        <v>1.017502759210613</v>
       </c>
       <c r="E2">
-        <v>0.8894836906981392</v>
+        <v>0.8894836906981394</v>
       </c>
       <c r="F2">
         <v>0.8673953057322688</v>
@@ -442,13 +442,13 @@
         <v>0.8962464149545637</v>
       </c>
       <c r="K2">
-        <v>1.028723521438104</v>
+        <v>1.028723521438105</v>
       </c>
       <c r="L2">
         <v>0.9027324448743561</v>
       </c>
       <c r="M2">
-        <v>0.8810736784124528</v>
+        <v>0.8810736784124524</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.8962668177046059</v>
+        <v>0.8962668177046089</v>
       </c>
       <c r="D3">
         <v>1.022374533590663</v>
       </c>
       <c r="E3">
-        <v>0.913237749402552</v>
+        <v>0.913237749402555</v>
       </c>
       <c r="F3">
-        <v>0.8954125235095759</v>
+        <v>0.895412523509579</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,16 +477,16 @@
         <v>1.036900197406965</v>
       </c>
       <c r="J3">
-        <v>0.9200489508651563</v>
+        <v>0.9200489508651593</v>
       </c>
       <c r="K3">
         <v>1.032728913661551</v>
       </c>
       <c r="L3">
-        <v>0.9251159184917748</v>
+        <v>0.9251159184917777</v>
       </c>
       <c r="M3">
-        <v>0.9075850794849372</v>
+        <v>0.90758507948494</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9117139304845502</v>
+        <v>0.911713930484551</v>
       </c>
       <c r="D4">
-        <v>1.025258854752314</v>
+        <v>1.025258854752313</v>
       </c>
       <c r="E4">
-        <v>0.9268675534597346</v>
+        <v>0.9268675534597353</v>
       </c>
       <c r="F4">
-        <v>0.9114775140292406</v>
+        <v>0.911477514029241</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.03916937735548</v>
       </c>
       <c r="J4">
-        <v>0.9336814721251864</v>
+        <v>0.9336814721251868</v>
       </c>
       <c r="K4">
-        <v>1.035061693804604</v>
+        <v>1.035061693804603</v>
       </c>
       <c r="L4">
-        <v>0.9379368514111008</v>
+        <v>0.9379368514111013</v>
       </c>
       <c r="M4">
-        <v>0.9227764002522105</v>
+        <v>0.9227764002522111</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9178318059298184</v>
+        <v>0.9178318059298179</v>
       </c>
       <c r="D5">
         <v>1.026419313124998</v>
       </c>
       <c r="E5">
-        <v>0.932269279224276</v>
+        <v>0.9322692792242758</v>
       </c>
       <c r="F5">
-        <v>0.9178433903444095</v>
+        <v>0.917843390344409</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,16 +553,16 @@
         <v>1.040067487726319</v>
       </c>
       <c r="J5">
-        <v>0.9390788321208756</v>
+        <v>0.9390788321208751</v>
       </c>
       <c r="K5">
         <v>1.035992126186223</v>
       </c>
       <c r="L5">
-        <v>0.9430130379186816</v>
+        <v>0.9430130379186811</v>
       </c>
       <c r="M5">
-        <v>0.9287934553941969</v>
+        <v>0.9287934553941963</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9188392292420218</v>
+        <v>0.9188392292420213</v>
       </c>
       <c r="D6">
         <v>1.026611371476043</v>
       </c>
       <c r="E6">
-        <v>0.9331589573873229</v>
+        <v>0.9331589573873226</v>
       </c>
       <c r="F6">
-        <v>0.9188918475229131</v>
+        <v>0.9188918475229128</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.040215301274864</v>
+        <v>1.040215301274863</v>
       </c>
       <c r="J6">
-        <v>0.9399674833435931</v>
+        <v>0.9399674833435927</v>
       </c>
       <c r="K6">
         <v>1.036145662482529</v>
       </c>
       <c r="L6">
-        <v>0.9438488154779149</v>
+        <v>0.9438488154779145</v>
       </c>
       <c r="M6">
-        <v>0.9297843038028778</v>
+        <v>0.9297843038028775</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9117970493965221</v>
+        <v>0.9117970493965238</v>
       </c>
       <c r="D7">
         <v>1.025274553021201</v>
       </c>
       <c r="E7">
-        <v>0.9269409295526836</v>
+        <v>0.9269409295526854</v>
       </c>
       <c r="F7">
-        <v>0.9115639890340427</v>
+        <v>0.9115639890340445</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.039181583689515</v>
       </c>
       <c r="J7">
-        <v>0.9337548101535507</v>
+        <v>0.9337548101535522</v>
       </c>
       <c r="K7">
         <v>1.035074311576513</v>
       </c>
       <c r="L7">
-        <v>0.9380058249415986</v>
+        <v>0.9380058249416003</v>
       </c>
       <c r="M7">
-        <v>0.9228581475180196</v>
+        <v>0.9228581475180213</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.8789079529641515</v>
+        <v>0.8789079529641503</v>
       </c>
       <c r="D8">
         <v>1.01921373366762</v>
       </c>
       <c r="E8">
-        <v>0.8979385092176757</v>
+        <v>0.8979385092176742</v>
       </c>
       <c r="F8">
-        <v>0.8773713482263317</v>
+        <v>0.8773713482263299</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.034353068886675</v>
+        <v>1.034353068886674</v>
       </c>
       <c r="J8">
-        <v>0.9047245843343913</v>
+        <v>0.9047245843343898</v>
       </c>
       <c r="K8">
         <v>1.030139583390487</v>
       </c>
       <c r="L8">
-        <v>0.910704791542679</v>
+        <v>0.9107047915426776</v>
       </c>
       <c r="M8">
-        <v>0.8905156996604014</v>
+        <v>0.8905156996603999</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C9">
-        <v>0.7960136764715751</v>
+        <v>0.7960136764715762</v>
       </c>
       <c r="D9">
-        <v>1.005369295261273</v>
+        <v>1.005369295261272</v>
       </c>
       <c r="E9">
-        <v>0.8252185985965759</v>
+        <v>0.8252185985965769</v>
       </c>
       <c r="F9">
-        <v>0.7913142083078689</v>
+        <v>0.7913142083078697</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.022415095250737</v>
+        <v>1.022415095250736</v>
       </c>
       <c r="J9">
-        <v>0.8316014490041118</v>
+        <v>0.8316014490041126</v>
       </c>
       <c r="K9">
-        <v>1.018375855939843</v>
+        <v>1.018375855939842</v>
       </c>
       <c r="L9">
-        <v>0.8419677451381097</v>
+        <v>0.8419677451381106</v>
       </c>
       <c r="M9">
-        <v>0.809031448185865</v>
+        <v>0.8090314481858659</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C10">
-        <v>0.7960136764715751</v>
+        <v>0.7960136764715762</v>
       </c>
       <c r="D10">
-        <v>1.005369295261273</v>
+        <v>1.005369295261272</v>
       </c>
       <c r="E10">
-        <v>0.8252185985965759</v>
+        <v>0.8252185985965769</v>
       </c>
       <c r="F10">
-        <v>0.7913142083078689</v>
+        <v>0.7913142083078697</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.022415095250737</v>
+        <v>1.022415095250736</v>
       </c>
       <c r="J10">
-        <v>0.8316014490041118</v>
+        <v>0.8316014490041126</v>
       </c>
       <c r="K10">
-        <v>1.018375855939843</v>
+        <v>1.018375855939842</v>
       </c>
       <c r="L10">
-        <v>0.8419677451381097</v>
+        <v>0.8419677451381106</v>
       </c>
       <c r="M10">
-        <v>0.809031448185865</v>
+        <v>0.8090314481858659</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C11">
-        <v>0.7960136764715751</v>
+        <v>0.7960136764715762</v>
       </c>
       <c r="D11">
-        <v>1.005369295261273</v>
+        <v>1.005369295261272</v>
       </c>
       <c r="E11">
-        <v>0.8252185985965759</v>
+        <v>0.8252185985965769</v>
       </c>
       <c r="F11">
-        <v>0.7913142083078689</v>
+        <v>0.7913142083078697</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.022415095250737</v>
+        <v>1.022415095250736</v>
       </c>
       <c r="J11">
-        <v>0.8316014490041118</v>
+        <v>0.8316014490041126</v>
       </c>
       <c r="K11">
-        <v>1.018375855939843</v>
+        <v>1.018375855939842</v>
       </c>
       <c r="L11">
-        <v>0.8419677451381097</v>
+        <v>0.8419677451381106</v>
       </c>
       <c r="M11">
-        <v>0.809031448185865</v>
+        <v>0.8090314481858659</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C12">
-        <v>0.7960136764715751</v>
+        <v>0.7960136764715762</v>
       </c>
       <c r="D12">
-        <v>1.005369295261273</v>
+        <v>1.005369295261272</v>
       </c>
       <c r="E12">
-        <v>0.8252185985965759</v>
+        <v>0.8252185985965769</v>
       </c>
       <c r="F12">
-        <v>0.7913142083078689</v>
+        <v>0.7913142083078697</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.022415095250737</v>
+        <v>1.022415095250736</v>
       </c>
       <c r="J12">
-        <v>0.8316014490041118</v>
+        <v>0.8316014490041126</v>
       </c>
       <c r="K12">
-        <v>1.018375855939843</v>
+        <v>1.018375855939842</v>
       </c>
       <c r="L12">
-        <v>0.8419677451381097</v>
+        <v>0.8419677451381106</v>
       </c>
       <c r="M12">
-        <v>0.809031448185865</v>
+        <v>0.8090314481858659</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C13">
-        <v>0.7960136764715751</v>
+        <v>0.7960136764715762</v>
       </c>
       <c r="D13">
-        <v>1.005369295261273</v>
+        <v>1.005369295261272</v>
       </c>
       <c r="E13">
-        <v>0.8252185985965759</v>
+        <v>0.8252185985965769</v>
       </c>
       <c r="F13">
-        <v>0.7913142083078689</v>
+        <v>0.7913142083078697</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.022415095250737</v>
+        <v>1.022415095250736</v>
       </c>
       <c r="J13">
-        <v>0.8316014490041118</v>
+        <v>0.8316014490041126</v>
       </c>
       <c r="K13">
-        <v>1.018375855939843</v>
+        <v>1.018375855939842</v>
       </c>
       <c r="L13">
-        <v>0.8419677451381097</v>
+        <v>0.8419677451381106</v>
       </c>
       <c r="M13">
-        <v>0.809031448185865</v>
+        <v>0.8090314481858659</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C14">
-        <v>0.7960136764715751</v>
+        <v>0.7960136764715762</v>
       </c>
       <c r="D14">
-        <v>1.005369295261273</v>
+        <v>1.005369295261272</v>
       </c>
       <c r="E14">
-        <v>0.8252185985965759</v>
+        <v>0.8252185985965769</v>
       </c>
       <c r="F14">
-        <v>0.7913142083078689</v>
+        <v>0.7913142083078697</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.022415095250737</v>
+        <v>1.022415095250736</v>
       </c>
       <c r="J14">
-        <v>0.8316014490041118</v>
+        <v>0.8316014490041126</v>
       </c>
       <c r="K14">
-        <v>1.018375855939843</v>
+        <v>1.018375855939842</v>
       </c>
       <c r="L14">
-        <v>0.8419677451381097</v>
+        <v>0.8419677451381106</v>
       </c>
       <c r="M14">
-        <v>0.809031448185865</v>
+        <v>0.8090314481858659</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C15">
-        <v>0.7960136764715751</v>
+        <v>0.7960136764715762</v>
       </c>
       <c r="D15">
-        <v>1.005369295261273</v>
+        <v>1.005369295261272</v>
       </c>
       <c r="E15">
-        <v>0.8252185985965759</v>
+        <v>0.8252185985965769</v>
       </c>
       <c r="F15">
-        <v>0.7913142083078689</v>
+        <v>0.7913142083078697</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.022415095250737</v>
+        <v>1.022415095250736</v>
       </c>
       <c r="J15">
-        <v>0.8316014490041118</v>
+        <v>0.8316014490041126</v>
       </c>
       <c r="K15">
-        <v>1.018375855939843</v>
+        <v>1.018375855939842</v>
       </c>
       <c r="L15">
-        <v>0.8419677451381097</v>
+        <v>0.8419677451381106</v>
       </c>
       <c r="M15">
-        <v>0.809031448185865</v>
+        <v>0.8090314481858659</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C16">
-        <v>0.7960136764715751</v>
+        <v>0.7960136764715762</v>
       </c>
       <c r="D16">
-        <v>1.005369295261273</v>
+        <v>1.005369295261272</v>
       </c>
       <c r="E16">
-        <v>0.8252185985965759</v>
+        <v>0.8252185985965769</v>
       </c>
       <c r="F16">
-        <v>0.7913142083078689</v>
+        <v>0.7913142083078697</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.022415095250737</v>
+        <v>1.022415095250736</v>
       </c>
       <c r="J16">
-        <v>0.8316014490041118</v>
+        <v>0.8316014490041126</v>
       </c>
       <c r="K16">
-        <v>1.018375855939843</v>
+        <v>1.018375855939842</v>
       </c>
       <c r="L16">
-        <v>0.8419677451381097</v>
+        <v>0.8419677451381106</v>
       </c>
       <c r="M16">
-        <v>0.809031448185865</v>
+        <v>0.8090314481858659</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C17">
-        <v>0.7960136764715751</v>
+        <v>0.7960136764715762</v>
       </c>
       <c r="D17">
-        <v>1.005369295261273</v>
+        <v>1.005369295261272</v>
       </c>
       <c r="E17">
-        <v>0.8252185985965759</v>
+        <v>0.8252185985965769</v>
       </c>
       <c r="F17">
-        <v>0.7913142083078689</v>
+        <v>0.7913142083078697</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.022415095250737</v>
+        <v>1.022415095250736</v>
       </c>
       <c r="J17">
-        <v>0.8316014490041118</v>
+        <v>0.8316014490041126</v>
       </c>
       <c r="K17">
-        <v>1.018375855939843</v>
+        <v>1.018375855939842</v>
       </c>
       <c r="L17">
-        <v>0.8419677451381097</v>
+        <v>0.8419677451381106</v>
       </c>
       <c r="M17">
-        <v>0.809031448185865</v>
+        <v>0.8090314481858659</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C18">
-        <v>0.7960136764715751</v>
+        <v>0.7960136764715762</v>
       </c>
       <c r="D18">
-        <v>1.005369295261273</v>
+        <v>1.005369295261272</v>
       </c>
       <c r="E18">
-        <v>0.8252185985965759</v>
+        <v>0.8252185985965769</v>
       </c>
       <c r="F18">
-        <v>0.7913142083078689</v>
+        <v>0.7913142083078697</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.022415095250737</v>
+        <v>1.022415095250736</v>
       </c>
       <c r="J18">
-        <v>0.8316014490041118</v>
+        <v>0.8316014490041126</v>
       </c>
       <c r="K18">
-        <v>1.018375855939843</v>
+        <v>1.018375855939842</v>
       </c>
       <c r="L18">
-        <v>0.8419677451381097</v>
+        <v>0.8419677451381106</v>
       </c>
       <c r="M18">
-        <v>0.809031448185865</v>
+        <v>0.8090314481858659</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C19">
-        <v>0.7960136764715751</v>
+        <v>0.7960136764715762</v>
       </c>
       <c r="D19">
-        <v>1.005369295261273</v>
+        <v>1.005369295261272</v>
       </c>
       <c r="E19">
-        <v>0.8252185985965759</v>
+        <v>0.8252185985965769</v>
       </c>
       <c r="F19">
-        <v>0.7913142083078689</v>
+        <v>0.7913142083078697</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.022415095250737</v>
+        <v>1.022415095250736</v>
       </c>
       <c r="J19">
-        <v>0.8316014490041118</v>
+        <v>0.8316014490041126</v>
       </c>
       <c r="K19">
-        <v>1.018375855939843</v>
+        <v>1.018375855939842</v>
       </c>
       <c r="L19">
-        <v>0.8419677451381097</v>
+        <v>0.8419677451381106</v>
       </c>
       <c r="M19">
-        <v>0.809031448185865</v>
+        <v>0.8090314481858659</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C20">
-        <v>0.7960136764715751</v>
+        <v>0.7960136764715762</v>
       </c>
       <c r="D20">
-        <v>1.005369295261273</v>
+        <v>1.005369295261272</v>
       </c>
       <c r="E20">
-        <v>0.8252185985965759</v>
+        <v>0.8252185985965769</v>
       </c>
       <c r="F20">
-        <v>0.7913142083078689</v>
+        <v>0.7913142083078697</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.022415095250737</v>
+        <v>1.022415095250736</v>
       </c>
       <c r="J20">
-        <v>0.8316014490041118</v>
+        <v>0.8316014490041126</v>
       </c>
       <c r="K20">
-        <v>1.018375855939843</v>
+        <v>1.018375855939842</v>
       </c>
       <c r="L20">
-        <v>0.8419677451381097</v>
+        <v>0.8419677451381106</v>
       </c>
       <c r="M20">
-        <v>0.809031448185865</v>
+        <v>0.8090314481858659</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C21">
-        <v>0.7960136764715751</v>
+        <v>0.7960136764715762</v>
       </c>
       <c r="D21">
-        <v>1.005369295261273</v>
+        <v>1.005369295261272</v>
       </c>
       <c r="E21">
-        <v>0.8252185985965759</v>
+        <v>0.8252185985965769</v>
       </c>
       <c r="F21">
-        <v>0.7913142083078689</v>
+        <v>0.7913142083078697</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.022415095250737</v>
+        <v>1.022415095250736</v>
       </c>
       <c r="J21">
-        <v>0.8316014490041118</v>
+        <v>0.8316014490041126</v>
       </c>
       <c r="K21">
-        <v>1.018375855939843</v>
+        <v>1.018375855939842</v>
       </c>
       <c r="L21">
-        <v>0.8419677451381097</v>
+        <v>0.8419677451381106</v>
       </c>
       <c r="M21">
-        <v>0.809031448185865</v>
+        <v>0.8090314481858659</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C22">
-        <v>0.7960136764715751</v>
+        <v>0.7960136764715762</v>
       </c>
       <c r="D22">
-        <v>1.005369295261273</v>
+        <v>1.005369295261272</v>
       </c>
       <c r="E22">
-        <v>0.8252185985965759</v>
+        <v>0.8252185985965769</v>
       </c>
       <c r="F22">
-        <v>0.7913142083078689</v>
+        <v>0.7913142083078697</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.022415095250737</v>
+        <v>1.022415095250736</v>
       </c>
       <c r="J22">
-        <v>0.8316014490041118</v>
+        <v>0.8316014490041126</v>
       </c>
       <c r="K22">
-        <v>1.018375855939843</v>
+        <v>1.018375855939842</v>
       </c>
       <c r="L22">
-        <v>0.8419677451381097</v>
+        <v>0.8419677451381106</v>
       </c>
       <c r="M22">
-        <v>0.809031448185865</v>
+        <v>0.8090314481858659</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C23">
-        <v>0.7960136764715751</v>
+        <v>0.7960136764715762</v>
       </c>
       <c r="D23">
-        <v>1.005369295261273</v>
+        <v>1.005369295261272</v>
       </c>
       <c r="E23">
-        <v>0.8252185985965759</v>
+        <v>0.8252185985965769</v>
       </c>
       <c r="F23">
-        <v>0.7913142083078689</v>
+        <v>0.7913142083078697</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.022415095250737</v>
+        <v>1.022415095250736</v>
       </c>
       <c r="J23">
-        <v>0.8316014490041118</v>
+        <v>0.8316014490041126</v>
       </c>
       <c r="K23">
-        <v>1.018375855939843</v>
+        <v>1.018375855939842</v>
       </c>
       <c r="L23">
-        <v>0.8419677451381097</v>
+        <v>0.8419677451381106</v>
       </c>
       <c r="M23">
-        <v>0.809031448185865</v>
+        <v>0.8090314481858659</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C24">
-        <v>0.7960136764715751</v>
+        <v>0.7960136764715762</v>
       </c>
       <c r="D24">
-        <v>1.005369295261273</v>
+        <v>1.005369295261272</v>
       </c>
       <c r="E24">
-        <v>0.8252185985965759</v>
+        <v>0.8252185985965769</v>
       </c>
       <c r="F24">
-        <v>0.7913142083078689</v>
+        <v>0.7913142083078697</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.022415095250737</v>
+        <v>1.022415095250736</v>
       </c>
       <c r="J24">
-        <v>0.8316014490041118</v>
+        <v>0.8316014490041126</v>
       </c>
       <c r="K24">
-        <v>1.018375855939843</v>
+        <v>1.018375855939842</v>
       </c>
       <c r="L24">
-        <v>0.8419677451381097</v>
+        <v>0.8419677451381106</v>
       </c>
       <c r="M24">
-        <v>0.809031448185865</v>
+        <v>0.8090314481858659</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C25">
-        <v>0.7960136764715751</v>
+        <v>0.7960136764715762</v>
       </c>
       <c r="D25">
-        <v>1.005369295261273</v>
+        <v>1.005369295261272</v>
       </c>
       <c r="E25">
-        <v>0.8252185985965759</v>
+        <v>0.8252185985965769</v>
       </c>
       <c r="F25">
-        <v>0.7913142083078689</v>
+        <v>0.7913142083078697</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.022415095250737</v>
+        <v>1.022415095250736</v>
       </c>
       <c r="J25">
-        <v>0.8316014490041118</v>
+        <v>0.8316014490041126</v>
       </c>
       <c r="K25">
-        <v>1.018375855939843</v>
+        <v>1.018375855939842</v>
       </c>
       <c r="L25">
-        <v>0.8419677451381097</v>
+        <v>0.8419677451381106</v>
       </c>
       <c r="M25">
-        <v>0.809031448185865</v>
+        <v>0.8090314481858659</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_63/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_63/res_bus/vm_pu.xlsx
@@ -421,13 +421,13 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.8693048878271098</v>
+        <v>0.8693048878271099</v>
       </c>
       <c r="D2">
-        <v>1.017502759210613</v>
+        <v>1.017502759210612</v>
       </c>
       <c r="E2">
-        <v>0.8894836906981394</v>
+        <v>0.8894836906981392</v>
       </c>
       <c r="F2">
         <v>0.8673953057322688</v>
@@ -442,13 +442,13 @@
         <v>0.8962464149545637</v>
       </c>
       <c r="K2">
-        <v>1.028723521438105</v>
+        <v>1.028723521438104</v>
       </c>
       <c r="L2">
         <v>0.9027324448743561</v>
       </c>
       <c r="M2">
-        <v>0.8810736784124524</v>
+        <v>0.8810736784124528</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.8962668177046089</v>
+        <v>0.8962668177046059</v>
       </c>
       <c r="D3">
         <v>1.022374533590663</v>
       </c>
       <c r="E3">
-        <v>0.913237749402555</v>
+        <v>0.913237749402552</v>
       </c>
       <c r="F3">
-        <v>0.895412523509579</v>
+        <v>0.8954125235095759</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,16 +477,16 @@
         <v>1.036900197406965</v>
       </c>
       <c r="J3">
-        <v>0.9200489508651593</v>
+        <v>0.9200489508651563</v>
       </c>
       <c r="K3">
         <v>1.032728913661551</v>
       </c>
       <c r="L3">
-        <v>0.9251159184917777</v>
+        <v>0.9251159184917748</v>
       </c>
       <c r="M3">
-        <v>0.90758507948494</v>
+        <v>0.9075850794849372</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.911713930484551</v>
+        <v>0.9117139304845502</v>
       </c>
       <c r="D4">
-        <v>1.025258854752313</v>
+        <v>1.025258854752314</v>
       </c>
       <c r="E4">
-        <v>0.9268675534597353</v>
+        <v>0.9268675534597346</v>
       </c>
       <c r="F4">
-        <v>0.911477514029241</v>
+        <v>0.9114775140292406</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.03916937735548</v>
       </c>
       <c r="J4">
-        <v>0.9336814721251868</v>
+        <v>0.9336814721251864</v>
       </c>
       <c r="K4">
-        <v>1.035061693804603</v>
+        <v>1.035061693804604</v>
       </c>
       <c r="L4">
-        <v>0.9379368514111013</v>
+        <v>0.9379368514111008</v>
       </c>
       <c r="M4">
-        <v>0.9227764002522111</v>
+        <v>0.9227764002522105</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9178318059298179</v>
+        <v>0.9178318059298184</v>
       </c>
       <c r="D5">
         <v>1.026419313124998</v>
       </c>
       <c r="E5">
-        <v>0.9322692792242758</v>
+        <v>0.932269279224276</v>
       </c>
       <c r="F5">
-        <v>0.917843390344409</v>
+        <v>0.9178433903444095</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,16 +553,16 @@
         <v>1.040067487726319</v>
       </c>
       <c r="J5">
-        <v>0.9390788321208751</v>
+        <v>0.9390788321208756</v>
       </c>
       <c r="K5">
         <v>1.035992126186223</v>
       </c>
       <c r="L5">
-        <v>0.9430130379186811</v>
+        <v>0.9430130379186816</v>
       </c>
       <c r="M5">
-        <v>0.9287934553941963</v>
+        <v>0.9287934553941969</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9188392292420213</v>
+        <v>0.9188392292420218</v>
       </c>
       <c r="D6">
         <v>1.026611371476043</v>
       </c>
       <c r="E6">
-        <v>0.9331589573873226</v>
+        <v>0.9331589573873229</v>
       </c>
       <c r="F6">
-        <v>0.9188918475229128</v>
+        <v>0.9188918475229131</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.040215301274863</v>
+        <v>1.040215301274864</v>
       </c>
       <c r="J6">
-        <v>0.9399674833435927</v>
+        <v>0.9399674833435931</v>
       </c>
       <c r="K6">
         <v>1.036145662482529</v>
       </c>
       <c r="L6">
-        <v>0.9438488154779145</v>
+        <v>0.9438488154779149</v>
       </c>
       <c r="M6">
-        <v>0.9297843038028775</v>
+        <v>0.9297843038028778</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9117970493965238</v>
+        <v>0.9117970493965221</v>
       </c>
       <c r="D7">
         <v>1.025274553021201</v>
       </c>
       <c r="E7">
-        <v>0.9269409295526854</v>
+        <v>0.9269409295526836</v>
       </c>
       <c r="F7">
-        <v>0.9115639890340445</v>
+        <v>0.9115639890340427</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.039181583689515</v>
       </c>
       <c r="J7">
-        <v>0.9337548101535522</v>
+        <v>0.9337548101535507</v>
       </c>
       <c r="K7">
         <v>1.035074311576513</v>
       </c>
       <c r="L7">
-        <v>0.9380058249416003</v>
+        <v>0.9380058249415986</v>
       </c>
       <c r="M7">
-        <v>0.9228581475180213</v>
+        <v>0.9228581475180196</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.8789079529641503</v>
+        <v>0.8789079529641515</v>
       </c>
       <c r="D8">
         <v>1.01921373366762</v>
       </c>
       <c r="E8">
-        <v>0.8979385092176742</v>
+        <v>0.8979385092176757</v>
       </c>
       <c r="F8">
-        <v>0.8773713482263299</v>
+        <v>0.8773713482263317</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.034353068886674</v>
+        <v>1.034353068886675</v>
       </c>
       <c r="J8">
-        <v>0.9047245843343898</v>
+        <v>0.9047245843343913</v>
       </c>
       <c r="K8">
         <v>1.030139583390487</v>
       </c>
       <c r="L8">
-        <v>0.9107047915426776</v>
+        <v>0.910704791542679</v>
       </c>
       <c r="M8">
-        <v>0.8905156996603999</v>
+        <v>0.8905156996604014</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.7960136764715762</v>
+        <v>0.7960136764715751</v>
       </c>
       <c r="D9">
-        <v>1.005369295261272</v>
+        <v>1.005369295261273</v>
       </c>
       <c r="E9">
-        <v>0.8252185985965769</v>
+        <v>0.8252185985965759</v>
       </c>
       <c r="F9">
-        <v>0.7913142083078697</v>
+        <v>0.7913142083078689</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.022415095250736</v>
+        <v>1.022415095250737</v>
       </c>
       <c r="J9">
-        <v>0.8316014490041126</v>
+        <v>0.8316014490041118</v>
       </c>
       <c r="K9">
-        <v>1.018375855939842</v>
+        <v>1.018375855939843</v>
       </c>
       <c r="L9">
-        <v>0.8419677451381106</v>
+        <v>0.8419677451381097</v>
       </c>
       <c r="M9">
-        <v>0.8090314481858659</v>
+        <v>0.809031448185865</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.7960136764715762</v>
+        <v>0.7960136764715751</v>
       </c>
       <c r="D10">
-        <v>1.005369295261272</v>
+        <v>1.005369295261273</v>
       </c>
       <c r="E10">
-        <v>0.8252185985965769</v>
+        <v>0.8252185985965759</v>
       </c>
       <c r="F10">
-        <v>0.7913142083078697</v>
+        <v>0.7913142083078689</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.022415095250736</v>
+        <v>1.022415095250737</v>
       </c>
       <c r="J10">
-        <v>0.8316014490041126</v>
+        <v>0.8316014490041118</v>
       </c>
       <c r="K10">
-        <v>1.018375855939842</v>
+        <v>1.018375855939843</v>
       </c>
       <c r="L10">
-        <v>0.8419677451381106</v>
+        <v>0.8419677451381097</v>
       </c>
       <c r="M10">
-        <v>0.8090314481858659</v>
+        <v>0.809031448185865</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.7960136764715762</v>
+        <v>0.7960136764715751</v>
       </c>
       <c r="D11">
-        <v>1.005369295261272</v>
+        <v>1.005369295261273</v>
       </c>
       <c r="E11">
-        <v>0.8252185985965769</v>
+        <v>0.8252185985965759</v>
       </c>
       <c r="F11">
-        <v>0.7913142083078697</v>
+        <v>0.7913142083078689</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.022415095250736</v>
+        <v>1.022415095250737</v>
       </c>
       <c r="J11">
-        <v>0.8316014490041126</v>
+        <v>0.8316014490041118</v>
       </c>
       <c r="K11">
-        <v>1.018375855939842</v>
+        <v>1.018375855939843</v>
       </c>
       <c r="L11">
-        <v>0.8419677451381106</v>
+        <v>0.8419677451381097</v>
       </c>
       <c r="M11">
-        <v>0.8090314481858659</v>
+        <v>0.809031448185865</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.7960136764715762</v>
+        <v>0.7960136764715751</v>
       </c>
       <c r="D12">
-        <v>1.005369295261272</v>
+        <v>1.005369295261273</v>
       </c>
       <c r="E12">
-        <v>0.8252185985965769</v>
+        <v>0.8252185985965759</v>
       </c>
       <c r="F12">
-        <v>0.7913142083078697</v>
+        <v>0.7913142083078689</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.022415095250736</v>
+        <v>1.022415095250737</v>
       </c>
       <c r="J12">
-        <v>0.8316014490041126</v>
+        <v>0.8316014490041118</v>
       </c>
       <c r="K12">
-        <v>1.018375855939842</v>
+        <v>1.018375855939843</v>
       </c>
       <c r="L12">
-        <v>0.8419677451381106</v>
+        <v>0.8419677451381097</v>
       </c>
       <c r="M12">
-        <v>0.8090314481858659</v>
+        <v>0.809031448185865</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.7960136764715762</v>
+        <v>0.7960136764715751</v>
       </c>
       <c r="D13">
-        <v>1.005369295261272</v>
+        <v>1.005369295261273</v>
       </c>
       <c r="E13">
-        <v>0.8252185985965769</v>
+        <v>0.8252185985965759</v>
       </c>
       <c r="F13">
-        <v>0.7913142083078697</v>
+        <v>0.7913142083078689</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.022415095250736</v>
+        <v>1.022415095250737</v>
       </c>
       <c r="J13">
-        <v>0.8316014490041126</v>
+        <v>0.8316014490041118</v>
       </c>
       <c r="K13">
-        <v>1.018375855939842</v>
+        <v>1.018375855939843</v>
       </c>
       <c r="L13">
-        <v>0.8419677451381106</v>
+        <v>0.8419677451381097</v>
       </c>
       <c r="M13">
-        <v>0.8090314481858659</v>
+        <v>0.809031448185865</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.7960136764715762</v>
+        <v>0.7960136764715751</v>
       </c>
       <c r="D14">
-        <v>1.005369295261272</v>
+        <v>1.005369295261273</v>
       </c>
       <c r="E14">
-        <v>0.8252185985965769</v>
+        <v>0.8252185985965759</v>
       </c>
       <c r="F14">
-        <v>0.7913142083078697</v>
+        <v>0.7913142083078689</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.022415095250736</v>
+        <v>1.022415095250737</v>
       </c>
       <c r="J14">
-        <v>0.8316014490041126</v>
+        <v>0.8316014490041118</v>
       </c>
       <c r="K14">
-        <v>1.018375855939842</v>
+        <v>1.018375855939843</v>
       </c>
       <c r="L14">
-        <v>0.8419677451381106</v>
+        <v>0.8419677451381097</v>
       </c>
       <c r="M14">
-        <v>0.8090314481858659</v>
+        <v>0.809031448185865</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.7960136764715762</v>
+        <v>0.7960136764715751</v>
       </c>
       <c r="D15">
-        <v>1.005369295261272</v>
+        <v>1.005369295261273</v>
       </c>
       <c r="E15">
-        <v>0.8252185985965769</v>
+        <v>0.8252185985965759</v>
       </c>
       <c r="F15">
-        <v>0.7913142083078697</v>
+        <v>0.7913142083078689</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.022415095250736</v>
+        <v>1.022415095250737</v>
       </c>
       <c r="J15">
-        <v>0.8316014490041126</v>
+        <v>0.8316014490041118</v>
       </c>
       <c r="K15">
-        <v>1.018375855939842</v>
+        <v>1.018375855939843</v>
       </c>
       <c r="L15">
-        <v>0.8419677451381106</v>
+        <v>0.8419677451381097</v>
       </c>
       <c r="M15">
-        <v>0.8090314481858659</v>
+        <v>0.809031448185865</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.7960136764715762</v>
+        <v>0.7960136764715751</v>
       </c>
       <c r="D16">
-        <v>1.005369295261272</v>
+        <v>1.005369295261273</v>
       </c>
       <c r="E16">
-        <v>0.8252185985965769</v>
+        <v>0.8252185985965759</v>
       </c>
       <c r="F16">
-        <v>0.7913142083078697</v>
+        <v>0.7913142083078689</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.022415095250736</v>
+        <v>1.022415095250737</v>
       </c>
       <c r="J16">
-        <v>0.8316014490041126</v>
+        <v>0.8316014490041118</v>
       </c>
       <c r="K16">
-        <v>1.018375855939842</v>
+        <v>1.018375855939843</v>
       </c>
       <c r="L16">
-        <v>0.8419677451381106</v>
+        <v>0.8419677451381097</v>
       </c>
       <c r="M16">
-        <v>0.8090314481858659</v>
+        <v>0.809031448185865</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.7960136764715762</v>
+        <v>0.7960136764715751</v>
       </c>
       <c r="D17">
-        <v>1.005369295261272</v>
+        <v>1.005369295261273</v>
       </c>
       <c r="E17">
-        <v>0.8252185985965769</v>
+        <v>0.8252185985965759</v>
       </c>
       <c r="F17">
-        <v>0.7913142083078697</v>
+        <v>0.7913142083078689</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.022415095250736</v>
+        <v>1.022415095250737</v>
       </c>
       <c r="J17">
-        <v>0.8316014490041126</v>
+        <v>0.8316014490041118</v>
       </c>
       <c r="K17">
-        <v>1.018375855939842</v>
+        <v>1.018375855939843</v>
       </c>
       <c r="L17">
-        <v>0.8419677451381106</v>
+        <v>0.8419677451381097</v>
       </c>
       <c r="M17">
-        <v>0.8090314481858659</v>
+        <v>0.809031448185865</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.7960136764715762</v>
+        <v>0.7960136764715751</v>
       </c>
       <c r="D18">
-        <v>1.005369295261272</v>
+        <v>1.005369295261273</v>
       </c>
       <c r="E18">
-        <v>0.8252185985965769</v>
+        <v>0.8252185985965759</v>
       </c>
       <c r="F18">
-        <v>0.7913142083078697</v>
+        <v>0.7913142083078689</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.022415095250736</v>
+        <v>1.022415095250737</v>
       </c>
       <c r="J18">
-        <v>0.8316014490041126</v>
+        <v>0.8316014490041118</v>
       </c>
       <c r="K18">
-        <v>1.018375855939842</v>
+        <v>1.018375855939843</v>
       </c>
       <c r="L18">
-        <v>0.8419677451381106</v>
+        <v>0.8419677451381097</v>
       </c>
       <c r="M18">
-        <v>0.8090314481858659</v>
+        <v>0.809031448185865</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.7960136764715762</v>
+        <v>0.7960136764715751</v>
       </c>
       <c r="D19">
-        <v>1.005369295261272</v>
+        <v>1.005369295261273</v>
       </c>
       <c r="E19">
-        <v>0.8252185985965769</v>
+        <v>0.8252185985965759</v>
       </c>
       <c r="F19">
-        <v>0.7913142083078697</v>
+        <v>0.7913142083078689</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.022415095250736</v>
+        <v>1.022415095250737</v>
       </c>
       <c r="J19">
-        <v>0.8316014490041126</v>
+        <v>0.8316014490041118</v>
       </c>
       <c r="K19">
-        <v>1.018375855939842</v>
+        <v>1.018375855939843</v>
       </c>
       <c r="L19">
-        <v>0.8419677451381106</v>
+        <v>0.8419677451381097</v>
       </c>
       <c r="M19">
-        <v>0.8090314481858659</v>
+        <v>0.809031448185865</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.7960136764715762</v>
+        <v>0.7960136764715751</v>
       </c>
       <c r="D20">
-        <v>1.005369295261272</v>
+        <v>1.005369295261273</v>
       </c>
       <c r="E20">
-        <v>0.8252185985965769</v>
+        <v>0.8252185985965759</v>
       </c>
       <c r="F20">
-        <v>0.7913142083078697</v>
+        <v>0.7913142083078689</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.022415095250736</v>
+        <v>1.022415095250737</v>
       </c>
       <c r="J20">
-        <v>0.8316014490041126</v>
+        <v>0.8316014490041118</v>
       </c>
       <c r="K20">
-        <v>1.018375855939842</v>
+        <v>1.018375855939843</v>
       </c>
       <c r="L20">
-        <v>0.8419677451381106</v>
+        <v>0.8419677451381097</v>
       </c>
       <c r="M20">
-        <v>0.8090314481858659</v>
+        <v>0.809031448185865</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.7960136764715762</v>
+        <v>0.7960136764715751</v>
       </c>
       <c r="D21">
-        <v>1.005369295261272</v>
+        <v>1.005369295261273</v>
       </c>
       <c r="E21">
-        <v>0.8252185985965769</v>
+        <v>0.8252185985965759</v>
       </c>
       <c r="F21">
-        <v>0.7913142083078697</v>
+        <v>0.7913142083078689</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.022415095250736</v>
+        <v>1.022415095250737</v>
       </c>
       <c r="J21">
-        <v>0.8316014490041126</v>
+        <v>0.8316014490041118</v>
       </c>
       <c r="K21">
-        <v>1.018375855939842</v>
+        <v>1.018375855939843</v>
       </c>
       <c r="L21">
-        <v>0.8419677451381106</v>
+        <v>0.8419677451381097</v>
       </c>
       <c r="M21">
-        <v>0.8090314481858659</v>
+        <v>0.809031448185865</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.7960136764715762</v>
+        <v>0.7960136764715751</v>
       </c>
       <c r="D22">
-        <v>1.005369295261272</v>
+        <v>1.005369295261273</v>
       </c>
       <c r="E22">
-        <v>0.8252185985965769</v>
+        <v>0.8252185985965759</v>
       </c>
       <c r="F22">
-        <v>0.7913142083078697</v>
+        <v>0.7913142083078689</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.022415095250736</v>
+        <v>1.022415095250737</v>
       </c>
       <c r="J22">
-        <v>0.8316014490041126</v>
+        <v>0.8316014490041118</v>
       </c>
       <c r="K22">
-        <v>1.018375855939842</v>
+        <v>1.018375855939843</v>
       </c>
       <c r="L22">
-        <v>0.8419677451381106</v>
+        <v>0.8419677451381097</v>
       </c>
       <c r="M22">
-        <v>0.8090314481858659</v>
+        <v>0.809031448185865</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.7960136764715762</v>
+        <v>0.7960136764715751</v>
       </c>
       <c r="D23">
-        <v>1.005369295261272</v>
+        <v>1.005369295261273</v>
       </c>
       <c r="E23">
-        <v>0.8252185985965769</v>
+        <v>0.8252185985965759</v>
       </c>
       <c r="F23">
-        <v>0.7913142083078697</v>
+        <v>0.7913142083078689</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.022415095250736</v>
+        <v>1.022415095250737</v>
       </c>
       <c r="J23">
-        <v>0.8316014490041126</v>
+        <v>0.8316014490041118</v>
       </c>
       <c r="K23">
-        <v>1.018375855939842</v>
+        <v>1.018375855939843</v>
       </c>
       <c r="L23">
-        <v>0.8419677451381106</v>
+        <v>0.8419677451381097</v>
       </c>
       <c r="M23">
-        <v>0.8090314481858659</v>
+        <v>0.809031448185865</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.7960136764715762</v>
+        <v>0.7960136764715751</v>
       </c>
       <c r="D24">
-        <v>1.005369295261272</v>
+        <v>1.005369295261273</v>
       </c>
       <c r="E24">
-        <v>0.8252185985965769</v>
+        <v>0.8252185985965759</v>
       </c>
       <c r="F24">
-        <v>0.7913142083078697</v>
+        <v>0.7913142083078689</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.022415095250736</v>
+        <v>1.022415095250737</v>
       </c>
       <c r="J24">
-        <v>0.8316014490041126</v>
+        <v>0.8316014490041118</v>
       </c>
       <c r="K24">
-        <v>1.018375855939842</v>
+        <v>1.018375855939843</v>
       </c>
       <c r="L24">
-        <v>0.8419677451381106</v>
+        <v>0.8419677451381097</v>
       </c>
       <c r="M24">
-        <v>0.8090314481858659</v>
+        <v>0.809031448185865</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.7960136764715762</v>
+        <v>0.7960136764715751</v>
       </c>
       <c r="D25">
-        <v>1.005369295261272</v>
+        <v>1.005369295261273</v>
       </c>
       <c r="E25">
-        <v>0.8252185985965769</v>
+        <v>0.8252185985965759</v>
       </c>
       <c r="F25">
-        <v>0.7913142083078697</v>
+        <v>0.7913142083078689</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.022415095250736</v>
+        <v>1.022415095250737</v>
       </c>
       <c r="J25">
-        <v>0.8316014490041126</v>
+        <v>0.8316014490041118</v>
       </c>
       <c r="K25">
-        <v>1.018375855939842</v>
+        <v>1.018375855939843</v>
       </c>
       <c r="L25">
-        <v>0.8419677451381106</v>
+        <v>0.8419677451381097</v>
       </c>
       <c r="M25">
-        <v>0.8090314481858659</v>
+        <v>0.809031448185865</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_63/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_63/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.8693048878271099</v>
+        <v>0.8751355480725151</v>
       </c>
       <c r="D2">
-        <v>1.017502759210612</v>
+        <v>1.018166898985416</v>
       </c>
       <c r="E2">
-        <v>0.8894836906981392</v>
+        <v>0.8945715004895919</v>
       </c>
       <c r="F2">
-        <v>0.8673953057322688</v>
+        <v>0.8731277023456151</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.032947718419135</v>
+        <v>1.033690061153608</v>
       </c>
       <c r="J2">
-        <v>0.8962464149545637</v>
+        <v>0.9018211477406871</v>
       </c>
       <c r="K2">
-        <v>1.028723521438104</v>
+        <v>1.029378811427706</v>
       </c>
       <c r="L2">
-        <v>0.9027324448743561</v>
+        <v>0.9077252167594847</v>
       </c>
       <c r="M2">
-        <v>0.8810736784124528</v>
+        <v>0.8866918364845476</v>
+      </c>
+      <c r="N2">
+        <v>0.9031018372108102</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.8962668177046059</v>
+        <v>0.901773009342301</v>
       </c>
       <c r="D3">
-        <v>1.022374533590663</v>
+        <v>1.023001315416727</v>
       </c>
       <c r="E3">
-        <v>0.913237749402552</v>
+        <v>0.9180485234493695</v>
       </c>
       <c r="F3">
-        <v>0.8954125235095759</v>
+        <v>0.9008017838766036</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.036900197406965</v>
+        <v>1.037602227837755</v>
       </c>
       <c r="J3">
-        <v>0.9200489508651563</v>
+        <v>0.9253536336035842</v>
       </c>
       <c r="K3">
-        <v>1.032728913661551</v>
+        <v>1.033348111681078</v>
       </c>
       <c r="L3">
-        <v>0.9251159184917748</v>
+        <v>0.9298497516761451</v>
       </c>
       <c r="M3">
-        <v>0.9075850794849372</v>
+        <v>0.9128837522705392</v>
+      </c>
+      <c r="N3">
+        <v>0.9266677419028465</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9117139304845502</v>
+        <v>0.9170725762230447</v>
       </c>
       <c r="D4">
-        <v>1.025258854752314</v>
+        <v>1.025868522980558</v>
       </c>
       <c r="E4">
-        <v>0.9268675534597346</v>
+        <v>0.9315524212815002</v>
       </c>
       <c r="F4">
-        <v>0.9114775140292406</v>
+        <v>0.9167099233485655</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.03916937735548</v>
+        <v>1.039853131860988</v>
       </c>
       <c r="J4">
-        <v>0.9336814721251864</v>
+        <v>0.9388649371856067</v>
       </c>
       <c r="K4">
-        <v>1.035061693804604</v>
+        <v>1.035664449381226</v>
       </c>
       <c r="L4">
-        <v>0.9379368514111008</v>
+        <v>0.9425537389595757</v>
       </c>
       <c r="M4">
-        <v>0.9227764002522105</v>
+        <v>0.9279296517288194</v>
+      </c>
+      <c r="N4">
+        <v>0.9401982330857239</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9178318059298184</v>
+        <v>0.9231383939791272</v>
       </c>
       <c r="D5">
-        <v>1.026419313124998</v>
+        <v>1.027022922720471</v>
       </c>
       <c r="E5">
-        <v>0.932269279224276</v>
+        <v>0.9369097493000655</v>
       </c>
       <c r="F5">
-        <v>0.9178433903444095</v>
+        <v>0.9230202784684517</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.040067487726319</v>
+        <v>1.040744814516675</v>
       </c>
       <c r="J5">
-        <v>0.9390788321208756</v>
+        <v>0.9442198728454476</v>
       </c>
       <c r="K5">
-        <v>1.035992126186223</v>
+        <v>1.036589080934566</v>
       </c>
       <c r="L5">
-        <v>0.9430130379186816</v>
+        <v>0.9475888475590951</v>
       </c>
       <c r="M5">
-        <v>0.9287934553941969</v>
+        <v>0.933895368667933</v>
+      </c>
+      <c r="N5">
+        <v>0.9455607733684215</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9188392292420218</v>
+        <v>0.9241375646181765</v>
       </c>
       <c r="D6">
-        <v>1.026611371476043</v>
+        <v>1.027214019618953</v>
       </c>
       <c r="E6">
-        <v>0.9331589573873229</v>
+        <v>0.9377923907917097</v>
       </c>
       <c r="F6">
-        <v>0.9188918475229131</v>
+        <v>0.9240599235106871</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.040215301274864</v>
+        <v>1.040891610491968</v>
       </c>
       <c r="J6">
-        <v>0.9399674833435931</v>
+        <v>0.9451018182666938</v>
       </c>
       <c r="K6">
-        <v>1.036145662482529</v>
+        <v>1.0367416978556</v>
       </c>
       <c r="L6">
-        <v>0.9438488154779149</v>
+        <v>0.9484181237901171</v>
       </c>
       <c r="M6">
-        <v>0.9297843038028778</v>
+        <v>0.9348780767623381</v>
+      </c>
+      <c r="N6">
+        <v>0.9464439712533261</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9117970493965221</v>
+        <v>0.9171549649740838</v>
       </c>
       <c r="D7">
-        <v>1.025274553021201</v>
+        <v>1.025884136345488</v>
       </c>
       <c r="E7">
-        <v>0.9269409295526836</v>
+        <v>0.9316251745380033</v>
       </c>
       <c r="F7">
-        <v>0.9115639890340427</v>
+        <v>0.9167956203523316</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.039181583689515</v>
+        <v>1.039865247945037</v>
       </c>
       <c r="J7">
-        <v>0.9337548101535507</v>
+        <v>0.9389376787671153</v>
       </c>
       <c r="K7">
-        <v>1.035074311576513</v>
+        <v>1.035676985779232</v>
       </c>
       <c r="L7">
-        <v>0.9380058249415986</v>
+        <v>0.942622135572717</v>
       </c>
       <c r="M7">
-        <v>0.9228581475180196</v>
+        <v>0.9280106790469237</v>
+      </c>
+      <c r="N7">
+        <v>0.940271077968622</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.8789079529641515</v>
+        <v>0.8846119340334834</v>
       </c>
       <c r="D8">
-        <v>1.01921373366762</v>
+        <v>1.019863329566267</v>
       </c>
       <c r="E8">
-        <v>0.8979385092176757</v>
+        <v>0.9029181478591558</v>
       </c>
       <c r="F8">
-        <v>0.8773713482263317</v>
+        <v>0.8829700049900236</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.034353068886675</v>
+        <v>1.035079664709359</v>
       </c>
       <c r="J8">
-        <v>0.9047245843343913</v>
+        <v>0.9101934371508547</v>
       </c>
       <c r="K8">
-        <v>1.030139583390487</v>
+        <v>1.03078079706379</v>
       </c>
       <c r="L8">
-        <v>0.910704791542679</v>
+        <v>0.9155962503742652</v>
       </c>
       <c r="M8">
-        <v>0.8905156996604014</v>
+        <v>0.8960091645072267</v>
+      </c>
+      <c r="N8">
+        <v>0.9114860162322551</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.7960136764715751</v>
+        <v>0.8034907559545654</v>
       </c>
       <c r="D9">
-        <v>1.005369295261273</v>
+        <v>1.006219587527945</v>
       </c>
       <c r="E9">
-        <v>0.8252185985965759</v>
+        <v>0.8317113485217493</v>
       </c>
       <c r="F9">
-        <v>0.7913142083078689</v>
+        <v>0.7987736176219935</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.022415095250737</v>
+        <v>1.023361554675018</v>
       </c>
       <c r="J9">
-        <v>0.8316014490041118</v>
+        <v>0.8385755037252199</v>
       </c>
       <c r="K9">
-        <v>1.018375855939843</v>
+        <v>1.019212555838237</v>
       </c>
       <c r="L9">
-        <v>0.8419677451381097</v>
+        <v>0.8482873067741679</v>
       </c>
       <c r="M9">
-        <v>0.809031448185865</v>
+        <v>0.8162681752619928</v>
+      </c>
+      <c r="N9">
+        <v>0.8397663771264644</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.7960136764715751</v>
+        <v>0.8034907559545654</v>
       </c>
       <c r="D10">
-        <v>1.005369295261273</v>
+        <v>1.006219587527945</v>
       </c>
       <c r="E10">
-        <v>0.8252185985965759</v>
+        <v>0.8317113485217493</v>
       </c>
       <c r="F10">
-        <v>0.7913142083078689</v>
+        <v>0.7987736176219935</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.022415095250737</v>
+        <v>1.023361554675018</v>
       </c>
       <c r="J10">
-        <v>0.8316014490041118</v>
+        <v>0.8385755037252199</v>
       </c>
       <c r="K10">
-        <v>1.018375855939843</v>
+        <v>1.019212555838237</v>
       </c>
       <c r="L10">
-        <v>0.8419677451381097</v>
+        <v>0.8482873067741679</v>
       </c>
       <c r="M10">
-        <v>0.809031448185865</v>
+        <v>0.8162681752619928</v>
+      </c>
+      <c r="N10">
+        <v>0.8397663771264644</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.7960136764715751</v>
+        <v>0.8034907559545654</v>
       </c>
       <c r="D11">
-        <v>1.005369295261273</v>
+        <v>1.006219587527945</v>
       </c>
       <c r="E11">
-        <v>0.8252185985965759</v>
+        <v>0.8317113485217493</v>
       </c>
       <c r="F11">
-        <v>0.7913142083078689</v>
+        <v>0.7987736176219935</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.022415095250737</v>
+        <v>1.023361554675018</v>
       </c>
       <c r="J11">
-        <v>0.8316014490041118</v>
+        <v>0.8385755037252199</v>
       </c>
       <c r="K11">
-        <v>1.018375855939843</v>
+        <v>1.019212555838237</v>
       </c>
       <c r="L11">
-        <v>0.8419677451381097</v>
+        <v>0.8482873067741679</v>
       </c>
       <c r="M11">
-        <v>0.809031448185865</v>
+        <v>0.8162681752619928</v>
+      </c>
+      <c r="N11">
+        <v>0.8397663771264644</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.7960136764715751</v>
+        <v>0.8034907559545654</v>
       </c>
       <c r="D12">
-        <v>1.005369295261273</v>
+        <v>1.006219587527945</v>
       </c>
       <c r="E12">
-        <v>0.8252185985965759</v>
+        <v>0.8317113485217493</v>
       </c>
       <c r="F12">
-        <v>0.7913142083078689</v>
+        <v>0.7987736176219935</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.022415095250737</v>
+        <v>1.023361554675018</v>
       </c>
       <c r="J12">
-        <v>0.8316014490041118</v>
+        <v>0.8385755037252199</v>
       </c>
       <c r="K12">
-        <v>1.018375855939843</v>
+        <v>1.019212555838237</v>
       </c>
       <c r="L12">
-        <v>0.8419677451381097</v>
+        <v>0.8482873067741679</v>
       </c>
       <c r="M12">
-        <v>0.809031448185865</v>
+        <v>0.8162681752619928</v>
+      </c>
+      <c r="N12">
+        <v>0.8397663771264644</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.7960136764715751</v>
+        <v>0.8034907559545654</v>
       </c>
       <c r="D13">
-        <v>1.005369295261273</v>
+        <v>1.006219587527945</v>
       </c>
       <c r="E13">
-        <v>0.8252185985965759</v>
+        <v>0.8317113485217493</v>
       </c>
       <c r="F13">
-        <v>0.7913142083078689</v>
+        <v>0.7987736176219935</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.022415095250737</v>
+        <v>1.023361554675018</v>
       </c>
       <c r="J13">
-        <v>0.8316014490041118</v>
+        <v>0.8385755037252199</v>
       </c>
       <c r="K13">
-        <v>1.018375855939843</v>
+        <v>1.019212555838237</v>
       </c>
       <c r="L13">
-        <v>0.8419677451381097</v>
+        <v>0.8482873067741679</v>
       </c>
       <c r="M13">
-        <v>0.809031448185865</v>
+        <v>0.8162681752619928</v>
+      </c>
+      <c r="N13">
+        <v>0.8397663771264644</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.7960136764715751</v>
+        <v>0.8034907559545654</v>
       </c>
       <c r="D14">
-        <v>1.005369295261273</v>
+        <v>1.006219587527945</v>
       </c>
       <c r="E14">
-        <v>0.8252185985965759</v>
+        <v>0.8317113485217493</v>
       </c>
       <c r="F14">
-        <v>0.7913142083078689</v>
+        <v>0.7987736176219935</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.022415095250737</v>
+        <v>1.023361554675018</v>
       </c>
       <c r="J14">
-        <v>0.8316014490041118</v>
+        <v>0.8385755037252199</v>
       </c>
       <c r="K14">
-        <v>1.018375855939843</v>
+        <v>1.019212555838237</v>
       </c>
       <c r="L14">
-        <v>0.8419677451381097</v>
+        <v>0.8482873067741679</v>
       </c>
       <c r="M14">
-        <v>0.809031448185865</v>
+        <v>0.8162681752619928</v>
+      </c>
+      <c r="N14">
+        <v>0.8397663771264644</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.7960136764715751</v>
+        <v>0.8034907559545654</v>
       </c>
       <c r="D15">
-        <v>1.005369295261273</v>
+        <v>1.006219587527945</v>
       </c>
       <c r="E15">
-        <v>0.8252185985965759</v>
+        <v>0.8317113485217493</v>
       </c>
       <c r="F15">
-        <v>0.7913142083078689</v>
+        <v>0.7987736176219935</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.022415095250737</v>
+        <v>1.023361554675018</v>
       </c>
       <c r="J15">
-        <v>0.8316014490041118</v>
+        <v>0.8385755037252199</v>
       </c>
       <c r="K15">
-        <v>1.018375855939843</v>
+        <v>1.019212555838237</v>
       </c>
       <c r="L15">
-        <v>0.8419677451381097</v>
+        <v>0.8482873067741679</v>
       </c>
       <c r="M15">
-        <v>0.809031448185865</v>
+        <v>0.8162681752619928</v>
+      </c>
+      <c r="N15">
+        <v>0.8397663771264644</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.7960136764715751</v>
+        <v>0.8034907559545654</v>
       </c>
       <c r="D16">
-        <v>1.005369295261273</v>
+        <v>1.006219587527945</v>
       </c>
       <c r="E16">
-        <v>0.8252185985965759</v>
+        <v>0.8317113485217493</v>
       </c>
       <c r="F16">
-        <v>0.7913142083078689</v>
+        <v>0.7987736176219935</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.022415095250737</v>
+        <v>1.023361554675018</v>
       </c>
       <c r="J16">
-        <v>0.8316014490041118</v>
+        <v>0.8385755037252199</v>
       </c>
       <c r="K16">
-        <v>1.018375855939843</v>
+        <v>1.019212555838237</v>
       </c>
       <c r="L16">
-        <v>0.8419677451381097</v>
+        <v>0.8482873067741679</v>
       </c>
       <c r="M16">
-        <v>0.809031448185865</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.8162681752619928</v>
+      </c>
+      <c r="N16">
+        <v>0.8397663771264644</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.7960136764715751</v>
+        <v>0.8034907559545654</v>
       </c>
       <c r="D17">
-        <v>1.005369295261273</v>
+        <v>1.006219587527945</v>
       </c>
       <c r="E17">
-        <v>0.8252185985965759</v>
+        <v>0.8317113485217493</v>
       </c>
       <c r="F17">
-        <v>0.7913142083078689</v>
+        <v>0.7987736176219935</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.022415095250737</v>
+        <v>1.023361554675018</v>
       </c>
       <c r="J17">
-        <v>0.8316014490041118</v>
+        <v>0.8385755037252199</v>
       </c>
       <c r="K17">
-        <v>1.018375855939843</v>
+        <v>1.019212555838237</v>
       </c>
       <c r="L17">
-        <v>0.8419677451381097</v>
+        <v>0.8482873067741679</v>
       </c>
       <c r="M17">
-        <v>0.809031448185865</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.8162681752619928</v>
+      </c>
+      <c r="N17">
+        <v>0.8397663771264644</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.7960136764715751</v>
+        <v>0.8034907559545654</v>
       </c>
       <c r="D18">
-        <v>1.005369295261273</v>
+        <v>1.006219587527945</v>
       </c>
       <c r="E18">
-        <v>0.8252185985965759</v>
+        <v>0.8317113485217493</v>
       </c>
       <c r="F18">
-        <v>0.7913142083078689</v>
+        <v>0.7987736176219935</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.022415095250737</v>
+        <v>1.023361554675018</v>
       </c>
       <c r="J18">
-        <v>0.8316014490041118</v>
+        <v>0.8385755037252199</v>
       </c>
       <c r="K18">
-        <v>1.018375855939843</v>
+        <v>1.019212555838237</v>
       </c>
       <c r="L18">
-        <v>0.8419677451381097</v>
+        <v>0.8482873067741679</v>
       </c>
       <c r="M18">
-        <v>0.809031448185865</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.8162681752619928</v>
+      </c>
+      <c r="N18">
+        <v>0.8397663771264644</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.7960136764715751</v>
+        <v>0.8034907559545654</v>
       </c>
       <c r="D19">
-        <v>1.005369295261273</v>
+        <v>1.006219587527945</v>
       </c>
       <c r="E19">
-        <v>0.8252185985965759</v>
+        <v>0.8317113485217493</v>
       </c>
       <c r="F19">
-        <v>0.7913142083078689</v>
+        <v>0.7987736176219935</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.022415095250737</v>
+        <v>1.023361554675018</v>
       </c>
       <c r="J19">
-        <v>0.8316014490041118</v>
+        <v>0.8385755037252199</v>
       </c>
       <c r="K19">
-        <v>1.018375855939843</v>
+        <v>1.019212555838237</v>
       </c>
       <c r="L19">
-        <v>0.8419677451381097</v>
+        <v>0.8482873067741679</v>
       </c>
       <c r="M19">
-        <v>0.809031448185865</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.8162681752619928</v>
+      </c>
+      <c r="N19">
+        <v>0.8397663771264644</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.7960136764715751</v>
+        <v>0.8034907559545654</v>
       </c>
       <c r="D20">
-        <v>1.005369295261273</v>
+        <v>1.006219587527945</v>
       </c>
       <c r="E20">
-        <v>0.8252185985965759</v>
+        <v>0.8317113485217493</v>
       </c>
       <c r="F20">
-        <v>0.7913142083078689</v>
+        <v>0.7987736176219935</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.022415095250737</v>
+        <v>1.023361554675018</v>
       </c>
       <c r="J20">
-        <v>0.8316014490041118</v>
+        <v>0.8385755037252199</v>
       </c>
       <c r="K20">
-        <v>1.018375855939843</v>
+        <v>1.019212555838237</v>
       </c>
       <c r="L20">
-        <v>0.8419677451381097</v>
+        <v>0.8482873067741679</v>
       </c>
       <c r="M20">
-        <v>0.809031448185865</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.8162681752619928</v>
+      </c>
+      <c r="N20">
+        <v>0.8397663771264644</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.7960136764715751</v>
+        <v>0.8034907559545654</v>
       </c>
       <c r="D21">
-        <v>1.005369295261273</v>
+        <v>1.006219587527945</v>
       </c>
       <c r="E21">
-        <v>0.8252185985965759</v>
+        <v>0.8317113485217493</v>
       </c>
       <c r="F21">
-        <v>0.7913142083078689</v>
+        <v>0.7987736176219935</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.022415095250737</v>
+        <v>1.023361554675018</v>
       </c>
       <c r="J21">
-        <v>0.8316014490041118</v>
+        <v>0.8385755037252199</v>
       </c>
       <c r="K21">
-        <v>1.018375855939843</v>
+        <v>1.019212555838237</v>
       </c>
       <c r="L21">
-        <v>0.8419677451381097</v>
+        <v>0.8482873067741679</v>
       </c>
       <c r="M21">
-        <v>0.809031448185865</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.8162681752619928</v>
+      </c>
+      <c r="N21">
+        <v>0.8397663771264644</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.7960136764715751</v>
+        <v>0.8034907559545654</v>
       </c>
       <c r="D22">
-        <v>1.005369295261273</v>
+        <v>1.006219587527945</v>
       </c>
       <c r="E22">
-        <v>0.8252185985965759</v>
+        <v>0.8317113485217493</v>
       </c>
       <c r="F22">
-        <v>0.7913142083078689</v>
+        <v>0.7987736176219935</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.022415095250737</v>
+        <v>1.023361554675018</v>
       </c>
       <c r="J22">
-        <v>0.8316014490041118</v>
+        <v>0.8385755037252199</v>
       </c>
       <c r="K22">
-        <v>1.018375855939843</v>
+        <v>1.019212555838237</v>
       </c>
       <c r="L22">
-        <v>0.8419677451381097</v>
+        <v>0.8482873067741679</v>
       </c>
       <c r="M22">
-        <v>0.809031448185865</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.8162681752619928</v>
+      </c>
+      <c r="N22">
+        <v>0.8397663771264644</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.7960136764715751</v>
+        <v>0.8034907559545654</v>
       </c>
       <c r="D23">
-        <v>1.005369295261273</v>
+        <v>1.006219587527945</v>
       </c>
       <c r="E23">
-        <v>0.8252185985965759</v>
+        <v>0.8317113485217493</v>
       </c>
       <c r="F23">
-        <v>0.7913142083078689</v>
+        <v>0.7987736176219935</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.022415095250737</v>
+        <v>1.023361554675018</v>
       </c>
       <c r="J23">
-        <v>0.8316014490041118</v>
+        <v>0.8385755037252199</v>
       </c>
       <c r="K23">
-        <v>1.018375855939843</v>
+        <v>1.019212555838237</v>
       </c>
       <c r="L23">
-        <v>0.8419677451381097</v>
+        <v>0.8482873067741679</v>
       </c>
       <c r="M23">
-        <v>0.809031448185865</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.8162681752619928</v>
+      </c>
+      <c r="N23">
+        <v>0.8397663771264644</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.7960136764715751</v>
+        <v>0.8034907559545654</v>
       </c>
       <c r="D24">
-        <v>1.005369295261273</v>
+        <v>1.006219587527945</v>
       </c>
       <c r="E24">
-        <v>0.8252185985965759</v>
+        <v>0.8317113485217493</v>
       </c>
       <c r="F24">
-        <v>0.7913142083078689</v>
+        <v>0.7987736176219935</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.022415095250737</v>
+        <v>1.023361554675018</v>
       </c>
       <c r="J24">
-        <v>0.8316014490041118</v>
+        <v>0.8385755037252199</v>
       </c>
       <c r="K24">
-        <v>1.018375855939843</v>
+        <v>1.019212555838237</v>
       </c>
       <c r="L24">
-        <v>0.8419677451381097</v>
+        <v>0.8482873067741679</v>
       </c>
       <c r="M24">
-        <v>0.809031448185865</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.8162681752619928</v>
+      </c>
+      <c r="N24">
+        <v>0.8397663771264644</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.7960136764715751</v>
+        <v>0.8034907559545654</v>
       </c>
       <c r="D25">
-        <v>1.005369295261273</v>
+        <v>1.006219587527945</v>
       </c>
       <c r="E25">
-        <v>0.8252185985965759</v>
+        <v>0.8317113485217493</v>
       </c>
       <c r="F25">
-        <v>0.7913142083078689</v>
+        <v>0.7987736176219935</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.022415095250737</v>
+        <v>1.023361554675018</v>
       </c>
       <c r="J25">
-        <v>0.8316014490041118</v>
+        <v>0.8385755037252199</v>
       </c>
       <c r="K25">
-        <v>1.018375855939843</v>
+        <v>1.019212555838237</v>
       </c>
       <c r="L25">
-        <v>0.8419677451381097</v>
+        <v>0.8482873067741679</v>
       </c>
       <c r="M25">
-        <v>0.809031448185865</v>
+        <v>0.8162681752619928</v>
+      </c>
+      <c r="N25">
+        <v>0.8397663771264644</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_63/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_63/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.8751355480725151</v>
+        <v>0.9747938206506634</v>
       </c>
       <c r="D2">
-        <v>1.018166898985416</v>
+        <v>1.047981604539122</v>
       </c>
       <c r="E2">
-        <v>0.8945715004895919</v>
+        <v>0.9822346254727651</v>
       </c>
       <c r="F2">
-        <v>0.8731277023456151</v>
+        <v>1.040030870056475</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.033690061153608</v>
+        <v>1.058246261958523</v>
       </c>
       <c r="J2">
-        <v>0.9018211477406871</v>
+        <v>0.9977555002219791</v>
       </c>
       <c r="K2">
-        <v>1.029378811427706</v>
+        <v>1.058810627379821</v>
       </c>
       <c r="L2">
-        <v>0.9077252167594847</v>
+        <v>0.9939471370104792</v>
       </c>
       <c r="M2">
-        <v>0.8866918364845476</v>
+        <v>1.050959319726153</v>
       </c>
       <c r="N2">
-        <v>0.9031018372108102</v>
+        <v>0.9991724274764496</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.901773009342301</v>
+        <v>0.9867542457522169</v>
       </c>
       <c r="D3">
-        <v>1.023001315416727</v>
+        <v>1.05400174937432</v>
       </c>
       <c r="E3">
-        <v>0.9180485234493695</v>
+        <v>0.9925822555674577</v>
       </c>
       <c r="F3">
-        <v>0.9008017838766036</v>
+        <v>1.047612294866275</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.037602227837755</v>
+        <v>1.061561043389883</v>
       </c>
       <c r="J3">
-        <v>0.9253536336035842</v>
+        <v>1.007612634112439</v>
       </c>
       <c r="K3">
-        <v>1.033348111681078</v>
+        <v>1.063987325287306</v>
       </c>
       <c r="L3">
-        <v>0.9298497516761451</v>
+        <v>1.003310935989118</v>
       </c>
       <c r="M3">
-        <v>0.9128837522705392</v>
+        <v>1.057670163340644</v>
       </c>
       <c r="N3">
-        <v>0.9266677419028465</v>
+        <v>1.009043559627663</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9170725762230447</v>
+        <v>0.9941417059719471</v>
       </c>
       <c r="D4">
-        <v>1.025868522980558</v>
+        <v>1.057741606819568</v>
       </c>
       <c r="E4">
-        <v>0.9315524212815002</v>
+        <v>0.9989766476932143</v>
       </c>
       <c r="F4">
-        <v>0.9167099233485655</v>
+        <v>1.052319950681667</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.039853131860988</v>
+        <v>1.063599469220803</v>
       </c>
       <c r="J4">
-        <v>0.9388649371856067</v>
+        <v>1.013696464003922</v>
       </c>
       <c r="K4">
-        <v>1.035664449381226</v>
+        <v>1.067189723448917</v>
       </c>
       <c r="L4">
-        <v>0.9425537389595757</v>
+        <v>1.009087439387458</v>
       </c>
       <c r="M4">
-        <v>0.9279296517288194</v>
+        <v>1.061825409225388</v>
       </c>
       <c r="N4">
-        <v>0.9401982330857239</v>
+        <v>1.015136029255417</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9231383939791272</v>
+        <v>0.9971705609520231</v>
       </c>
       <c r="D5">
-        <v>1.027022922720471</v>
+        <v>1.059279402651185</v>
       </c>
       <c r="E5">
-        <v>0.9369097493000655</v>
+        <v>1.001598896366752</v>
       </c>
       <c r="F5">
-        <v>0.9230202784684517</v>
+        <v>1.054255365238506</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.040744814516675</v>
+        <v>1.064432768527964</v>
       </c>
       <c r="J5">
-        <v>0.9442198728454476</v>
+        <v>1.016189595220623</v>
       </c>
       <c r="K5">
-        <v>1.036589080934566</v>
+        <v>1.068503387108193</v>
       </c>
       <c r="L5">
-        <v>0.9475888475590951</v>
+        <v>1.011453945537305</v>
       </c>
       <c r="M5">
-        <v>0.933895368667933</v>
+        <v>1.063530963962744</v>
       </c>
       <c r="N5">
-        <v>0.9455607733684215</v>
+        <v>1.017632701004411</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9241375646181765</v>
+        <v>0.9976748086221329</v>
       </c>
       <c r="D6">
-        <v>1.027214019618953</v>
+        <v>1.059535660404886</v>
       </c>
       <c r="E6">
-        <v>0.9377923907917097</v>
+        <v>1.002035479082233</v>
       </c>
       <c r="F6">
-        <v>0.9240599235106871</v>
+        <v>1.054577867265981</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.040891610491968</v>
+        <v>1.064571344674238</v>
       </c>
       <c r="J6">
-        <v>0.9451018182666938</v>
+        <v>1.016604578072967</v>
       </c>
       <c r="K6">
-        <v>1.0367416978556</v>
+        <v>1.068722113880878</v>
       </c>
       <c r="L6">
-        <v>0.9484181237901171</v>
+        <v>1.011847811297242</v>
       </c>
       <c r="M6">
-        <v>0.9348780767623381</v>
+        <v>1.063815004244453</v>
       </c>
       <c r="N6">
-        <v>0.9464439712533261</v>
+        <v>1.018048273180006</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9171549649740838</v>
+        <v>0.9941824706121642</v>
       </c>
       <c r="D7">
-        <v>1.025884136345488</v>
+        <v>1.057762286818274</v>
       </c>
       <c r="E7">
-        <v>0.9316251745380033</v>
+        <v>0.9990119379605232</v>
       </c>
       <c r="F7">
-        <v>0.9167956203523316</v>
+        <v>1.05234597888156</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.039865247945037</v>
+        <v>1.063610694517719</v>
       </c>
       <c r="J7">
-        <v>0.9389376787671153</v>
+        <v>1.013730023561261</v>
       </c>
       <c r="K7">
-        <v>1.035676985779232</v>
+        <v>1.067207401662637</v>
       </c>
       <c r="L7">
-        <v>0.942622135572717</v>
+        <v>1.009119297186974</v>
       </c>
       <c r="M7">
-        <v>0.9280106790469237</v>
+        <v>1.06184835699727</v>
       </c>
       <c r="N7">
-        <v>0.940271077968622</v>
+        <v>1.015169636471177</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.8846119340334834</v>
+        <v>0.9789135217150091</v>
       </c>
       <c r="D8">
-        <v>1.019863329566267</v>
+        <v>1.050050169585669</v>
       </c>
       <c r="E8">
-        <v>0.9029181478591558</v>
+        <v>0.9857980217293578</v>
       </c>
       <c r="F8">
-        <v>0.8829700049900236</v>
+        <v>1.042636464174937</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.035079664709359</v>
+        <v>1.059389737612584</v>
       </c>
       <c r="J8">
-        <v>0.9101934371508547</v>
+        <v>1.001151595948088</v>
       </c>
       <c r="K8">
-        <v>1.03078079706379</v>
+        <v>1.060592314879409</v>
       </c>
       <c r="L8">
-        <v>0.9155962503742652</v>
+        <v>0.9971738675416246</v>
       </c>
       <c r="M8">
-        <v>0.8960091645072267</v>
+        <v>1.053268283218087</v>
       </c>
       <c r="N8">
-        <v>0.9114860162322551</v>
+        <v>1.002573346048028</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8034907559545654</v>
+        <v>0.9489125788867592</v>
       </c>
       <c r="D9">
-        <v>1.006219587527945</v>
+        <v>1.035117919379271</v>
       </c>
       <c r="E9">
-        <v>0.8317113485217493</v>
+        <v>0.9598721989795317</v>
       </c>
       <c r="F9">
-        <v>0.7987736176219935</v>
+        <v>1.023809544467499</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.023361554675018</v>
+        <v>1.05103763682898</v>
       </c>
       <c r="J9">
-        <v>0.8385755037252199</v>
+        <v>0.9764079586652123</v>
       </c>
       <c r="K9">
-        <v>1.019212555838237</v>
+        <v>1.047665815971745</v>
       </c>
       <c r="L9">
-        <v>0.8482873067741679</v>
+        <v>0.9736516985983542</v>
       </c>
       <c r="M9">
-        <v>0.8162681752619928</v>
+        <v>1.036527788334196</v>
       </c>
       <c r="N9">
-        <v>0.8397663771264644</v>
+        <v>0.9777945699620749</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8034907559545654</v>
+        <v>0.9261177403409684</v>
       </c>
       <c r="D10">
-        <v>1.006219587527945</v>
+        <v>1.023995838179819</v>
       </c>
       <c r="E10">
-        <v>0.8317113485217493</v>
+        <v>0.9402203230786108</v>
       </c>
       <c r="F10">
-        <v>0.7987736176219935</v>
+        <v>1.009750745817606</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.023361554675018</v>
+        <v>1.044680902675134</v>
       </c>
       <c r="J10">
-        <v>0.8385755037252199</v>
+        <v>0.9576036566413114</v>
       </c>
       <c r="K10">
-        <v>1.019212555838237</v>
+        <v>1.037944947373217</v>
       </c>
       <c r="L10">
-        <v>0.8482873067741679</v>
+        <v>0.9557598563704252</v>
       </c>
       <c r="M10">
-        <v>0.8162681752619928</v>
+        <v>1.023946151376428</v>
       </c>
       <c r="N10">
-        <v>0.8397663771264644</v>
+        <v>0.9589635636724168</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8034907559545654</v>
+        <v>0.9153608417186492</v>
       </c>
       <c r="D11">
-        <v>1.006219587527945</v>
+        <v>1.018821481365983</v>
       </c>
       <c r="E11">
-        <v>0.8317113485217493</v>
+        <v>0.9309642454284559</v>
       </c>
       <c r="F11">
-        <v>0.7987736176219935</v>
+        <v>1.003196597150107</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.023361554675018</v>
+        <v>1.041687454636379</v>
       </c>
       <c r="J11">
-        <v>0.8385755037252199</v>
+        <v>0.9487339807097156</v>
       </c>
       <c r="K11">
-        <v>1.019212555838237</v>
+        <v>1.033396971627113</v>
       </c>
       <c r="L11">
-        <v>0.8482873067741679</v>
+        <v>0.9473171028835651</v>
       </c>
       <c r="M11">
-        <v>0.8162681752619928</v>
+        <v>1.018058481064351</v>
       </c>
       <c r="N11">
-        <v>0.8397663771264644</v>
+        <v>0.950081291783632</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8034907559545654</v>
+        <v>0.911205883416352</v>
       </c>
       <c r="D12">
-        <v>1.006219587527945</v>
+        <v>1.016836250385919</v>
       </c>
       <c r="E12">
-        <v>0.8317113485217493</v>
+        <v>0.9273923943892687</v>
       </c>
       <c r="F12">
-        <v>0.7987736176219935</v>
+        <v>1.000679406534408</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.023361554675018</v>
+        <v>1.040533126541794</v>
       </c>
       <c r="J12">
-        <v>0.8385755037252199</v>
+        <v>0.9453091694641184</v>
       </c>
       <c r="K12">
-        <v>1.019212555838237</v>
+        <v>1.031647849792028</v>
       </c>
       <c r="L12">
-        <v>0.8482873067741679</v>
+        <v>0.9440566607273018</v>
       </c>
       <c r="M12">
-        <v>0.8162681752619928</v>
+        <v>1.015793601752651</v>
       </c>
       <c r="N12">
-        <v>0.8397663771264644</v>
+        <v>0.9466516169132349</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8034907559545654</v>
+        <v>0.9121048552085471</v>
       </c>
       <c r="D13">
-        <v>1.006219587527945</v>
+        <v>1.017265131880946</v>
       </c>
       <c r="E13">
-        <v>0.8317113485217493</v>
+        <v>0.9281650372321312</v>
       </c>
       <c r="F13">
-        <v>0.7987736176219935</v>
+        <v>1.001223336719338</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.023361554675018</v>
+        <v>1.040782773886997</v>
       </c>
       <c r="J13">
-        <v>0.8385755037252199</v>
+        <v>0.946050101407365</v>
       </c>
       <c r="K13">
-        <v>1.019212555838237</v>
+        <v>1.03202592001202</v>
       </c>
       <c r="L13">
-        <v>0.8482873067741679</v>
+        <v>0.9447620531659722</v>
       </c>
       <c r="M13">
-        <v>0.8162681752619928</v>
+        <v>1.016283181723442</v>
       </c>
       <c r="N13">
-        <v>0.8397663771264644</v>
+        <v>0.9473936010648267</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8034907559545654</v>
+        <v>0.9150208223236309</v>
       </c>
       <c r="D14">
-        <v>1.006219587527945</v>
+        <v>1.018658735782742</v>
       </c>
       <c r="E14">
-        <v>0.8317113485217493</v>
+        <v>0.9306718709138588</v>
       </c>
       <c r="F14">
-        <v>0.7987736176219935</v>
+        <v>1.002990298110754</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.023361554675018</v>
+        <v>1.041592945588414</v>
       </c>
       <c r="J14">
-        <v>0.8385755037252199</v>
+        <v>0.9484536848443432</v>
       </c>
       <c r="K14">
-        <v>1.019212555838237</v>
+        <v>1.033253669374484</v>
       </c>
       <c r="L14">
-        <v>0.8482873067741679</v>
+        <v>0.9470502687024357</v>
       </c>
       <c r="M14">
-        <v>0.8162681752619928</v>
+        <v>1.017872936412055</v>
       </c>
       <c r="N14">
-        <v>0.8397663771264644</v>
+        <v>0.9498005978659805</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8034907559545654</v>
+        <v>0.9167954118803182</v>
       </c>
       <c r="D15">
-        <v>1.006219587527945</v>
+        <v>1.019508673796656</v>
       </c>
       <c r="E15">
-        <v>0.8317113485217493</v>
+        <v>0.9321979398066006</v>
       </c>
       <c r="F15">
-        <v>0.7987736176219935</v>
+        <v>1.004067586094959</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.023361554675018</v>
+        <v>1.042086279906391</v>
       </c>
       <c r="J15">
-        <v>0.8385755037252199</v>
+        <v>0.9499166240006816</v>
       </c>
       <c r="K15">
-        <v>1.019212555838237</v>
+        <v>1.03400189198289</v>
       </c>
       <c r="L15">
-        <v>0.8482873067741679</v>
+        <v>0.9484429288316457</v>
       </c>
       <c r="M15">
-        <v>0.8162681752619928</v>
+        <v>1.018841695717042</v>
       </c>
       <c r="N15">
-        <v>0.8397663771264644</v>
+        <v>0.9512656145637225</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8034907559545654</v>
+        <v>0.9268108968549049</v>
       </c>
       <c r="D16">
-        <v>1.006219587527945</v>
+        <v>1.024330947860991</v>
       </c>
       <c r="E16">
-        <v>0.8317113485217493</v>
+        <v>0.9408171851570181</v>
       </c>
       <c r="F16">
-        <v>0.7987736176219935</v>
+        <v>1.010174896505874</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.023361554675018</v>
+        <v>1.044873998895138</v>
       </c>
       <c r="J16">
-        <v>0.8385755037252199</v>
+        <v>0.958175330815611</v>
       </c>
       <c r="K16">
-        <v>1.019212555838237</v>
+        <v>1.038238939463707</v>
       </c>
       <c r="L16">
-        <v>0.8482873067741679</v>
+        <v>0.9563039470031197</v>
       </c>
       <c r="M16">
-        <v>0.8162681752619928</v>
+        <v>1.024326693086545</v>
       </c>
       <c r="N16">
-        <v>0.8397663771264644</v>
+        <v>0.9595360496896158</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8034907559545654</v>
+        <v>0.9328397527919537</v>
       </c>
       <c r="D17">
-        <v>1.006219587527945</v>
+        <v>1.027254011257358</v>
       </c>
       <c r="E17">
-        <v>0.8317113485217493</v>
+        <v>0.9460105145967612</v>
       </c>
       <c r="F17">
-        <v>0.7987736176219935</v>
+        <v>1.013873083649034</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.023361554675018</v>
+        <v>1.046554273768546</v>
       </c>
       <c r="J17">
-        <v>0.8385755037252199</v>
+        <v>0.9631480735845493</v>
       </c>
       <c r="K17">
-        <v>1.019212555838237</v>
+        <v>1.040800477663825</v>
       </c>
       <c r="L17">
-        <v>0.8482873067741679</v>
+        <v>0.9610363732306463</v>
       </c>
       <c r="M17">
-        <v>0.8162681752619928</v>
+        <v>1.027642162647749</v>
       </c>
       <c r="N17">
-        <v>0.8397663771264644</v>
+        <v>0.9645158543236676</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8034907559545654</v>
+        <v>0.936272840942022</v>
       </c>
       <c r="D18">
-        <v>1.006219587527945</v>
+        <v>1.028925151781873</v>
       </c>
       <c r="E18">
-        <v>0.8317113485217493</v>
+        <v>0.9489693789414588</v>
       </c>
       <c r="F18">
-        <v>0.7987736176219935</v>
+        <v>1.01598615913127</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.023361554675018</v>
+        <v>1.047511600261227</v>
       </c>
       <c r="J18">
-        <v>0.8385755037252199</v>
+        <v>0.9659800975350669</v>
       </c>
       <c r="K18">
-        <v>1.019212555838237</v>
+        <v>1.042262603781827</v>
       </c>
       <c r="L18">
-        <v>0.8482873067741679</v>
+        <v>0.9637312134059667</v>
       </c>
       <c r="M18">
-        <v>0.8162681752619928</v>
+        <v>1.029534540363664</v>
       </c>
       <c r="N18">
-        <v>0.8397663771264644</v>
+        <v>0.9673519000730324</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8034907559545654</v>
+        <v>0.9374299592970223</v>
       </c>
       <c r="D19">
-        <v>1.006219587527945</v>
+        <v>1.029489473811456</v>
       </c>
       <c r="E19">
-        <v>0.8317113485217493</v>
+        <v>0.9499669069992583</v>
       </c>
       <c r="F19">
-        <v>0.7987736176219935</v>
+        <v>1.016699525430319</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.023361554675018</v>
+        <v>1.047834327273679</v>
       </c>
       <c r="J19">
-        <v>0.8385755037252199</v>
+        <v>0.9669346699235886</v>
       </c>
       <c r="K19">
-        <v>1.019212555838237</v>
+        <v>1.042755959208491</v>
       </c>
       <c r="L19">
-        <v>0.8482873067741679</v>
+        <v>0.964639490640088</v>
       </c>
       <c r="M19">
-        <v>0.8162681752619928</v>
+        <v>1.030173065433562</v>
       </c>
       <c r="N19">
-        <v>0.8397663771264644</v>
+        <v>0.9683078280638368</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8034907559545654</v>
+        <v>0.9322017096458077</v>
       </c>
       <c r="D20">
-        <v>1.006219587527945</v>
+        <v>1.026943953436558</v>
       </c>
       <c r="E20">
-        <v>0.8317113485217493</v>
+        <v>0.9454607290475664</v>
       </c>
       <c r="F20">
-        <v>0.7987736176219935</v>
+        <v>1.013480935730921</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.023361554675018</v>
+        <v>1.046376388793029</v>
       </c>
       <c r="J20">
-        <v>0.8385755037252199</v>
+        <v>0.9626217623855767</v>
       </c>
       <c r="K20">
-        <v>1.019212555838237</v>
+        <v>1.040529012802475</v>
       </c>
       <c r="L20">
-        <v>0.8482873067741679</v>
+        <v>0.9605355302282255</v>
       </c>
       <c r="M20">
-        <v>0.8162681752619928</v>
+        <v>1.027290809892618</v>
       </c>
       <c r="N20">
-        <v>0.8397663771264644</v>
+        <v>0.9639887957024238</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8034907559545654</v>
+        <v>0.9141667918929326</v>
       </c>
       <c r="D21">
-        <v>1.006219587527945</v>
+        <v>1.01825018910192</v>
       </c>
       <c r="E21">
-        <v>0.8317113485217493</v>
+        <v>0.9299375679317354</v>
       </c>
       <c r="F21">
-        <v>0.7987736176219935</v>
+        <v>1.002472374075751</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.023361554675018</v>
+        <v>1.041355600607292</v>
       </c>
       <c r="J21">
-        <v>0.8385755037252199</v>
+        <v>0.9477496838897576</v>
       </c>
       <c r="K21">
-        <v>1.019212555838237</v>
+        <v>1.032893863105302</v>
       </c>
       <c r="L21">
-        <v>0.8482873067741679</v>
+        <v>0.9463800711515301</v>
       </c>
       <c r="M21">
-        <v>0.8162681752619928</v>
+        <v>1.0174070574747</v>
       </c>
       <c r="N21">
-        <v>0.8397663771264644</v>
+        <v>0.9490955971492889</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8034907559545654</v>
+        <v>0.9018859887843271</v>
       </c>
       <c r="D22">
-        <v>1.006219587527945</v>
+        <v>1.012411277551986</v>
       </c>
       <c r="E22">
-        <v>0.8317113485217493</v>
+        <v>0.9193878319557325</v>
       </c>
       <c r="F22">
-        <v>0.7987736176219935</v>
+        <v>0.9950632033839899</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.023361554675018</v>
+        <v>1.03794877302657</v>
       </c>
       <c r="J22">
-        <v>0.8385755037252199</v>
+        <v>0.9376300629188489</v>
       </c>
       <c r="K22">
-        <v>1.019212555838237</v>
+        <v>1.027740810058751</v>
       </c>
       <c r="L22">
-        <v>0.8482873067741679</v>
+        <v>0.9367452851557708</v>
       </c>
       <c r="M22">
-        <v>0.8162681752619928</v>
+        <v>1.010733097694489</v>
       </c>
       <c r="N22">
-        <v>0.8397663771264644</v>
+        <v>0.9389616051558651</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8034907559545654</v>
+        <v>0.9084965242587959</v>
       </c>
       <c r="D23">
-        <v>1.006219587527945</v>
+        <v>1.015545844030203</v>
       </c>
       <c r="E23">
-        <v>0.8317113485217493</v>
+        <v>0.9250643397752694</v>
       </c>
       <c r="F23">
-        <v>0.7987736176219935</v>
+        <v>0.9990424171567592</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.023361554675018</v>
+        <v>1.039781099544031</v>
       </c>
       <c r="J23">
-        <v>0.8385755037252199</v>
+        <v>0.9430763455853274</v>
       </c>
       <c r="K23">
-        <v>1.019212555838237</v>
+        <v>1.030509670074893</v>
       </c>
       <c r="L23">
-        <v>0.8482873067741679</v>
+        <v>0.9419308711643779</v>
       </c>
       <c r="M23">
-        <v>0.8162681752619928</v>
+        <v>1.014319615895661</v>
       </c>
       <c r="N23">
-        <v>0.8397663771264644</v>
+        <v>0.9444156221684274</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8034907559545654</v>
+        <v>0.9324902698482224</v>
       </c>
       <c r="D24">
-        <v>1.006219587527945</v>
+        <v>1.027084159093386</v>
       </c>
       <c r="E24">
-        <v>0.8317113485217493</v>
+        <v>0.9457093692143044</v>
       </c>
       <c r="F24">
-        <v>0.7987736176219935</v>
+        <v>1.013658265602598</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.023361554675018</v>
+        <v>1.046456837208158</v>
       </c>
       <c r="J24">
-        <v>0.8385755037252199</v>
+        <v>0.9628597899104203</v>
       </c>
       <c r="K24">
-        <v>1.019212555838237</v>
+        <v>1.040651774258674</v>
       </c>
       <c r="L24">
-        <v>0.8482873067741679</v>
+        <v>0.9607620406078005</v>
       </c>
       <c r="M24">
-        <v>0.8162681752619928</v>
+        <v>1.027449698404432</v>
       </c>
       <c r="N24">
-        <v>0.8397663771264644</v>
+        <v>0.9642271612536546</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.8034907559545654</v>
+        <v>0.9570992101128929</v>
       </c>
       <c r="D25">
-        <v>1.006219587527945</v>
+        <v>1.039161246378403</v>
       </c>
       <c r="E25">
-        <v>0.8317113485217493</v>
+        <v>0.9669407839225557</v>
       </c>
       <c r="F25">
-        <v>0.7987736176219935</v>
+        <v>1.028912094782714</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.023361554675018</v>
+        <v>1.053320870317438</v>
       </c>
       <c r="J25">
-        <v>0.8385755037252199</v>
+        <v>0.9831619356013074</v>
       </c>
       <c r="K25">
-        <v>1.019212555838237</v>
+        <v>1.051180597097954</v>
       </c>
       <c r="L25">
-        <v>0.8482873067741679</v>
+        <v>0.9800749389499968</v>
       </c>
       <c r="M25">
-        <v>0.8162681752619928</v>
+        <v>1.041077574525262</v>
       </c>
       <c r="N25">
-        <v>0.8397663771264644</v>
+        <v>0.9845581383201113</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_63/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_63/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9747938206506634</v>
+        <v>0.9461692172995129</v>
       </c>
       <c r="D2">
-        <v>1.047981604539122</v>
+        <v>1.023091368372433</v>
       </c>
       <c r="E2">
-        <v>0.9822346254727651</v>
+        <v>0.9596434903884664</v>
       </c>
       <c r="F2">
-        <v>1.040030870056475</v>
+        <v>0.9199234399015859</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.058246261958523</v>
+        <v>1.04823588693434</v>
       </c>
       <c r="J2">
-        <v>0.9977555002219791</v>
+        <v>0.9700885110904759</v>
       </c>
       <c r="K2">
-        <v>1.058810627379821</v>
+        <v>1.034238110779699</v>
       </c>
       <c r="L2">
-        <v>0.9939471370104792</v>
+        <v>0.971695235747419</v>
       </c>
       <c r="M2">
-        <v>1.050959319726153</v>
+        <v>0.9326238585607509</v>
       </c>
       <c r="N2">
-        <v>0.9991724274764496</v>
+        <v>0.9714661480469321</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9867542457522169</v>
+        <v>0.9534053335718415</v>
       </c>
       <c r="D3">
-        <v>1.05400174937432</v>
+        <v>1.026656736711927</v>
       </c>
       <c r="E3">
-        <v>0.9925822555674577</v>
+        <v>0.9655868422326277</v>
       </c>
       <c r="F3">
-        <v>1.047612294866275</v>
+        <v>0.9303113987982865</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.061561043389883</v>
+        <v>1.049552168686541</v>
       </c>
       <c r="J3">
-        <v>1.007612634112439</v>
+        <v>0.9752521672617578</v>
       </c>
       <c r="K3">
-        <v>1.063987325287306</v>
+        <v>1.036959532729952</v>
       </c>
       <c r="L3">
-        <v>1.003310935989118</v>
+        <v>0.9766798421741618</v>
       </c>
       <c r="M3">
-        <v>1.057670163340644</v>
+        <v>0.9419210953951729</v>
       </c>
       <c r="N3">
-        <v>1.009043559627663</v>
+        <v>0.9766371372022568</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9941417059719471</v>
+        <v>0.9579330712616053</v>
       </c>
       <c r="D4">
-        <v>1.057741606819568</v>
+        <v>1.028866762049402</v>
       </c>
       <c r="E4">
-        <v>0.9989766476932143</v>
+        <v>0.9693130876658022</v>
       </c>
       <c r="F4">
-        <v>1.052319950681667</v>
+        <v>0.9367889765649678</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.063599469220803</v>
+        <v>1.050346101611163</v>
       </c>
       <c r="J4">
-        <v>1.013696464003922</v>
+        <v>0.9784777002682257</v>
       </c>
       <c r="K4">
-        <v>1.067189723448917</v>
+        <v>1.038628840114071</v>
       </c>
       <c r="L4">
-        <v>1.009087439387458</v>
+        <v>0.9797965515889009</v>
       </c>
       <c r="M4">
-        <v>1.061825409225388</v>
+        <v>0.9477153266852791</v>
       </c>
       <c r="N4">
-        <v>1.015136029255417</v>
+        <v>0.9798672508355677</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9971705609520231</v>
+        <v>0.9598019338788211</v>
       </c>
       <c r="D5">
-        <v>1.059279402651185</v>
+        <v>1.029773185199953</v>
       </c>
       <c r="E5">
-        <v>1.001598896366752</v>
+        <v>0.9708527944323516</v>
       </c>
       <c r="F5">
-        <v>1.054255365238506</v>
+        <v>0.9394580827578114</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.064432768527964</v>
+        <v>1.050666288111991</v>
       </c>
       <c r="J5">
-        <v>1.016189595220623</v>
+        <v>0.9798077482067226</v>
       </c>
       <c r="K5">
-        <v>1.068503387108193</v>
+        <v>1.039309142812778</v>
       </c>
       <c r="L5">
-        <v>1.011453945537305</v>
+        <v>0.9810824118589895</v>
       </c>
       <c r="M5">
-        <v>1.063530963962744</v>
+        <v>0.9501020148839688</v>
       </c>
       <c r="N5">
-        <v>1.017632701004411</v>
+        <v>0.9811991875946956</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9976748086221329</v>
+        <v>0.9601137603313422</v>
       </c>
       <c r="D6">
-        <v>1.059535660404886</v>
+        <v>1.029924063371728</v>
       </c>
       <c r="E6">
-        <v>1.002035479082233</v>
+        <v>0.9711097950342262</v>
       </c>
       <c r="F6">
-        <v>1.054577867265981</v>
+        <v>0.9399031849896521</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.064571344674238</v>
+        <v>1.050719259225548</v>
       </c>
       <c r="J6">
-        <v>1.016604578072967</v>
+        <v>0.980029593498544</v>
       </c>
       <c r="K6">
-        <v>1.068722113880878</v>
+        <v>1.039422122093371</v>
       </c>
       <c r="L6">
-        <v>1.011847811297242</v>
+        <v>0.9812969261389405</v>
       </c>
       <c r="M6">
-        <v>1.063815004244453</v>
+        <v>0.9504999693220948</v>
       </c>
       <c r="N6">
-        <v>1.018048273180006</v>
+        <v>0.9814213479322774</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9941824706121642</v>
+        <v>0.9579581760609409</v>
       </c>
       <c r="D7">
-        <v>1.057762286818274</v>
+        <v>1.028878962103938</v>
       </c>
       <c r="E7">
-        <v>0.9990119379605232</v>
+        <v>0.9693337643880424</v>
       </c>
       <c r="F7">
-        <v>1.05234597888156</v>
+        <v>0.9368248483239294</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.063610694517719</v>
+        <v>1.050350433012134</v>
       </c>
       <c r="J7">
-        <v>1.013730023561261</v>
+        <v>0.9784955723055584</v>
       </c>
       <c r="K7">
-        <v>1.067207401662637</v>
+        <v>1.03863801414487</v>
       </c>
       <c r="L7">
-        <v>1.009119297186974</v>
+        <v>0.9798138272026893</v>
       </c>
       <c r="M7">
-        <v>1.06184835699727</v>
+        <v>0.9477474062859143</v>
       </c>
       <c r="N7">
-        <v>1.015169636471177</v>
+        <v>0.979885148253243</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9789135217150091</v>
+        <v>0.9486482107890782</v>
       </c>
       <c r="D8">
-        <v>1.050050169585669</v>
+        <v>1.024316734034519</v>
       </c>
       <c r="E8">
-        <v>0.9857980217293578</v>
+        <v>0.9616779624447932</v>
       </c>
       <c r="F8">
-        <v>1.042636464174937</v>
+        <v>0.9234874470085555</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.059389737612584</v>
+        <v>1.04869285524892</v>
       </c>
       <c r="J8">
-        <v>1.001151595948088</v>
+        <v>0.9718586509409679</v>
       </c>
       <c r="K8">
-        <v>1.060592314879409</v>
+        <v>1.03517709359159</v>
       </c>
       <c r="L8">
-        <v>0.9971738675416246</v>
+        <v>0.973403330404042</v>
       </c>
       <c r="M8">
-        <v>1.053268283218087</v>
+        <v>0.9358142820228359</v>
       </c>
       <c r="N8">
-        <v>1.002573346048028</v>
+        <v>0.9732388016990497</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9489125788867592</v>
+        <v>0.9309368692297681</v>
       </c>
       <c r="D9">
-        <v>1.035117919379271</v>
+        <v>1.015507248178863</v>
       </c>
       <c r="E9">
-        <v>0.9598721989795317</v>
+        <v>0.9471799915878465</v>
       </c>
       <c r="F9">
-        <v>1.023809544467499</v>
+        <v>0.8978875194172762</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.05103763682898</v>
+        <v>1.045316807020323</v>
       </c>
       <c r="J9">
-        <v>0.9764079586652123</v>
+        <v>0.9591884982792503</v>
       </c>
       <c r="K9">
-        <v>1.047665815971745</v>
+        <v>1.028353643349235</v>
       </c>
       <c r="L9">
-        <v>0.9736516985983542</v>
+        <v>0.9611924046096462</v>
       </c>
       <c r="M9">
-        <v>1.036527788334196</v>
+        <v>0.9128873646907238</v>
       </c>
       <c r="N9">
-        <v>0.9777945699620749</v>
+        <v>0.9605506559672654</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9261177403409684</v>
+        <v>0.9180504149914229</v>
       </c>
       <c r="D10">
-        <v>1.023995838179819</v>
+        <v>1.009074118800383</v>
       </c>
       <c r="E10">
-        <v>0.9402203230786108</v>
+        <v>0.93668640193426</v>
       </c>
       <c r="F10">
-        <v>1.009750745817606</v>
+        <v>0.8790291643647619</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044680902675134</v>
+        <v>1.042740418255069</v>
       </c>
       <c r="J10">
-        <v>0.9576036566413114</v>
+        <v>0.9499400998670391</v>
       </c>
       <c r="K10">
-        <v>1.037944947373217</v>
+        <v>1.023281447481244</v>
       </c>
       <c r="L10">
-        <v>0.9557598563704252</v>
+        <v>0.9523013196123891</v>
       </c>
       <c r="M10">
-        <v>1.023946151376428</v>
+        <v>0.8959899147654006</v>
       </c>
       <c r="N10">
-        <v>0.9589635636724168</v>
+        <v>0.9512891237685027</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9153608417186492</v>
+        <v>0.9121586469191229</v>
       </c>
       <c r="D11">
-        <v>1.018821481365983</v>
+        <v>1.006144924351871</v>
       </c>
       <c r="E11">
-        <v>0.9309642454284559</v>
+        <v>0.931904154083781</v>
       </c>
       <c r="F11">
-        <v>1.003196597150107</v>
+        <v>0.8703290584636441</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.041687454636379</v>
+        <v>1.041542536238143</v>
       </c>
       <c r="J11">
-        <v>0.9487339807097156</v>
+        <v>0.9457044986885028</v>
       </c>
       <c r="K11">
-        <v>1.033396971627113</v>
+        <v>1.02095187941545</v>
       </c>
       <c r="L11">
-        <v>0.9473171028835651</v>
+        <v>0.9482356285770224</v>
       </c>
       <c r="M11">
-        <v>1.018058481064351</v>
+        <v>0.8881946249188317</v>
       </c>
       <c r="N11">
-        <v>0.950081291783632</v>
+        <v>0.9470475075504626</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.911205883416352</v>
+        <v>0.9099174908576829</v>
       </c>
       <c r="D12">
-        <v>1.016836250385919</v>
+        <v>1.005034294761868</v>
       </c>
       <c r="E12">
-        <v>0.9273923943892687</v>
+        <v>0.9300876092171035</v>
       </c>
       <c r="F12">
-        <v>1.000679406534408</v>
+        <v>0.86700547070597</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.040533126541794</v>
+        <v>1.041084745136767</v>
       </c>
       <c r="J12">
-        <v>0.9453091694641184</v>
+        <v>0.9440922267913803</v>
       </c>
       <c r="K12">
-        <v>1.031647849792028</v>
+        <v>1.020065677037083</v>
       </c>
       <c r="L12">
-        <v>0.9440566607273018</v>
+        <v>0.94668907809754</v>
       </c>
       <c r="M12">
-        <v>1.015793601752651</v>
+        <v>0.8852169481725591</v>
       </c>
       <c r="N12">
-        <v>0.9466516169132349</v>
+        <v>0.945432946042316</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9121048552085471</v>
+        <v>0.9104007166052408</v>
       </c>
       <c r="D13">
-        <v>1.017265131880946</v>
+        <v>1.005273568579274</v>
       </c>
       <c r="E13">
-        <v>0.9281650372321312</v>
+        <v>0.9304791629497331</v>
       </c>
       <c r="F13">
-        <v>1.001223336719338</v>
+        <v>0.8677227690007264</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.040782773886997</v>
+        <v>1.041183532369408</v>
       </c>
       <c r="J13">
-        <v>0.946050101407365</v>
+        <v>0.9444399062232226</v>
       </c>
       <c r="K13">
-        <v>1.03202592001202</v>
+        <v>1.020256731067154</v>
       </c>
       <c r="L13">
-        <v>0.9447620531659722</v>
+        <v>0.947022535987916</v>
       </c>
       <c r="M13">
-        <v>1.016283181723442</v>
+        <v>0.8858595760307717</v>
       </c>
       <c r="N13">
-        <v>0.9473936010648267</v>
+        <v>0.945781119218831</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9150208223236309</v>
+        <v>0.9119745048247233</v>
       </c>
       <c r="D14">
-        <v>1.018658735782742</v>
+        <v>1.006053586573631</v>
       </c>
       <c r="E14">
-        <v>0.9306718709138588</v>
+        <v>0.931754846349077</v>
       </c>
       <c r="F14">
-        <v>1.002990298110754</v>
+        <v>0.8700562825860758</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.041592945588414</v>
+        <v>1.041504960057254</v>
       </c>
       <c r="J14">
-        <v>0.9484536848443432</v>
+        <v>0.9455720506529113</v>
       </c>
       <c r="K14">
-        <v>1.033253669374484</v>
+        <v>1.020879057303193</v>
       </c>
       <c r="L14">
-        <v>0.9470502687024357</v>
+        <v>0.9481085577312967</v>
       </c>
       <c r="M14">
-        <v>1.017872936412055</v>
+        <v>0.8879502322287857</v>
       </c>
       <c r="N14">
-        <v>0.9498005978659805</v>
+        <v>0.9469148714234684</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9167954118803182</v>
+        <v>0.9129369923917732</v>
       </c>
       <c r="D15">
-        <v>1.019508673796656</v>
+        <v>1.00653115496801</v>
       </c>
       <c r="E15">
-        <v>0.9321979398066006</v>
+        <v>0.9325353645304447</v>
       </c>
       <c r="F15">
-        <v>1.004067586094959</v>
+        <v>0.8714814569302158</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.042086279906391</v>
+        <v>1.04170128505091</v>
       </c>
       <c r="J15">
-        <v>0.9499166240006816</v>
+        <v>0.9462642950277591</v>
       </c>
       <c r="K15">
-        <v>1.03400189198289</v>
+        <v>1.021259696371353</v>
       </c>
       <c r="L15">
-        <v>0.9484429288316457</v>
+        <v>0.9487727410836883</v>
       </c>
       <c r="M15">
-        <v>1.018841695717042</v>
+        <v>0.8892271245541845</v>
       </c>
       <c r="N15">
-        <v>0.9512656145637225</v>
+        <v>0.9476080988647302</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9268108968549049</v>
+        <v>0.9184343875086276</v>
       </c>
       <c r="D16">
-        <v>1.024330947860991</v>
+        <v>1.009265409203061</v>
       </c>
       <c r="E16">
-        <v>0.9408171851570181</v>
+        <v>0.9369984041055461</v>
       </c>
       <c r="F16">
-        <v>1.010174896505874</v>
+        <v>0.8795943590734803</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044873998895138</v>
+        <v>1.042818143987246</v>
       </c>
       <c r="J16">
-        <v>0.958175330815611</v>
+        <v>0.9502159889032065</v>
       </c>
       <c r="K16">
-        <v>1.038238939463707</v>
+        <v>1.023433172621418</v>
       </c>
       <c r="L16">
-        <v>0.9563039470031197</v>
+        <v>0.9525662787410081</v>
       </c>
       <c r="M16">
-        <v>1.024326693086545</v>
+        <v>0.8964963505232741</v>
       </c>
       <c r="N16">
-        <v>0.9595360496896158</v>
+        <v>0.9515654045987463</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9328397527919537</v>
+        <v>0.9217954674741042</v>
       </c>
       <c r="D17">
-        <v>1.027254011257358</v>
+        <v>1.01094139622666</v>
       </c>
       <c r="E17">
-        <v>0.9460105145967612</v>
+        <v>0.9397312589629032</v>
       </c>
       <c r="F17">
-        <v>1.013873083649034</v>
+        <v>0.8845327758146695</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.046554273768546</v>
+        <v>1.043496363820946</v>
       </c>
       <c r="J17">
-        <v>0.9631480735845493</v>
+        <v>0.9526301609452785</v>
       </c>
       <c r="K17">
-        <v>1.040800477663825</v>
+        <v>1.024760264815615</v>
       </c>
       <c r="L17">
-        <v>0.9610363732306463</v>
+        <v>0.9548855213972859</v>
       </c>
       <c r="M17">
-        <v>1.027642162647749</v>
+        <v>0.9009213993546531</v>
       </c>
       <c r="N17">
-        <v>0.9645158543236676</v>
+        <v>0.9539830050420274</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.936272840942022</v>
+        <v>0.9237262852112871</v>
       </c>
       <c r="D18">
-        <v>1.028925151781873</v>
+        <v>1.01190518914984</v>
       </c>
       <c r="E18">
-        <v>0.9489693789414588</v>
+        <v>0.9413026136328088</v>
       </c>
       <c r="F18">
-        <v>1.01598615913127</v>
+        <v>0.8873626214405248</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.047511600261227</v>
+        <v>1.043884053311239</v>
       </c>
       <c r="J18">
-        <v>0.9659800975350669</v>
+        <v>0.9540163470520785</v>
       </c>
       <c r="K18">
-        <v>1.042262603781827</v>
+        <v>1.025521539750436</v>
       </c>
       <c r="L18">
-        <v>0.9637312134059667</v>
+        <v>0.9562177772780684</v>
       </c>
       <c r="M18">
-        <v>1.029534540363664</v>
+        <v>0.90345707055929</v>
       </c>
       <c r="N18">
-        <v>0.9673519000730324</v>
+        <v>0.9553711596920972</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9374299592970223</v>
+        <v>0.9243797766076641</v>
       </c>
       <c r="D19">
-        <v>1.029489473811456</v>
+        <v>1.012231509405842</v>
       </c>
       <c r="E19">
-        <v>0.9499669069992583</v>
+        <v>0.9418346795731053</v>
       </c>
       <c r="F19">
-        <v>1.016699525430319</v>
+        <v>0.8883192523502306</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.047834327273679</v>
+        <v>1.044014918495456</v>
       </c>
       <c r="J19">
-        <v>0.9669346699235886</v>
+        <v>0.9544853933261053</v>
       </c>
       <c r="K19">
-        <v>1.042755959208491</v>
+        <v>1.025778969665041</v>
       </c>
       <c r="L19">
-        <v>0.964639490640088</v>
+        <v>0.9566686701896917</v>
       </c>
       <c r="M19">
-        <v>1.030173065433562</v>
+        <v>0.9043142495412281</v>
       </c>
       <c r="N19">
-        <v>0.9683078280638368</v>
+        <v>0.9558408720656335</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9322017096458077</v>
+        <v>0.9214379603721135</v>
       </c>
       <c r="D20">
-        <v>1.026943953436558</v>
+        <v>1.010763011282516</v>
       </c>
       <c r="E20">
-        <v>0.9454607290475664</v>
+        <v>0.9394404238332155</v>
       </c>
       <c r="F20">
-        <v>1.013480935730921</v>
+        <v>0.884008246331905</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.046376388793029</v>
+        <v>1.04342441819727</v>
       </c>
       <c r="J20">
-        <v>0.9626217623855767</v>
+        <v>0.9523734429165459</v>
       </c>
       <c r="K20">
-        <v>1.040529012802475</v>
+        <v>1.024619209928011</v>
       </c>
       <c r="L20">
-        <v>0.9605355302282255</v>
+        <v>0.954638837245846</v>
       </c>
       <c r="M20">
-        <v>1.027290809892618</v>
+        <v>0.9004513954069258</v>
       </c>
       <c r="N20">
-        <v>0.9639887957024238</v>
+        <v>0.9537259224442479</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9141667918929326</v>
+        <v>0.9115125703453314</v>
       </c>
       <c r="D21">
-        <v>1.01825018910192</v>
+        <v>1.005824523177328</v>
       </c>
       <c r="E21">
-        <v>0.9299375679317354</v>
+        <v>0.9313803385320629</v>
       </c>
       <c r="F21">
-        <v>1.002472374075751</v>
+        <v>0.8693717665434547</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.041355600607292</v>
+        <v>1.041410666287968</v>
       </c>
       <c r="J21">
-        <v>0.9477496838897576</v>
+        <v>0.9452397768636938</v>
       </c>
       <c r="K21">
-        <v>1.032893863105302</v>
+        <v>1.02069638205</v>
       </c>
       <c r="L21">
-        <v>0.9463800711515301</v>
+        <v>0.9477897909268379</v>
       </c>
       <c r="M21">
-        <v>1.0174070574747</v>
+        <v>0.8873369472075466</v>
       </c>
       <c r="N21">
-        <v>0.9490955971492889</v>
+        <v>0.9465821257673578</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9018859887843271</v>
+        <v>0.9049634739858824</v>
       </c>
       <c r="D22">
-        <v>1.012411277551986</v>
+        <v>1.002588185266324</v>
       </c>
       <c r="E22">
-        <v>0.9193878319557325</v>
+        <v>0.9260772130345151</v>
       </c>
       <c r="F22">
-        <v>0.9950632033839899</v>
+        <v>0.8596292967620414</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.03794877302657</v>
+        <v>1.040069952889099</v>
       </c>
       <c r="J22">
-        <v>0.9376300629188489</v>
+        <v>0.9405262619319523</v>
       </c>
       <c r="K22">
-        <v>1.027740810058751</v>
+        <v>1.018108543476333</v>
       </c>
       <c r="L22">
-        <v>0.9367452851557708</v>
+        <v>0.943270540106851</v>
       </c>
       <c r="M22">
-        <v>1.010733097694489</v>
+        <v>0.8786092465315738</v>
       </c>
       <c r="N22">
-        <v>0.9389616051558651</v>
+        <v>0.9418619171037658</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9084965242587959</v>
+        <v>0.9084667798043544</v>
       </c>
       <c r="D23">
-        <v>1.015545844030203</v>
+        <v>1.004316643407697</v>
       </c>
       <c r="E23">
-        <v>0.9250643397752694</v>
+        <v>0.9289125059676511</v>
       </c>
       <c r="F23">
-        <v>0.9990424171567592</v>
+        <v>0.86484974093942</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.039781099544031</v>
+        <v>1.040787933939622</v>
       </c>
       <c r="J23">
-        <v>0.9430763455853274</v>
+        <v>0.9430482803299349</v>
       </c>
       <c r="K23">
-        <v>1.030509670074893</v>
+        <v>1.019492227845274</v>
       </c>
       <c r="L23">
-        <v>0.9419308711643779</v>
+        <v>0.9456879957669948</v>
       </c>
       <c r="M23">
-        <v>1.014319615895661</v>
+        <v>0.8832856871338194</v>
       </c>
       <c r="N23">
-        <v>0.9444156221684274</v>
+        <v>0.944387517057153</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9324902698482224</v>
+        <v>0.9215995936188753</v>
       </c>
       <c r="D24">
-        <v>1.027084159093386</v>
+        <v>1.01084365827519</v>
       </c>
       <c r="E24">
-        <v>0.9457093692143044</v>
+        <v>0.9395719094540591</v>
       </c>
       <c r="F24">
-        <v>1.013658265602598</v>
+        <v>0.8842454142872449</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.046456837208158</v>
+        <v>1.043456951719771</v>
       </c>
       <c r="J24">
-        <v>0.9628597899104203</v>
+        <v>0.9524895102897656</v>
       </c>
       <c r="K24">
-        <v>1.040651774258674</v>
+        <v>1.024682986037218</v>
       </c>
       <c r="L24">
-        <v>0.9607620406078005</v>
+        <v>0.9547503663144391</v>
       </c>
       <c r="M24">
-        <v>1.027449698404432</v>
+        <v>0.9006639094578027</v>
       </c>
       <c r="N24">
-        <v>0.9642271612536546</v>
+        <v>0.9538421546464509</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9570992101128929</v>
+        <v>0.9356892935884338</v>
       </c>
       <c r="D25">
-        <v>1.039161246378403</v>
+        <v>1.017880093725775</v>
       </c>
       <c r="E25">
-        <v>0.9669407839225557</v>
+        <v>0.9510616292313357</v>
       </c>
       <c r="F25">
-        <v>1.028912094782714</v>
+        <v>0.9047896889381494</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.053320870317438</v>
+        <v>1.046245438360855</v>
       </c>
       <c r="J25">
-        <v>0.9831619356013074</v>
+        <v>0.96259327589494</v>
       </c>
       <c r="K25">
-        <v>1.051180597097954</v>
+        <v>1.030207043163201</v>
       </c>
       <c r="L25">
-        <v>0.9800749389499968</v>
+        <v>0.9644703336148372</v>
       </c>
       <c r="M25">
-        <v>1.041077574525262</v>
+        <v>0.9190707937675612</v>
       </c>
       <c r="N25">
-        <v>0.9845581383201113</v>
+        <v>0.9639602687577028</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_63/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_63/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9461692172995129</v>
+        <v>1.006795699771644</v>
       </c>
       <c r="D2">
-        <v>1.023091368372433</v>
+        <v>1.025507051647289</v>
       </c>
       <c r="E2">
-        <v>0.9596434903884664</v>
+        <v>1.009532559647175</v>
       </c>
       <c r="F2">
-        <v>0.9199234399015859</v>
+        <v>1.00497242631925</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04823588693434</v>
+        <v>1.028047310659273</v>
       </c>
       <c r="J2">
-        <v>0.9700885110904759</v>
+        <v>1.012071080893318</v>
       </c>
       <c r="K2">
-        <v>1.034238110779699</v>
+        <v>1.028332420894459</v>
       </c>
       <c r="L2">
-        <v>0.971695235747419</v>
+        <v>1.012405490914704</v>
       </c>
       <c r="M2">
-        <v>0.9326238585607509</v>
+        <v>1.007859237321635</v>
       </c>
       <c r="N2">
-        <v>0.9714661480469321</v>
+        <v>1.013508337914362</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9534053335718415</v>
+        <v>1.008197251359901</v>
       </c>
       <c r="D3">
-        <v>1.026656736711927</v>
+        <v>1.026019325364456</v>
       </c>
       <c r="E3">
-        <v>0.9655868422326277</v>
+        <v>1.010735825058346</v>
       </c>
       <c r="F3">
-        <v>0.9303113987982865</v>
+        <v>1.007032313929777</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.049552168686541</v>
+        <v>1.028114196249099</v>
       </c>
       <c r="J3">
-        <v>0.9752521672617578</v>
+        <v>1.013101395776095</v>
       </c>
       <c r="K3">
-        <v>1.036959532729952</v>
+        <v>1.02865281339994</v>
       </c>
       <c r="L3">
-        <v>0.9766798421741618</v>
+        <v>1.01341151132103</v>
       </c>
       <c r="M3">
-        <v>0.9419210953951729</v>
+        <v>1.009718434850895</v>
       </c>
       <c r="N3">
-        <v>0.9766371372022568</v>
+        <v>1.014540115962452</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9579330712616053</v>
+        <v>1.009102639152691</v>
       </c>
       <c r="D4">
-        <v>1.028866762049402</v>
+        <v>1.026344013162027</v>
       </c>
       <c r="E4">
-        <v>0.9693130876658022</v>
+        <v>1.011513358573906</v>
       </c>
       <c r="F4">
-        <v>0.9367889765649678</v>
+        <v>1.008363069200797</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.050346101611163</v>
+        <v>1.028152502439901</v>
       </c>
       <c r="J4">
-        <v>0.9784777002682257</v>
+        <v>1.013766239260105</v>
       </c>
       <c r="K4">
-        <v>1.038628840114071</v>
+        <v>1.028852644648525</v>
       </c>
       <c r="L4">
-        <v>0.9797965515889009</v>
+        <v>1.014060866618908</v>
       </c>
       <c r="M4">
-        <v>0.9477153266852791</v>
+        <v>1.010918994503388</v>
       </c>
       <c r="N4">
-        <v>0.9798672508355677</v>
+        <v>1.015205903600468</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9598019338788211</v>
+        <v>1.009482911626778</v>
       </c>
       <c r="D5">
-        <v>1.029773185199953</v>
+        <v>1.026478881440165</v>
       </c>
       <c r="E5">
-        <v>0.9708527944323516</v>
+        <v>1.011839986557137</v>
       </c>
       <c r="F5">
-        <v>0.9394580827578114</v>
+        <v>1.008922028095641</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050666288111991</v>
+        <v>1.028167412619882</v>
       </c>
       <c r="J5">
-        <v>0.9798077482067226</v>
+        <v>1.014045305955706</v>
       </c>
       <c r="K5">
-        <v>1.039309142812778</v>
+        <v>1.028934856412712</v>
       </c>
       <c r="L5">
-        <v>0.9810824118589895</v>
+        <v>1.014333476974628</v>
       </c>
       <c r="M5">
-        <v>0.9501020148839688</v>
+        <v>1.011423136912126</v>
       </c>
       <c r="N5">
-        <v>0.9811991875946956</v>
+        <v>1.015485366602786</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9601137603313422</v>
+        <v>1.009546740631775</v>
       </c>
       <c r="D6">
-        <v>1.029924063371728</v>
+        <v>1.026501430639359</v>
       </c>
       <c r="E6">
-        <v>0.9711097950342262</v>
+        <v>1.011894814532448</v>
       </c>
       <c r="F6">
-        <v>0.9399031849896521</v>
+        <v>1.009015851539715</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050719259225548</v>
+        <v>1.0281698460087</v>
       </c>
       <c r="J6">
-        <v>0.980029593498544</v>
+        <v>1.014092137257115</v>
       </c>
       <c r="K6">
-        <v>1.039422122093371</v>
+        <v>1.028948554567337</v>
       </c>
       <c r="L6">
-        <v>0.9812969261389405</v>
+        <v>1.014379227428651</v>
       </c>
       <c r="M6">
-        <v>0.9504999693220948</v>
+        <v>1.011507751549646</v>
       </c>
       <c r="N6">
-        <v>0.9814213479322774</v>
+        <v>1.015532264410014</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9579581760609409</v>
+        <v>1.009107721746463</v>
       </c>
       <c r="D7">
-        <v>1.028878962103938</v>
+        <v>1.026345821692922</v>
       </c>
       <c r="E7">
-        <v>0.9693337643880424</v>
+        <v>1.011517723955896</v>
       </c>
       <c r="F7">
-        <v>0.9368248483239294</v>
+        <v>1.008370539941099</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.050350433012134</v>
+        <v>1.028152706365405</v>
       </c>
       <c r="J7">
-        <v>0.9784955723055584</v>
+        <v>1.013769969858014</v>
       </c>
       <c r="K7">
-        <v>1.03863801414487</v>
+        <v>1.028853750236068</v>
       </c>
       <c r="L7">
-        <v>0.9798138272026893</v>
+        <v>1.014064510731977</v>
       </c>
       <c r="M7">
-        <v>0.9477474062859143</v>
+        <v>1.010925733108616</v>
       </c>
       <c r="N7">
-        <v>0.979885148253243</v>
+        <v>1.015209639496253</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9486482107890782</v>
+        <v>1.007269678681445</v>
       </c>
       <c r="D8">
-        <v>1.024316734034519</v>
+        <v>1.025681579129091</v>
       </c>
       <c r="E8">
-        <v>0.9616779624447932</v>
+        <v>1.009939432213309</v>
       </c>
       <c r="F8">
-        <v>0.9234874470085555</v>
+        <v>1.005669027589001</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04869285524892</v>
+        <v>1.02807094286734</v>
       </c>
       <c r="J8">
-        <v>0.9718586509409679</v>
+        <v>1.012419665540274</v>
       </c>
       <c r="K8">
-        <v>1.03517709359159</v>
+        <v>1.028442245416833</v>
       </c>
       <c r="L8">
-        <v>0.973403330404042</v>
+        <v>1.012745816713894</v>
       </c>
       <c r="M8">
-        <v>0.9358142820228359</v>
+        <v>1.008488082817075</v>
       </c>
       <c r="N8">
-        <v>0.9732388016990497</v>
+        <v>1.013857417591499</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9309368692297681</v>
+        <v>1.004018848159921</v>
       </c>
       <c r="D9">
-        <v>1.015507248178863</v>
+        <v>1.024459342914767</v>
       </c>
       <c r="E9">
-        <v>0.9471799915878465</v>
+        <v>1.007149868128996</v>
       </c>
       <c r="F9">
-        <v>0.8978875194172762</v>
+        <v>1.000891439981142</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.045316807020323</v>
+        <v>1.027888906352644</v>
       </c>
       <c r="J9">
-        <v>0.9591884982792503</v>
+        <v>1.010025865257892</v>
       </c>
       <c r="K9">
-        <v>1.028353643349235</v>
+        <v>1.027660033183786</v>
       </c>
       <c r="L9">
-        <v>0.9611924046096462</v>
+        <v>1.010409523095615</v>
       </c>
       <c r="M9">
-        <v>0.9128873646907238</v>
+        <v>1.00417296713567</v>
       </c>
       <c r="N9">
-        <v>0.9605506559672654</v>
+        <v>1.011460217838144</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9180504149914229</v>
+        <v>1.001843021329063</v>
       </c>
       <c r="D10">
-        <v>1.009074118800383</v>
+        <v>1.023610008354521</v>
       </c>
       <c r="E10">
-        <v>0.93668640193426</v>
+        <v>1.005284085024044</v>
       </c>
       <c r="F10">
-        <v>0.8790291643647619</v>
+        <v>0.9976936178203025</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.042740418255069</v>
+        <v>1.027742192411911</v>
       </c>
       <c r="J10">
-        <v>0.9499400998670391</v>
+        <v>1.008419891959954</v>
       </c>
       <c r="K10">
-        <v>1.023281447481244</v>
+        <v>1.027100466945094</v>
       </c>
       <c r="L10">
-        <v>0.9523013196123891</v>
+        <v>1.008843141418668</v>
       </c>
       <c r="M10">
-        <v>0.8959899147654006</v>
+        <v>1.001281905842057</v>
       </c>
       <c r="N10">
-        <v>0.9512891237685027</v>
+        <v>1.009851963873915</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9121586469191229</v>
+        <v>1.000898696951886</v>
       </c>
       <c r="D11">
-        <v>1.006144924351871</v>
+        <v>1.02323410637176</v>
       </c>
       <c r="E11">
-        <v>0.931904154083781</v>
+        <v>1.004474645911796</v>
       </c>
       <c r="F11">
-        <v>0.8703290584636441</v>
+        <v>0.9963056270408939</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.041542536238143</v>
+        <v>1.027672681232815</v>
       </c>
       <c r="J11">
-        <v>0.9457044986885028</v>
+        <v>1.00772199414136</v>
       </c>
       <c r="K11">
-        <v>1.02095187941545</v>
+        <v>1.026849189472056</v>
       </c>
       <c r="L11">
-        <v>0.9482356285770224</v>
+        <v>1.008162693502325</v>
       </c>
       <c r="M11">
-        <v>0.8881946249188317</v>
+        <v>1.000026403695264</v>
       </c>
       <c r="N11">
-        <v>0.9470475075504626</v>
+        <v>1.009153074960369</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9099174908576829</v>
+        <v>1.000547594827383</v>
       </c>
       <c r="D12">
-        <v>1.005034294761868</v>
+        <v>1.023093261465912</v>
       </c>
       <c r="E12">
-        <v>0.9300876092171035</v>
+        <v>1.004173744240184</v>
       </c>
       <c r="F12">
-        <v>0.86700547070597</v>
+        <v>0.9957895443653946</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.041084745136767</v>
+        <v>1.027645965106361</v>
       </c>
       <c r="J12">
-        <v>0.9440922267913803</v>
+        <v>1.007462379703838</v>
       </c>
       <c r="K12">
-        <v>1.020065677037083</v>
+        <v>1.026754508480939</v>
       </c>
       <c r="L12">
-        <v>0.94668907809754</v>
+        <v>1.007909607544663</v>
       </c>
       <c r="M12">
-        <v>0.8852169481725591</v>
+        <v>0.9995594842477433</v>
       </c>
       <c r="N12">
-        <v>0.945432946042316</v>
+        <v>1.008893091840568</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9104007166052408</v>
+        <v>1.000622922897103</v>
       </c>
       <c r="D13">
-        <v>1.005273568579274</v>
+        <v>1.02312352824074</v>
       </c>
       <c r="E13">
-        <v>0.9304791629497331</v>
+        <v>1.004238299660311</v>
       </c>
       <c r="F13">
-        <v>0.8677227690007264</v>
+        <v>0.9959002698105656</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.041183532369408</v>
+        <v>1.027651736342748</v>
       </c>
       <c r="J13">
-        <v>0.9444399062232226</v>
+        <v>1.007518085399739</v>
       </c>
       <c r="K13">
-        <v>1.020256731067154</v>
+        <v>1.02677487869296</v>
       </c>
       <c r="L13">
-        <v>0.947022535987916</v>
+        <v>1.00796391072889</v>
       </c>
       <c r="M13">
-        <v>0.8858595760307717</v>
+        <v>0.9996596661921244</v>
       </c>
       <c r="N13">
-        <v>0.945781119218831</v>
+        <v>1.008948876644946</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9119745048247233</v>
+        <v>1.000869681699599</v>
       </c>
       <c r="D14">
-        <v>1.006053586573631</v>
+        <v>1.023222488916466</v>
       </c>
       <c r="E14">
-        <v>0.931754846349077</v>
+        <v>1.004449778228142</v>
       </c>
       <c r="F14">
-        <v>0.8700562825860758</v>
+        <v>0.9962629782525639</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.041504960057254</v>
+        <v>1.027670491146611</v>
       </c>
       <c r="J14">
-        <v>0.9455720506529113</v>
+        <v>1.007700542215689</v>
       </c>
       <c r="K14">
-        <v>1.020879057303193</v>
+        <v>1.026841390534216</v>
       </c>
       <c r="L14">
-        <v>0.9481085577312967</v>
+        <v>1.008141780263487</v>
       </c>
       <c r="M14">
-        <v>0.8879502322287857</v>
+        <v>0.9999878197400796</v>
       </c>
       <c r="N14">
-        <v>0.9469148714234684</v>
+        <v>1.009131592570504</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9129369923917732</v>
+        <v>1.001021672823927</v>
       </c>
       <c r="D15">
-        <v>1.00653115496801</v>
+        <v>1.023283300548361</v>
       </c>
       <c r="E15">
-        <v>0.9325353645304447</v>
+        <v>1.004580045112463</v>
       </c>
       <c r="F15">
-        <v>0.8714814569302158</v>
+        <v>0.9964863851390772</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.04170128505091</v>
+        <v>1.027681927861248</v>
       </c>
       <c r="J15">
-        <v>0.9462642950277591</v>
+        <v>1.007812908730181</v>
       </c>
       <c r="K15">
-        <v>1.021259696371353</v>
+        <v>1.026882192518695</v>
       </c>
       <c r="L15">
-        <v>0.9487727410836883</v>
+        <v>1.00825132662824</v>
       </c>
       <c r="M15">
-        <v>0.8892271245541845</v>
+        <v>1.000189929797714</v>
       </c>
       <c r="N15">
-        <v>0.9476080988647302</v>
+        <v>1.009244118658335</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9184343875086276</v>
+        <v>1.001905646230184</v>
       </c>
       <c r="D16">
-        <v>1.009265409203061</v>
+        <v>1.023634784689578</v>
       </c>
       <c r="E16">
-        <v>0.9369984041055461</v>
+        <v>1.005337771633596</v>
       </c>
       <c r="F16">
-        <v>0.8795943590734803</v>
+        <v>0.9977856624107103</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.042818143987246</v>
+        <v>1.027746679784026</v>
       </c>
       <c r="J16">
-        <v>0.9502159889032065</v>
+        <v>1.008466155736214</v>
       </c>
       <c r="K16">
-        <v>1.023433172621418</v>
+        <v>1.02711695452225</v>
       </c>
       <c r="L16">
-        <v>0.9525662787410081</v>
+        <v>1.008888253624534</v>
       </c>
       <c r="M16">
-        <v>0.8964963505232741</v>
+        <v>1.00136515060923</v>
       </c>
       <c r="N16">
-        <v>0.9515654045987463</v>
+        <v>1.009898293350044</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9217954674741042</v>
+        <v>1.002459548863428</v>
       </c>
       <c r="D17">
-        <v>1.01094139622666</v>
+        <v>1.023853086440131</v>
       </c>
       <c r="E17">
-        <v>0.9397312589629032</v>
+        <v>1.005812654693122</v>
       </c>
       <c r="F17">
-        <v>0.8845327758146695</v>
+        <v>0.99859976137455</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.043496363820946</v>
+        <v>1.027785696793537</v>
       </c>
       <c r="J17">
-        <v>0.9526301609452785</v>
+        <v>1.00887524489243</v>
       </c>
       <c r="K17">
-        <v>1.024760264815615</v>
+        <v>1.027261812832631</v>
       </c>
       <c r="L17">
-        <v>0.9548855213972859</v>
+        <v>1.00928718825863</v>
       </c>
       <c r="M17">
-        <v>0.9009213993546531</v>
+        <v>1.002101342565271</v>
       </c>
       <c r="N17">
-        <v>0.9539830050420274</v>
+        <v>1.010307963459785</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9237262852112871</v>
+        <v>1.002782421593638</v>
       </c>
       <c r="D18">
-        <v>1.01190518914984</v>
+        <v>1.02397963304905</v>
       </c>
       <c r="E18">
-        <v>0.9413026136328088</v>
+        <v>1.006089497654567</v>
       </c>
       <c r="F18">
-        <v>0.8873626214405248</v>
+        <v>0.9990742934944372</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.043884053311239</v>
+        <v>1.027807877329898</v>
       </c>
       <c r="J18">
-        <v>0.9540163470520785</v>
+        <v>1.009113618959025</v>
       </c>
       <c r="K18">
-        <v>1.025521539750436</v>
+        <v>1.027345439387844</v>
       </c>
       <c r="L18">
-        <v>0.9562177772780684</v>
+        <v>1.009519668882094</v>
       </c>
       <c r="M18">
-        <v>0.90345707055929</v>
+        <v>1.002530399804979</v>
       </c>
       <c r="N18">
-        <v>0.9553711596920972</v>
+        <v>1.010546676044896</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9243797766076641</v>
+        <v>1.002892477678187</v>
       </c>
       <c r="D19">
-        <v>1.012231509405842</v>
+        <v>1.024022648879114</v>
       </c>
       <c r="E19">
-        <v>0.9418346795731053</v>
+        <v>1.00618386904272</v>
       </c>
       <c r="F19">
-        <v>0.8883192523502306</v>
+        <v>0.9992360434449757</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044014918495456</v>
+        <v>1.027815342305294</v>
       </c>
       <c r="J19">
-        <v>0.9544853933261053</v>
+        <v>1.009194857778418</v>
       </c>
       <c r="K19">
-        <v>1.025778969665041</v>
+        <v>1.027373806722037</v>
       </c>
       <c r="L19">
-        <v>0.9566686701896917</v>
+        <v>1.009598903173331</v>
       </c>
       <c r="M19">
-        <v>0.9043142495412281</v>
+        <v>1.002676638324288</v>
       </c>
       <c r="N19">
-        <v>0.9558408720656335</v>
+        <v>1.010628030232731</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9214379603721135</v>
+        <v>1.002400142081356</v>
       </c>
       <c r="D20">
-        <v>1.010763011282516</v>
+        <v>1.023829745906674</v>
       </c>
       <c r="E20">
-        <v>0.9394404238332155</v>
+        <v>1.005761719632777</v>
       </c>
       <c r="F20">
-        <v>0.884008246331905</v>
+        <v>0.9985124493247259</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.04342441819727</v>
+        <v>1.027781570346447</v>
       </c>
       <c r="J20">
-        <v>0.9523734429165459</v>
+        <v>1.008831378456744</v>
       </c>
       <c r="K20">
-        <v>1.024619209928011</v>
+        <v>1.027246360539083</v>
       </c>
       <c r="L20">
-        <v>0.954638837245846</v>
+        <v>1.009244408248378</v>
       </c>
       <c r="M20">
-        <v>0.9004513954069258</v>
+        <v>1.002022392601343</v>
       </c>
       <c r="N20">
-        <v>0.9537259224442479</v>
+        <v>1.010264034728729</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9115125703453314</v>
+        <v>1.000797026801523</v>
       </c>
       <c r="D21">
-        <v>1.005824523177328</v>
+        <v>1.023193381061207</v>
       </c>
       <c r="E21">
-        <v>0.9313803385320629</v>
+        <v>1.004387509750594</v>
       </c>
       <c r="F21">
-        <v>0.8693717665434547</v>
+        <v>0.9961561842308329</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.041410666287968</v>
+        <v>1.027664993056494</v>
       </c>
       <c r="J21">
-        <v>0.9452397768636938</v>
+        <v>1.007646823902336</v>
       </c>
       <c r="K21">
-        <v>1.02069638205</v>
+        <v>1.026821841561942</v>
       </c>
       <c r="L21">
-        <v>0.9477897909268379</v>
+        <v>1.00808941149181</v>
       </c>
       <c r="M21">
-        <v>0.8873369472075466</v>
+        <v>0.9998912026063483</v>
       </c>
       <c r="N21">
-        <v>0.9465821257673578</v>
+        <v>1.009077797970983</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9049634739858824</v>
+        <v>0.9997871235086685</v>
       </c>
       <c r="D22">
-        <v>1.002588185266324</v>
+        <v>1.022786227006253</v>
       </c>
       <c r="E22">
-        <v>0.9260772130345151</v>
+        <v>1.003522097095154</v>
       </c>
       <c r="F22">
-        <v>0.8596292967620414</v>
+        <v>0.9946716801406038</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040069952889099</v>
+        <v>1.027586509990162</v>
       </c>
       <c r="J22">
-        <v>0.9405262619319523</v>
+        <v>1.006899820848372</v>
       </c>
       <c r="K22">
-        <v>1.018108543476333</v>
+        <v>1.026547147649343</v>
       </c>
       <c r="L22">
-        <v>0.943270540106851</v>
+        <v>1.007361263806506</v>
       </c>
       <c r="M22">
-        <v>0.8786092465315738</v>
+        <v>0.9985479300973373</v>
       </c>
       <c r="N22">
-        <v>0.9418619171037658</v>
+        <v>1.008329734087001</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9084667798043544</v>
+        <v>1.000322681920053</v>
       </c>
       <c r="D23">
-        <v>1.004316643407697</v>
+        <v>1.023002733729557</v>
       </c>
       <c r="E23">
-        <v>0.9289125059676511</v>
+        <v>1.003981003448065</v>
       </c>
       <c r="F23">
-        <v>0.86484974093942</v>
+        <v>0.9954589386253812</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040787933939622</v>
+        <v>1.027628606217047</v>
       </c>
       <c r="J23">
-        <v>0.9430482803299349</v>
+        <v>1.007296035183665</v>
       </c>
       <c r="K23">
-        <v>1.019492227845274</v>
+        <v>1.026693504457307</v>
       </c>
       <c r="L23">
-        <v>0.9456879957669948</v>
+        <v>1.007747456589261</v>
       </c>
       <c r="M23">
-        <v>0.8832856871338194</v>
+        <v>0.9992603450241445</v>
       </c>
       <c r="N23">
-        <v>0.944387517057153</v>
+        <v>1.008726511092096</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9215995936188753</v>
+        <v>1.002426986095816</v>
       </c>
       <c r="D24">
-        <v>1.01084365827519</v>
+        <v>1.023840294915894</v>
       </c>
       <c r="E24">
-        <v>0.9395719094540591</v>
+        <v>1.005784735452404</v>
       </c>
       <c r="F24">
-        <v>0.8842454142872449</v>
+        <v>0.9985519028639323</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.043456951719771</v>
+        <v>1.027783436694908</v>
       </c>
       <c r="J24">
-        <v>0.9524895102897656</v>
+        <v>1.008851200554655</v>
       </c>
       <c r="K24">
-        <v>1.024682986037218</v>
+        <v>1.027253345444725</v>
       </c>
       <c r="L24">
-        <v>0.9547503663144391</v>
+        <v>1.009263739346227</v>
       </c>
       <c r="M24">
-        <v>0.9006639094578027</v>
+        <v>1.00205806777604</v>
       </c>
       <c r="N24">
-        <v>0.9538421546464509</v>
+        <v>1.010283884976293</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9356892935884338</v>
+        <v>1.004860741150578</v>
       </c>
       <c r="D25">
-        <v>1.017880093725775</v>
+        <v>1.024781422877932</v>
       </c>
       <c r="E25">
-        <v>0.9510616292313357</v>
+        <v>1.007872076959016</v>
       </c>
       <c r="F25">
-        <v>0.9047896889381494</v>
+        <v>1.002128720824313</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.046245438360855</v>
+        <v>1.027940447854658</v>
       </c>
       <c r="J25">
-        <v>0.96259327589494</v>
+        <v>1.010646469523226</v>
       </c>
       <c r="K25">
-        <v>1.030207043163201</v>
+        <v>1.027868987877461</v>
       </c>
       <c r="L25">
-        <v>0.9644703336148372</v>
+        <v>1.011015042468879</v>
       </c>
       <c r="M25">
-        <v>0.9190707937675612</v>
+        <v>1.005290970498297</v>
       </c>
       <c r="N25">
-        <v>0.9639602687577028</v>
+        <v>1.012081703432719</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_63/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_63/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.006795699771644</v>
+        <v>0.9461692172995129</v>
       </c>
       <c r="D2">
-        <v>1.025507051647289</v>
+        <v>1.023091368372433</v>
       </c>
       <c r="E2">
-        <v>1.009532559647175</v>
+        <v>0.9596434903884663</v>
       </c>
       <c r="F2">
-        <v>1.00497242631925</v>
+        <v>0.9199234399015858</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.028047310659273</v>
+        <v>1.04823588693434</v>
       </c>
       <c r="J2">
-        <v>1.012071080893318</v>
+        <v>0.970088511090476</v>
       </c>
       <c r="K2">
-        <v>1.028332420894459</v>
+        <v>1.034238110779699</v>
       </c>
       <c r="L2">
-        <v>1.012405490914704</v>
+        <v>0.9716952357474189</v>
       </c>
       <c r="M2">
-        <v>1.007859237321635</v>
+        <v>0.9326238585607509</v>
       </c>
       <c r="N2">
-        <v>1.013508337914362</v>
+        <v>0.9714661480469322</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.008197251359901</v>
+        <v>0.953405333571841</v>
       </c>
       <c r="D3">
-        <v>1.026019325364456</v>
+        <v>1.026656736711927</v>
       </c>
       <c r="E3">
-        <v>1.010735825058346</v>
+        <v>0.9655868422326269</v>
       </c>
       <c r="F3">
-        <v>1.007032313929777</v>
+        <v>0.9303113987982859</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.028114196249099</v>
+        <v>1.04955216868654</v>
       </c>
       <c r="J3">
-        <v>1.013101395776095</v>
+        <v>0.9752521672617572</v>
       </c>
       <c r="K3">
-        <v>1.02865281339994</v>
+        <v>1.036959532729952</v>
       </c>
       <c r="L3">
-        <v>1.01341151132103</v>
+        <v>0.976679842174161</v>
       </c>
       <c r="M3">
-        <v>1.009718434850895</v>
+        <v>0.9419210953951724</v>
       </c>
       <c r="N3">
-        <v>1.014540115962452</v>
+        <v>0.976637137202256</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.009102639152691</v>
+        <v>0.9579330712616052</v>
       </c>
       <c r="D4">
-        <v>1.026344013162027</v>
+        <v>1.028866762049402</v>
       </c>
       <c r="E4">
-        <v>1.011513358573906</v>
+        <v>0.9693130876658019</v>
       </c>
       <c r="F4">
-        <v>1.008363069200797</v>
+        <v>0.9367889765649678</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.028152502439901</v>
+        <v>1.050346101611162</v>
       </c>
       <c r="J4">
-        <v>1.013766239260105</v>
+        <v>0.9784777002682254</v>
       </c>
       <c r="K4">
-        <v>1.028852644648525</v>
+        <v>1.038628840114071</v>
       </c>
       <c r="L4">
-        <v>1.014060866618908</v>
+        <v>0.9797965515889006</v>
       </c>
       <c r="M4">
-        <v>1.010918994503388</v>
+        <v>0.9477153266852791</v>
       </c>
       <c r="N4">
-        <v>1.015205903600468</v>
+        <v>0.9798672508355676</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.009482911626778</v>
+        <v>0.9598019338788205</v>
       </c>
       <c r="D5">
-        <v>1.026478881440165</v>
+        <v>1.029773185199953</v>
       </c>
       <c r="E5">
-        <v>1.011839986557137</v>
+        <v>0.9708527944323511</v>
       </c>
       <c r="F5">
-        <v>1.008922028095641</v>
+        <v>0.9394580827578106</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.028167412619882</v>
+        <v>1.05066628811199</v>
       </c>
       <c r="J5">
-        <v>1.014045305955706</v>
+        <v>0.979807748206722</v>
       </c>
       <c r="K5">
-        <v>1.028934856412712</v>
+        <v>1.039309142812778</v>
       </c>
       <c r="L5">
-        <v>1.014333476974628</v>
+        <v>0.9810824118589889</v>
       </c>
       <c r="M5">
-        <v>1.011423136912126</v>
+        <v>0.9501020148839679</v>
       </c>
       <c r="N5">
-        <v>1.015485366602786</v>
+        <v>0.9811991875946952</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.009546740631775</v>
+        <v>0.9601137603313418</v>
       </c>
       <c r="D6">
-        <v>1.026501430639359</v>
+        <v>1.029924063371728</v>
       </c>
       <c r="E6">
-        <v>1.011894814532448</v>
+        <v>0.9711097950342257</v>
       </c>
       <c r="F6">
-        <v>1.009015851539715</v>
+        <v>0.9399031849896515</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.0281698460087</v>
+        <v>1.050719259225547</v>
       </c>
       <c r="J6">
-        <v>1.014092137257115</v>
+        <v>0.9800295934985436</v>
       </c>
       <c r="K6">
-        <v>1.028948554567337</v>
+        <v>1.039422122093371</v>
       </c>
       <c r="L6">
-        <v>1.014379227428651</v>
+        <v>0.9812969261389399</v>
       </c>
       <c r="M6">
-        <v>1.011507751549646</v>
+        <v>0.9504999693220944</v>
       </c>
       <c r="N6">
-        <v>1.015532264410014</v>
+        <v>0.9814213479322772</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.009107721746463</v>
+        <v>0.957958176060941</v>
       </c>
       <c r="D7">
-        <v>1.026345821692922</v>
+        <v>1.028878962103938</v>
       </c>
       <c r="E7">
-        <v>1.011517723955896</v>
+        <v>0.9693337643880425</v>
       </c>
       <c r="F7">
-        <v>1.008370539941099</v>
+        <v>0.9368248483239294</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.028152706365405</v>
+        <v>1.050350433012133</v>
       </c>
       <c r="J7">
-        <v>1.013769969858014</v>
+        <v>0.9784955723055585</v>
       </c>
       <c r="K7">
-        <v>1.028853750236068</v>
+        <v>1.03863801414487</v>
       </c>
       <c r="L7">
-        <v>1.014064510731977</v>
+        <v>0.9798138272026894</v>
       </c>
       <c r="M7">
-        <v>1.010925733108616</v>
+        <v>0.9477474062859141</v>
       </c>
       <c r="N7">
-        <v>1.015209639496253</v>
+        <v>0.9798851482532432</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.007269678681445</v>
+        <v>0.9486482107890778</v>
       </c>
       <c r="D8">
-        <v>1.025681579129091</v>
+        <v>1.024316734034519</v>
       </c>
       <c r="E8">
-        <v>1.009939432213309</v>
+        <v>0.9616779624447924</v>
       </c>
       <c r="F8">
-        <v>1.005669027589001</v>
+        <v>0.9234874470085553</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.02807094286734</v>
+        <v>1.04869285524892</v>
       </c>
       <c r="J8">
-        <v>1.012419665540274</v>
+        <v>0.9718586509409676</v>
       </c>
       <c r="K8">
-        <v>1.028442245416833</v>
+        <v>1.03517709359159</v>
       </c>
       <c r="L8">
-        <v>1.012745816713894</v>
+        <v>0.9734033304040415</v>
       </c>
       <c r="M8">
-        <v>1.008488082817075</v>
+        <v>0.935814282022836</v>
       </c>
       <c r="N8">
-        <v>1.013857417591499</v>
+        <v>0.9732388016990491</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.004018848159921</v>
+        <v>0.9309368692297685</v>
       </c>
       <c r="D9">
-        <v>1.024459342914767</v>
+        <v>1.015507248178864</v>
       </c>
       <c r="E9">
-        <v>1.007149868128996</v>
+        <v>0.947179991587847</v>
       </c>
       <c r="F9">
-        <v>1.000891439981142</v>
+        <v>0.8978875194172767</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.027888906352644</v>
+        <v>1.045316807020323</v>
       </c>
       <c r="J9">
-        <v>1.010025865257892</v>
+        <v>0.9591884982792508</v>
       </c>
       <c r="K9">
-        <v>1.027660033183786</v>
+        <v>1.028353643349236</v>
       </c>
       <c r="L9">
-        <v>1.010409523095615</v>
+        <v>0.9611924046096467</v>
       </c>
       <c r="M9">
-        <v>1.00417296713567</v>
+        <v>0.9128873646907244</v>
       </c>
       <c r="N9">
-        <v>1.011460217838144</v>
+        <v>0.960550655967266</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.001843021329063</v>
+        <v>0.9180504149914236</v>
       </c>
       <c r="D10">
-        <v>1.023610008354521</v>
+        <v>1.009074118800384</v>
       </c>
       <c r="E10">
-        <v>1.005284085024044</v>
+        <v>0.9366864019342607</v>
       </c>
       <c r="F10">
-        <v>0.9976936178203025</v>
+        <v>0.8790291643647621</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.027742192411911</v>
+        <v>1.042740418255069</v>
       </c>
       <c r="J10">
-        <v>1.008419891959954</v>
+        <v>0.9499400998670398</v>
       </c>
       <c r="K10">
-        <v>1.027100466945094</v>
+        <v>1.023281447481244</v>
       </c>
       <c r="L10">
-        <v>1.008843141418668</v>
+        <v>0.9523013196123896</v>
       </c>
       <c r="M10">
-        <v>1.001281905842057</v>
+        <v>0.895989914765401</v>
       </c>
       <c r="N10">
-        <v>1.009851963873915</v>
+        <v>0.9512891237685032</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.000898696951886</v>
+        <v>0.9121586469191229</v>
       </c>
       <c r="D11">
-        <v>1.02323410637176</v>
+        <v>1.006144924351871</v>
       </c>
       <c r="E11">
-        <v>1.004474645911796</v>
+        <v>0.9319041540837807</v>
       </c>
       <c r="F11">
-        <v>0.9963056270408939</v>
+        <v>0.8703290584636436</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.027672681232815</v>
+        <v>1.041542536238143</v>
       </c>
       <c r="J11">
-        <v>1.00772199414136</v>
+        <v>0.9457044986885026</v>
       </c>
       <c r="K11">
-        <v>1.026849189472056</v>
+        <v>1.02095187941545</v>
       </c>
       <c r="L11">
-        <v>1.008162693502325</v>
+        <v>0.9482356285770221</v>
       </c>
       <c r="M11">
-        <v>1.000026403695264</v>
+        <v>0.8881946249188315</v>
       </c>
       <c r="N11">
-        <v>1.009153074960369</v>
+        <v>0.9470475075504625</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.000547594827383</v>
+        <v>0.9099174908576828</v>
       </c>
       <c r="D12">
-        <v>1.023093261465912</v>
+        <v>1.005034294761868</v>
       </c>
       <c r="E12">
-        <v>1.004173744240184</v>
+        <v>0.930087609217103</v>
       </c>
       <c r="F12">
-        <v>0.9957895443653946</v>
+        <v>0.8670054707059696</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.027645965106361</v>
+        <v>1.041084745136768</v>
       </c>
       <c r="J12">
-        <v>1.007462379703838</v>
+        <v>0.9440922267913801</v>
       </c>
       <c r="K12">
-        <v>1.026754508480939</v>
+        <v>1.020065677037083</v>
       </c>
       <c r="L12">
-        <v>1.007909607544663</v>
+        <v>0.9466890780975394</v>
       </c>
       <c r="M12">
-        <v>0.9995594842477433</v>
+        <v>0.8852169481725588</v>
       </c>
       <c r="N12">
-        <v>1.008893091840568</v>
+        <v>0.9454329460423156</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.000622922897103</v>
+        <v>0.9104007166052406</v>
       </c>
       <c r="D13">
-        <v>1.02312352824074</v>
+        <v>1.005273568579274</v>
       </c>
       <c r="E13">
-        <v>1.004238299660311</v>
+        <v>0.9304791629497329</v>
       </c>
       <c r="F13">
-        <v>0.9959002698105656</v>
+        <v>0.8677227690007264</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.027651736342748</v>
+        <v>1.041183532369408</v>
       </c>
       <c r="J13">
-        <v>1.007518085399739</v>
+        <v>0.9444399062232226</v>
       </c>
       <c r="K13">
-        <v>1.02677487869296</v>
+        <v>1.020256731067155</v>
       </c>
       <c r="L13">
-        <v>1.00796391072889</v>
+        <v>0.9470225359879154</v>
       </c>
       <c r="M13">
-        <v>0.9996596661921244</v>
+        <v>0.8858595760307717</v>
       </c>
       <c r="N13">
-        <v>1.008948876644946</v>
+        <v>0.9457811192188311</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.000869681699599</v>
+        <v>0.9119745048247235</v>
       </c>
       <c r="D14">
-        <v>1.023222488916466</v>
+        <v>1.006053586573631</v>
       </c>
       <c r="E14">
-        <v>1.004449778228142</v>
+        <v>0.9317548463490773</v>
       </c>
       <c r="F14">
-        <v>0.9962629782525639</v>
+        <v>0.8700562825860764</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.027670491146611</v>
+        <v>1.041504960057253</v>
       </c>
       <c r="J14">
-        <v>1.007700542215689</v>
+        <v>0.9455720506529116</v>
       </c>
       <c r="K14">
-        <v>1.026841390534216</v>
+        <v>1.020879057303193</v>
       </c>
       <c r="L14">
-        <v>1.008141780263487</v>
+        <v>0.9481085577312969</v>
       </c>
       <c r="M14">
-        <v>0.9999878197400796</v>
+        <v>0.8879502322287866</v>
       </c>
       <c r="N14">
-        <v>1.009131592570504</v>
+        <v>0.9469148714234691</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.001021672823927</v>
+        <v>0.9129369923917733</v>
       </c>
       <c r="D15">
-        <v>1.023283300548361</v>
+        <v>1.00653115496801</v>
       </c>
       <c r="E15">
-        <v>1.004580045112463</v>
+        <v>0.9325353645304445</v>
       </c>
       <c r="F15">
-        <v>0.9964863851390772</v>
+        <v>0.8714814569302158</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.027681927861248</v>
+        <v>1.04170128505091</v>
       </c>
       <c r="J15">
-        <v>1.007812908730181</v>
+        <v>0.9462642950277591</v>
       </c>
       <c r="K15">
-        <v>1.026882192518695</v>
+        <v>1.021259696371353</v>
       </c>
       <c r="L15">
-        <v>1.00825132662824</v>
+        <v>0.9487727410836881</v>
       </c>
       <c r="M15">
-        <v>1.000189929797714</v>
+        <v>0.8892271245541844</v>
       </c>
       <c r="N15">
-        <v>1.009244118658335</v>
+        <v>0.9476080988647303</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.001905646230184</v>
+        <v>0.9184343875086279</v>
       </c>
       <c r="D16">
-        <v>1.023634784689578</v>
+        <v>1.009265409203062</v>
       </c>
       <c r="E16">
-        <v>1.005337771633596</v>
+        <v>0.936998404105546</v>
       </c>
       <c r="F16">
-        <v>0.9977856624107103</v>
+        <v>0.8795943590734804</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.027746679784026</v>
+        <v>1.042818143987246</v>
       </c>
       <c r="J16">
-        <v>1.008466155736214</v>
+        <v>0.9502159889032066</v>
       </c>
       <c r="K16">
-        <v>1.02711695452225</v>
+        <v>1.023433172621418</v>
       </c>
       <c r="L16">
-        <v>1.008888253624534</v>
+        <v>0.952566278741008</v>
       </c>
       <c r="M16">
-        <v>1.00136515060923</v>
+        <v>0.8964963505232744</v>
       </c>
       <c r="N16">
-        <v>1.009898293350044</v>
+        <v>0.9515654045987465</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.002459548863428</v>
+        <v>0.9217954674741045</v>
       </c>
       <c r="D17">
-        <v>1.023853086440131</v>
+        <v>1.01094139622666</v>
       </c>
       <c r="E17">
-        <v>1.005812654693122</v>
+        <v>0.9397312589629032</v>
       </c>
       <c r="F17">
-        <v>0.99859976137455</v>
+        <v>0.8845327758146698</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.027785696793537</v>
+        <v>1.043496363820946</v>
       </c>
       <c r="J17">
-        <v>1.00887524489243</v>
+        <v>0.9526301609452787</v>
       </c>
       <c r="K17">
-        <v>1.027261812832631</v>
+        <v>1.024760264815615</v>
       </c>
       <c r="L17">
-        <v>1.00928718825863</v>
+        <v>0.9548855213972859</v>
       </c>
       <c r="M17">
-        <v>1.002101342565271</v>
+        <v>0.9009213993546533</v>
       </c>
       <c r="N17">
-        <v>1.010307963459785</v>
+        <v>0.9539830050420277</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.002782421593638</v>
+        <v>0.9237262852112864</v>
       </c>
       <c r="D18">
-        <v>1.02397963304905</v>
+        <v>1.01190518914984</v>
       </c>
       <c r="E18">
-        <v>1.006089497654567</v>
+        <v>0.9413026136328079</v>
       </c>
       <c r="F18">
-        <v>0.9990742934944372</v>
+        <v>0.8873626214405236</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.027807877329898</v>
+        <v>1.043884053311239</v>
       </c>
       <c r="J18">
-        <v>1.009113618959025</v>
+        <v>0.9540163470520779</v>
       </c>
       <c r="K18">
-        <v>1.027345439387844</v>
+        <v>1.025521539750436</v>
       </c>
       <c r="L18">
-        <v>1.009519668882094</v>
+        <v>0.9562177772780677</v>
       </c>
       <c r="M18">
-        <v>1.002530399804979</v>
+        <v>0.903457070559289</v>
       </c>
       <c r="N18">
-        <v>1.010546676044896</v>
+        <v>0.9553711596920963</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.002892477678187</v>
+        <v>0.9243797766076639</v>
       </c>
       <c r="D19">
-        <v>1.024022648879114</v>
+        <v>1.012231509405841</v>
       </c>
       <c r="E19">
-        <v>1.00618386904272</v>
+        <v>0.9418346795731051</v>
       </c>
       <c r="F19">
-        <v>0.9992360434449757</v>
+        <v>0.8883192523502302</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.027815342305294</v>
+        <v>1.044014918495456</v>
       </c>
       <c r="J19">
-        <v>1.009194857778418</v>
+        <v>0.954485393326105</v>
       </c>
       <c r="K19">
-        <v>1.027373806722037</v>
+        <v>1.025778969665041</v>
       </c>
       <c r="L19">
-        <v>1.009598903173331</v>
+        <v>0.9566686701896914</v>
       </c>
       <c r="M19">
-        <v>1.002676638324288</v>
+        <v>0.9043142495412276</v>
       </c>
       <c r="N19">
-        <v>1.010628030232731</v>
+        <v>0.955840872065633</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.002400142081356</v>
+        <v>0.9214379603721139</v>
       </c>
       <c r="D20">
-        <v>1.023829745906674</v>
+        <v>1.010763011282517</v>
       </c>
       <c r="E20">
-        <v>1.005761719632777</v>
+        <v>0.9394404238332158</v>
       </c>
       <c r="F20">
-        <v>0.9985124493247259</v>
+        <v>0.8840082463319063</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.027781570346447</v>
+        <v>1.04342441819727</v>
       </c>
       <c r="J20">
-        <v>1.008831378456744</v>
+        <v>0.9523734429165466</v>
       </c>
       <c r="K20">
-        <v>1.027246360539083</v>
+        <v>1.024619209928012</v>
       </c>
       <c r="L20">
-        <v>1.009244408248378</v>
+        <v>0.9546388372458465</v>
       </c>
       <c r="M20">
-        <v>1.002022392601343</v>
+        <v>0.9004513954069271</v>
       </c>
       <c r="N20">
-        <v>1.010264034728729</v>
+        <v>0.9537259224442487</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.000797026801523</v>
+        <v>0.9115125703453305</v>
       </c>
       <c r="D21">
-        <v>1.023193381061207</v>
+        <v>1.005824523177328</v>
       </c>
       <c r="E21">
-        <v>1.004387509750594</v>
+        <v>0.9313803385320619</v>
       </c>
       <c r="F21">
-        <v>0.9961561842308329</v>
+        <v>0.8693717665434535</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.027664993056494</v>
+        <v>1.041410666287968</v>
       </c>
       <c r="J21">
-        <v>1.007646823902336</v>
+        <v>0.9452397768636928</v>
       </c>
       <c r="K21">
-        <v>1.026821841561942</v>
+        <v>1.02069638205</v>
       </c>
       <c r="L21">
-        <v>1.00808941149181</v>
+        <v>0.947789790926837</v>
       </c>
       <c r="M21">
-        <v>0.9998912026063483</v>
+        <v>0.8873369472075457</v>
       </c>
       <c r="N21">
-        <v>1.009077797970983</v>
+        <v>0.9465821257673567</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9997871235086685</v>
+        <v>0.9049634739858821</v>
       </c>
       <c r="D22">
-        <v>1.022786227006253</v>
+        <v>1.002588185266324</v>
       </c>
       <c r="E22">
-        <v>1.003522097095154</v>
+        <v>0.9260772130345147</v>
       </c>
       <c r="F22">
-        <v>0.9946716801406038</v>
+        <v>0.8596292967620407</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.027586509990162</v>
+        <v>1.040069952889099</v>
       </c>
       <c r="J22">
-        <v>1.006899820848372</v>
+        <v>0.940526261931952</v>
       </c>
       <c r="K22">
-        <v>1.026547147649343</v>
+        <v>1.018108543476333</v>
       </c>
       <c r="L22">
-        <v>1.007361263806506</v>
+        <v>0.9432705401068507</v>
       </c>
       <c r="M22">
-        <v>0.9985479300973373</v>
+        <v>0.8786092465315731</v>
       </c>
       <c r="N22">
-        <v>1.008329734087001</v>
+        <v>0.9418619171037653</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.000322681920053</v>
+        <v>0.9084667798043548</v>
       </c>
       <c r="D23">
-        <v>1.023002733729557</v>
+        <v>1.004316643407697</v>
       </c>
       <c r="E23">
-        <v>1.003981003448065</v>
+        <v>0.9289125059676511</v>
       </c>
       <c r="F23">
-        <v>0.9954589386253812</v>
+        <v>0.8648497409394202</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.027628606217047</v>
+        <v>1.040787933939622</v>
       </c>
       <c r="J23">
-        <v>1.007296035183665</v>
+        <v>0.943048280329935</v>
       </c>
       <c r="K23">
-        <v>1.026693504457307</v>
+        <v>1.019492227845273</v>
       </c>
       <c r="L23">
-        <v>1.007747456589261</v>
+        <v>0.9456879957669947</v>
       </c>
       <c r="M23">
-        <v>0.9992603450241445</v>
+        <v>0.8832856871338196</v>
       </c>
       <c r="N23">
-        <v>1.008726511092096</v>
+        <v>0.9443875170571534</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.002426986095816</v>
+        <v>0.9215995936188749</v>
       </c>
       <c r="D24">
-        <v>1.023840294915894</v>
+        <v>1.01084365827519</v>
       </c>
       <c r="E24">
-        <v>1.005784735452404</v>
+        <v>0.9395719094540586</v>
       </c>
       <c r="F24">
-        <v>0.9985519028639323</v>
+        <v>0.8842454142872445</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.027783436694908</v>
+        <v>1.04345695171977</v>
       </c>
       <c r="J24">
-        <v>1.008851200554655</v>
+        <v>0.9524895102897653</v>
       </c>
       <c r="K24">
-        <v>1.027253345444725</v>
+        <v>1.024682986037218</v>
       </c>
       <c r="L24">
-        <v>1.009263739346227</v>
+        <v>0.9547503663144385</v>
       </c>
       <c r="M24">
-        <v>1.00205806777604</v>
+        <v>0.9006639094578021</v>
       </c>
       <c r="N24">
-        <v>1.010283884976293</v>
+        <v>0.9538421546464505</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.004860741150578</v>
+        <v>0.935689293588434</v>
       </c>
       <c r="D25">
-        <v>1.024781422877932</v>
+        <v>1.017880093725776</v>
       </c>
       <c r="E25">
-        <v>1.007872076959016</v>
+        <v>0.951061629231336</v>
       </c>
       <c r="F25">
-        <v>1.002128720824313</v>
+        <v>0.9047896889381497</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.027940447854658</v>
+        <v>1.046245438360855</v>
       </c>
       <c r="J25">
-        <v>1.010646469523226</v>
+        <v>0.9625932758949404</v>
       </c>
       <c r="K25">
-        <v>1.027868987877461</v>
+        <v>1.030207043163201</v>
       </c>
       <c r="L25">
-        <v>1.011015042468879</v>
+        <v>0.9644703336148376</v>
       </c>
       <c r="M25">
-        <v>1.005290970498297</v>
+        <v>0.9190707937675615</v>
       </c>
       <c r="N25">
-        <v>1.012081703432719</v>
+        <v>0.9639602687577032</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_63/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_63/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9461692172995129</v>
+        <v>1.008488324192232</v>
       </c>
       <c r="D2">
-        <v>1.023091368372433</v>
+        <v>1.047671685745972</v>
       </c>
       <c r="E2">
-        <v>0.9596434903884663</v>
+        <v>1.013637352411137</v>
       </c>
       <c r="F2">
-        <v>0.9199234399015858</v>
+        <v>1.046704231601165</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04823588693434</v>
+        <v>1.057961471831391</v>
       </c>
       <c r="J2">
-        <v>0.970088511090476</v>
+        <v>1.030418081515889</v>
       </c>
       <c r="K2">
-        <v>1.034238110779699</v>
+        <v>1.058504549032682</v>
       </c>
       <c r="L2">
-        <v>0.9716952357474189</v>
+        <v>1.024909911200322</v>
       </c>
       <c r="M2">
-        <v>0.9326238585607509</v>
+        <v>1.057549101591491</v>
       </c>
       <c r="N2">
-        <v>0.9714661480469322</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.013642763750645</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.054118518118269</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.052437895418359</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.953405333571841</v>
+        <v>1.012997316595599</v>
       </c>
       <c r="D3">
-        <v>1.026656736711927</v>
+        <v>1.049930598666193</v>
       </c>
       <c r="E3">
-        <v>0.9655868422326269</v>
+        <v>1.017257860666885</v>
       </c>
       <c r="F3">
-        <v>0.9303113987982859</v>
+        <v>1.049287604758154</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04955216868654</v>
+        <v>1.059143776245392</v>
       </c>
       <c r="J3">
-        <v>0.9752521672617572</v>
+        <v>1.033139825298226</v>
       </c>
       <c r="K3">
-        <v>1.036959532729952</v>
+        <v>1.059962111644769</v>
       </c>
       <c r="L3">
-        <v>0.976679842174161</v>
+        <v>1.027674585083567</v>
       </c>
       <c r="M3">
-        <v>0.9419210953951724</v>
+        <v>1.059326413183354</v>
       </c>
       <c r="N3">
-        <v>0.976637137202256</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.014589899973995</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.055525113843035</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.05346586446388</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9579330712616052</v>
+        <v>1.015857059308438</v>
       </c>
       <c r="D4">
-        <v>1.028866762049402</v>
+        <v>1.051370747649801</v>
       </c>
       <c r="E4">
-        <v>0.9693130876658019</v>
+        <v>1.019559937613788</v>
       </c>
       <c r="F4">
-        <v>0.9367889765649678</v>
+        <v>1.050935394184156</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.050346101611162</v>
+        <v>1.059885430158172</v>
       </c>
       <c r="J4">
-        <v>0.9784777002682254</v>
+        <v>1.034863657315831</v>
       </c>
       <c r="K4">
-        <v>1.038628840114071</v>
+        <v>1.060886319875992</v>
       </c>
       <c r="L4">
-        <v>0.9797965515889006</v>
+        <v>1.029427886783542</v>
       </c>
       <c r="M4">
-        <v>0.9477153266852791</v>
+        <v>1.060455612550057</v>
       </c>
       <c r="N4">
-        <v>0.9798672508355676</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.015189560337704</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.056418780776234</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.054120213481207</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9598019338788205</v>
+        <v>1.017048374886941</v>
       </c>
       <c r="D5">
-        <v>1.029773185199953</v>
+        <v>1.051976582957286</v>
       </c>
       <c r="E5">
-        <v>0.9708527944323511</v>
+        <v>1.020520827304178</v>
       </c>
       <c r="F5">
-        <v>0.9394580827578106</v>
+        <v>1.051625992990033</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.05066628811199</v>
+        <v>1.060194312168069</v>
       </c>
       <c r="J5">
-        <v>0.979807748206722</v>
+        <v>1.035582082845503</v>
       </c>
       <c r="K5">
-        <v>1.039309142812778</v>
+        <v>1.061275791046888</v>
       </c>
       <c r="L5">
-        <v>0.9810824118589889</v>
+        <v>1.030159181624231</v>
       </c>
       <c r="M5">
-        <v>0.9501020148839679</v>
+        <v>1.060928844461164</v>
       </c>
       <c r="N5">
-        <v>0.9811991875946952</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.015440282999248</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.05679330397531</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.054402626105457</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9601137603313418</v>
+        <v>1.017250612884263</v>
       </c>
       <c r="D6">
-        <v>1.029924063371728</v>
+        <v>1.052084597800317</v>
       </c>
       <c r="E6">
-        <v>0.9711097950342257</v>
+        <v>1.020684670315273</v>
       </c>
       <c r="F6">
-        <v>0.9399031849896515</v>
+        <v>1.051745772271425</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050719259225547</v>
+        <v>1.060248981107822</v>
       </c>
       <c r="J6">
-        <v>0.9800295934985436</v>
+        <v>1.035705120169105</v>
       </c>
       <c r="K6">
-        <v>1.039422122093371</v>
+        <v>1.061347443697938</v>
       </c>
       <c r="L6">
-        <v>0.9812969261389399</v>
+        <v>1.030284505894094</v>
       </c>
       <c r="M6">
-        <v>0.9504999693220944</v>
+        <v>1.061012123390171</v>
       </c>
       <c r="N6">
-        <v>0.9814213479322772</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.015484273322817</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.056859212214352</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.054461866789012</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.957958176060941</v>
+        <v>1.015881075007439</v>
       </c>
       <c r="D7">
-        <v>1.028878962103938</v>
+        <v>1.051396516989819</v>
       </c>
       <c r="E7">
-        <v>0.9693337643880425</v>
+        <v>1.019581057929537</v>
       </c>
       <c r="F7">
-        <v>0.9368248483239294</v>
+        <v>1.05095576306504</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.050350433012133</v>
+        <v>1.05989795488613</v>
       </c>
       <c r="J7">
-        <v>0.9784955723055585</v>
+        <v>1.03488113883644</v>
       </c>
       <c r="K7">
-        <v>1.03863801414487</v>
+        <v>1.060909007582663</v>
       </c>
       <c r="L7">
-        <v>0.9798138272026894</v>
+        <v>1.029445840031147</v>
       </c>
       <c r="M7">
-        <v>0.9477474062859141</v>
+        <v>1.060472955619501</v>
       </c>
       <c r="N7">
-        <v>0.9798851482532432</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.015198539511816</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.056432506358198</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.054155985193874</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9486482107890778</v>
+        <v>1.010034590150396</v>
       </c>
       <c r="D8">
-        <v>1.024316734034519</v>
+        <v>1.048461469320584</v>
       </c>
       <c r="E8">
-        <v>0.9616779624447924</v>
+        <v>1.014880011766195</v>
       </c>
       <c r="F8">
-        <v>0.9234874470085553</v>
+        <v>1.047596083508691</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04869285524892</v>
+        <v>1.058376284835091</v>
       </c>
       <c r="J8">
-        <v>0.9718586509409676</v>
+        <v>1.031355661239561</v>
       </c>
       <c r="K8">
-        <v>1.03517709359159</v>
+        <v>1.059022698502357</v>
       </c>
       <c r="L8">
-        <v>0.9734033304040415</v>
+        <v>1.025862126678979</v>
       </c>
       <c r="M8">
-        <v>0.935814282022836</v>
+        <v>1.05816773816266</v>
       </c>
       <c r="N8">
-        <v>0.9732388016990491</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.013972855382681</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.054608118301997</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.052826737812484</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9309368692297685</v>
+        <v>0.9992530368696734</v>
       </c>
       <c r="D9">
-        <v>1.015507248178864</v>
+        <v>1.043090281761513</v>
       </c>
       <c r="E9">
-        <v>0.947179991587847</v>
+        <v>1.006256340209816</v>
       </c>
       <c r="F9">
-        <v>0.8978875194172767</v>
+        <v>1.04146809898003</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.045316807020323</v>
+        <v>1.05549708597303</v>
       </c>
       <c r="J9">
-        <v>0.9591884982792508</v>
+        <v>1.024832199932162</v>
       </c>
       <c r="K9">
-        <v>1.028353643349236</v>
+        <v>1.055520900385597</v>
       </c>
       <c r="L9">
-        <v>0.9611924046096467</v>
+        <v>1.019248721673065</v>
       </c>
       <c r="M9">
-        <v>0.9128873646907244</v>
+        <v>1.053922396184386</v>
       </c>
       <c r="N9">
-        <v>0.960550655967266</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.011698534572866</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.051248271406056</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.050347707076522</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9180504149914236</v>
+        <v>0.9917743333720145</v>
       </c>
       <c r="D10">
-        <v>1.009074118800384</v>
+        <v>1.039458185661389</v>
       </c>
       <c r="E10">
-        <v>0.9366864019342607</v>
+        <v>1.000321463017949</v>
       </c>
       <c r="F10">
-        <v>0.8790291643647621</v>
+        <v>1.037359426674257</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.042740418255069</v>
+        <v>1.053488461293237</v>
       </c>
       <c r="J10">
-        <v>0.9499400998670398</v>
+        <v>1.020318153174227</v>
       </c>
       <c r="K10">
-        <v>1.023281447481244</v>
+        <v>1.053149773205772</v>
       </c>
       <c r="L10">
-        <v>0.9523013196123896</v>
+        <v>1.014684915775409</v>
       </c>
       <c r="M10">
-        <v>0.895989914765401</v>
+        <v>1.051085389450352</v>
       </c>
       <c r="N10">
-        <v>0.9512891237685032</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.0101396188665</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.049053786933213</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.048687743562526</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9121586469191229</v>
+        <v>0.9888690384108881</v>
       </c>
       <c r="D11">
-        <v>1.006144924351871</v>
+        <v>1.038405290563342</v>
       </c>
       <c r="E11">
-        <v>0.9319041540837807</v>
+        <v>0.9981116475159107</v>
       </c>
       <c r="F11">
-        <v>0.8703290584636436</v>
+        <v>1.036437003720113</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.041542536238143</v>
+        <v>1.052906835095039</v>
       </c>
       <c r="J11">
-        <v>0.9457044986885026</v>
+        <v>1.018712323547481</v>
       </c>
       <c r="K11">
-        <v>1.02095187941545</v>
+        <v>1.052637547900477</v>
       </c>
       <c r="L11">
-        <v>0.9482356285770221</v>
+        <v>1.013069263478763</v>
       </c>
       <c r="M11">
-        <v>0.8881946249188315</v>
+        <v>1.050703000014836</v>
       </c>
       <c r="N11">
-        <v>0.9470475075504625</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.009708833036233</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.049182057797612</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.048357856562329</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9099174908576828</v>
+        <v>0.9878981960281287</v>
       </c>
       <c r="D12">
-        <v>1.005034294761868</v>
+        <v>1.038178332954044</v>
       </c>
       <c r="E12">
-        <v>0.930087609217103</v>
+        <v>0.997409232036146</v>
       </c>
       <c r="F12">
-        <v>0.8670054707059696</v>
+        <v>1.036385745461525</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.041084745136768</v>
+        <v>1.052778703771252</v>
       </c>
       <c r="J12">
-        <v>0.9440922267913801</v>
+        <v>1.01822370587048</v>
       </c>
       <c r="K12">
-        <v>1.020065677037083</v>
+        <v>1.052608911369113</v>
       </c>
       <c r="L12">
-        <v>0.9466890780975394</v>
+        <v>1.012586235961372</v>
       </c>
       <c r="M12">
-        <v>0.8852169481725588</v>
+        <v>1.050847545209445</v>
       </c>
       <c r="N12">
-        <v>0.9454329460423156</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.00963648028169</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.049619151097036</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.048337610273801</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9104007166052406</v>
+        <v>0.9883696069805634</v>
       </c>
       <c r="D13">
-        <v>1.005273568579274</v>
+        <v>1.038598935369925</v>
       </c>
       <c r="E13">
-        <v>0.9304791629497329</v>
+        <v>0.9978341248271552</v>
       </c>
       <c r="F13">
-        <v>0.8677227690007264</v>
+        <v>1.037030310183205</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.041183532369408</v>
+        <v>1.05301015501122</v>
       </c>
       <c r="J13">
-        <v>0.9444399062232226</v>
+        <v>1.018580019581298</v>
       </c>
       <c r="K13">
-        <v>1.020256731067155</v>
+        <v>1.052980527357897</v>
       </c>
       <c r="L13">
-        <v>0.9470225359879154</v>
+        <v>1.0129587637308</v>
       </c>
       <c r="M13">
-        <v>0.8858595760307717</v>
+        <v>1.051439095777634</v>
       </c>
       <c r="N13">
-        <v>0.9457811192188311</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.00984487397701</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.050360812906103</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.048597898041271</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9119745048247235</v>
+        <v>0.9893498632790501</v>
       </c>
       <c r="D14">
-        <v>1.006053586573631</v>
+        <v>1.039186238412866</v>
       </c>
       <c r="E14">
-        <v>0.9317548463490773</v>
+        <v>0.9986393179449167</v>
       </c>
       <c r="F14">
-        <v>0.8700562825860764</v>
+        <v>1.037794770463829</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.041504960057253</v>
+        <v>1.053333311501238</v>
       </c>
       <c r="J14">
-        <v>0.9455720506529116</v>
+        <v>1.019208809632</v>
       </c>
       <c r="K14">
-        <v>1.020879057303193</v>
+        <v>1.053421206228994</v>
       </c>
       <c r="L14">
-        <v>0.9481085577312969</v>
+        <v>1.013603943052342</v>
       </c>
       <c r="M14">
-        <v>0.8879502322287866</v>
+        <v>1.052053557264545</v>
       </c>
       <c r="N14">
-        <v>0.9469148714234691</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.010116652556597</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.051018356455217</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.048910861180894</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9129369923917733</v>
+        <v>0.9899083655877801</v>
       </c>
       <c r="D15">
-        <v>1.00653115496801</v>
+        <v>1.039483266737108</v>
       </c>
       <c r="E15">
-        <v>0.9325353645304445</v>
+        <v>0.9990870795583929</v>
       </c>
       <c r="F15">
-        <v>0.8714814569302158</v>
+        <v>1.038150298896885</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.04170128505091</v>
+        <v>1.05349781522819</v>
       </c>
       <c r="J15">
-        <v>0.9462642950277591</v>
+        <v>1.019553408558171</v>
       </c>
       <c r="K15">
-        <v>1.021259696371353</v>
+        <v>1.053629104000735</v>
       </c>
       <c r="L15">
-        <v>0.9487727410836881</v>
+        <v>1.013954209301974</v>
       </c>
       <c r="M15">
-        <v>0.8892271245541844</v>
+        <v>1.052318780470195</v>
       </c>
       <c r="N15">
-        <v>0.9476080988647303</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.010247842931924</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.051265229537893</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.049063611987259</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9184343875086279</v>
+        <v>0.9929962108188018</v>
       </c>
       <c r="D16">
-        <v>1.009265409203062</v>
+        <v>1.040958328229607</v>
       </c>
       <c r="E16">
-        <v>0.936998404105546</v>
+        <v>1.001520038660968</v>
       </c>
       <c r="F16">
-        <v>0.8795943590734804</v>
+        <v>1.039806351013909</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.042818143987246</v>
+        <v>1.054329491040468</v>
       </c>
       <c r="J16">
-        <v>0.9502159889032066</v>
+        <v>1.021412805210878</v>
       </c>
       <c r="K16">
-        <v>1.023433172621418</v>
+        <v>1.054590829033032</v>
       </c>
       <c r="L16">
-        <v>0.952566278741008</v>
+        <v>1.015825305246955</v>
       </c>
       <c r="M16">
-        <v>0.8964963505232744</v>
+        <v>1.053457573411172</v>
       </c>
       <c r="N16">
-        <v>0.9515654045987465</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.010873462551555</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.052126935104562</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.049746673219832</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9217954674741045</v>
+        <v>0.9948531008739891</v>
       </c>
       <c r="D17">
-        <v>1.01094139622666</v>
+        <v>1.041783647581953</v>
       </c>
       <c r="E17">
-        <v>0.9397312589629032</v>
+        <v>1.002968187313444</v>
       </c>
       <c r="F17">
-        <v>0.8845327758146698</v>
+        <v>1.040672645863221</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.043496363820946</v>
+        <v>1.054796087427746</v>
       </c>
       <c r="J17">
-        <v>0.9526301609452787</v>
+        <v>1.022510513830623</v>
       </c>
       <c r="K17">
-        <v>1.024760264815615</v>
+        <v>1.05509668219312</v>
       </c>
       <c r="L17">
-        <v>0.9548855213972859</v>
+        <v>1.016924372840706</v>
       </c>
       <c r="M17">
-        <v>0.9009213993546533</v>
+        <v>1.054003234999049</v>
       </c>
       <c r="N17">
-        <v>0.9539830050420277</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.011211403578044</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.052430335536122</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.050106860149335</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9237262852112864</v>
+        <v>0.99581351118988</v>
       </c>
       <c r="D18">
-        <v>1.01190518914984</v>
+        <v>1.042088929379064</v>
       </c>
       <c r="E18">
-        <v>0.9413026136328079</v>
+        <v>1.00368780678829</v>
       </c>
       <c r="F18">
-        <v>0.8873626214405236</v>
+        <v>1.040885391939766</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.043884053311239</v>
+        <v>1.054972280766186</v>
       </c>
       <c r="J18">
-        <v>0.9540163470520779</v>
+        <v>1.023035617373754</v>
       </c>
       <c r="K18">
-        <v>1.025521539750436</v>
+        <v>1.055218657024621</v>
       </c>
       <c r="L18">
-        <v>0.9562177772780677</v>
+        <v>1.017443186065829</v>
       </c>
       <c r="M18">
-        <v>0.903457070559289</v>
+        <v>1.054033832461414</v>
       </c>
       <c r="N18">
-        <v>0.9553711596920963</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.011321533420126</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.052219195830143</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.050181673399099</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9243797766076639</v>
+        <v>0.9959416696226222</v>
       </c>
       <c r="D19">
-        <v>1.012231509405841</v>
+        <v>1.041926576266992</v>
       </c>
       <c r="E19">
-        <v>0.9418346795731051</v>
+        <v>1.003732129151393</v>
       </c>
       <c r="F19">
-        <v>0.8883192523502302</v>
+        <v>1.040494275911164</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044014918495456</v>
+        <v>1.054878853771599</v>
       </c>
       <c r="J19">
-        <v>0.954485393326105</v>
+        <v>1.023023347858939</v>
       </c>
       <c r="K19">
-        <v>1.025778969665041</v>
+        <v>1.054997945559071</v>
       </c>
       <c r="L19">
-        <v>0.9566686701896914</v>
+        <v>1.017422551280265</v>
       </c>
       <c r="M19">
-        <v>0.9043142495412276</v>
+        <v>1.053587811833214</v>
       </c>
       <c r="N19">
-        <v>0.955840872065633</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.011227868438006</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.051544692862194</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.050031907984442</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9214379603721139</v>
+        <v>0.9937378226410234</v>
       </c>
       <c r="D20">
-        <v>1.010763011282517</v>
+        <v>1.040443559905981</v>
       </c>
       <c r="E20">
-        <v>0.9394404238332158</v>
+        <v>1.001882733065029</v>
       </c>
       <c r="F20">
-        <v>0.8840082463319063</v>
+        <v>1.038453719974035</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.04342441819727</v>
+        <v>1.054034642347857</v>
       </c>
       <c r="J20">
-        <v>0.9523734429165466</v>
+        <v>1.021512293419573</v>
       </c>
       <c r="K20">
-        <v>1.024619209928012</v>
+        <v>1.053810677985104</v>
       </c>
       <c r="L20">
-        <v>0.9546388372458465</v>
+        <v>1.015892557471894</v>
       </c>
       <c r="M20">
-        <v>0.9004513954069271</v>
+        <v>1.051852506183492</v>
       </c>
       <c r="N20">
-        <v>0.9537259224442487</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.01056132150754</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.049650455032146</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.049196345061926</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9115125703453305</v>
+        <v>0.9880201347384104</v>
       </c>
       <c r="D21">
-        <v>1.005824523177328</v>
+        <v>1.037611503741311</v>
       </c>
       <c r="E21">
-        <v>0.9313803385320619</v>
+        <v>0.9973418396098017</v>
       </c>
       <c r="F21">
-        <v>0.8693717665434535</v>
+        <v>1.035202026158955</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.041410666287968</v>
+        <v>1.052441911589646</v>
       </c>
       <c r="J21">
-        <v>0.9452397768636928</v>
+        <v>1.018027410904052</v>
       </c>
       <c r="K21">
-        <v>1.02069638205</v>
+        <v>1.051913709984901</v>
       </c>
       <c r="L21">
-        <v>0.947789790926837</v>
+        <v>1.012373747258269</v>
       </c>
       <c r="M21">
-        <v>0.8873369472075457</v>
+        <v>1.049545827036949</v>
       </c>
       <c r="N21">
-        <v>0.9465821257673567</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.009334235567624</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.047784552983766</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.047858331428865</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9049634739858821</v>
+        <v>0.9843592036305808</v>
       </c>
       <c r="D22">
-        <v>1.002588185266324</v>
+        <v>1.035817998279404</v>
       </c>
       <c r="E22">
-        <v>0.9260772130345147</v>
+        <v>0.994445916691441</v>
       </c>
       <c r="F22">
-        <v>0.8596292967620407</v>
+        <v>1.033169674841355</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040069952889099</v>
+        <v>1.051422205610241</v>
       </c>
       <c r="J22">
-        <v>0.940526261931952</v>
+        <v>1.015801574788948</v>
       </c>
       <c r="K22">
-        <v>1.018108543476333</v>
+        <v>1.050711790583234</v>
       </c>
       <c r="L22">
-        <v>0.9432705401068507</v>
+        <v>1.010128209889705</v>
       </c>
       <c r="M22">
-        <v>0.8786092465315731</v>
+        <v>1.048111479549981</v>
       </c>
       <c r="N22">
-        <v>0.9418619171037653</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.008553876555131</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.046649373568152</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.046995275186682</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9084667798043548</v>
+        <v>0.9863003305384079</v>
       </c>
       <c r="D23">
-        <v>1.004316643407697</v>
+        <v>1.036755915225043</v>
       </c>
       <c r="E23">
-        <v>0.9289125059676511</v>
+        <v>0.9959784884327194</v>
       </c>
       <c r="F23">
-        <v>0.8648497409394202</v>
+        <v>1.0342403665011</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040787933939622</v>
+        <v>1.05195835153729</v>
       </c>
       <c r="J23">
-        <v>0.943048280329935</v>
+        <v>1.01697912905249</v>
       </c>
       <c r="K23">
-        <v>1.019492227845273</v>
+        <v>1.05133598883417</v>
       </c>
       <c r="L23">
-        <v>0.9456879957669947</v>
+        <v>1.011315365850412</v>
       </c>
       <c r="M23">
-        <v>0.8832856871338196</v>
+        <v>1.048864886487465</v>
       </c>
       <c r="N23">
-        <v>0.9443875170571534</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.008963451989634</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.047245639373189</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.047427125630914</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9215995936188749</v>
+        <v>0.9937772230568467</v>
       </c>
       <c r="D24">
-        <v>1.01084365827519</v>
+        <v>1.040410950972677</v>
       </c>
       <c r="E24">
-        <v>0.9395719094540586</v>
+        <v>1.001902824273543</v>
       </c>
       <c r="F24">
-        <v>0.8842454142872445</v>
+        <v>1.038401637027435</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.04345695171977</v>
+        <v>1.054016538627925</v>
       </c>
       <c r="J24">
-        <v>0.9524895102897653</v>
+        <v>1.021516935975433</v>
       </c>
       <c r="K24">
-        <v>1.024682986037218</v>
+        <v>1.053763718628433</v>
       </c>
       <c r="L24">
-        <v>0.9547503663144385</v>
+        <v>1.015896606384182</v>
       </c>
       <c r="M24">
-        <v>0.9006639094578021</v>
+        <v>1.05178634531051</v>
       </c>
       <c r="N24">
-        <v>0.9538421546464505</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.010547040316366</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.049557753169951</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.049136219753734</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.935689293588434</v>
+        <v>1.002112087930032</v>
       </c>
       <c r="D25">
-        <v>1.017880093725776</v>
+        <v>1.044527650877688</v>
       </c>
       <c r="E25">
-        <v>0.951061629231336</v>
+        <v>1.008540351785827</v>
       </c>
       <c r="F25">
-        <v>0.9047896889381497</v>
+        <v>1.04309334008739</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.046245438360855</v>
+        <v>1.056277101995834</v>
       </c>
       <c r="J25">
-        <v>0.9625932758949404</v>
+        <v>1.026568580360181</v>
       </c>
       <c r="K25">
-        <v>1.030207043163201</v>
+        <v>1.056471932506851</v>
       </c>
       <c r="L25">
-        <v>0.9644703336148376</v>
+        <v>1.021007520812792</v>
       </c>
       <c r="M25">
-        <v>0.9190707937675615</v>
+        <v>1.055057590417316</v>
       </c>
       <c r="N25">
-        <v>0.9639602687577032</v>
+        <v>1.012309127355865</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.052146687851922</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.051048190295092</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_63/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_63/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.008488324192232</v>
+        <v>1.007814019093924</v>
       </c>
       <c r="D2">
-        <v>1.047671685745972</v>
+        <v>1.043977565467192</v>
       </c>
       <c r="E2">
-        <v>1.013637352411137</v>
+        <v>1.013083224886859</v>
       </c>
       <c r="F2">
-        <v>1.046704231601165</v>
+        <v>1.044434745473212</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.057961471831391</v>
+        <v>1.056350895199797</v>
       </c>
       <c r="J2">
-        <v>1.030418081515889</v>
+        <v>1.029763499892214</v>
       </c>
       <c r="K2">
-        <v>1.058504549032682</v>
+        <v>1.054856424316896</v>
       </c>
       <c r="L2">
-        <v>1.024909911200322</v>
+        <v>1.02436324972382</v>
       </c>
       <c r="M2">
-        <v>1.057549101591491</v>
+        <v>1.055307889978419</v>
       </c>
       <c r="N2">
-        <v>1.013642763750645</v>
+        <v>1.01481743169077</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.054118518118269</v>
+        <v>1.052344780012228</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.052437895418359</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.049867064493931</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.026496749637801</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.012997316595599</v>
+        <v>1.012169251827424</v>
       </c>
       <c r="D3">
-        <v>1.049930598666193</v>
+        <v>1.046026571106602</v>
       </c>
       <c r="E3">
-        <v>1.017257860666885</v>
+        <v>1.01656521997297</v>
       </c>
       <c r="F3">
-        <v>1.049287604758154</v>
+        <v>1.046872466461427</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.059143776245392</v>
+        <v>1.057414105893183</v>
       </c>
       <c r="J3">
-        <v>1.033139825298226</v>
+        <v>1.032333579957587</v>
       </c>
       <c r="K3">
-        <v>1.059962111644769</v>
+        <v>1.056102549808827</v>
       </c>
       <c r="L3">
-        <v>1.027674585083567</v>
+        <v>1.02699044389299</v>
       </c>
       <c r="M3">
-        <v>1.059326413183354</v>
+        <v>1.056938775941765</v>
       </c>
       <c r="N3">
-        <v>1.014589899973995</v>
+        <v>1.015523627006104</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.055525113843035</v>
+        <v>1.053635495038022</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.05346586446388</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.050745261045648</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.026735103762473</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.015857059308438</v>
+        <v>1.014932515390437</v>
       </c>
       <c r="D4">
-        <v>1.051370747649801</v>
+        <v>1.047333865295951</v>
       </c>
       <c r="E4">
-        <v>1.019559937613788</v>
+        <v>1.018780340357214</v>
       </c>
       <c r="F4">
-        <v>1.050935394184156</v>
+        <v>1.048428209406824</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.059885430158172</v>
+        <v>1.058080288426462</v>
       </c>
       <c r="J4">
-        <v>1.034863657315831</v>
+        <v>1.033961808211254</v>
       </c>
       <c r="K4">
-        <v>1.060886319875992</v>
+        <v>1.056892701136907</v>
       </c>
       <c r="L4">
-        <v>1.029427886783542</v>
+        <v>1.028657266371003</v>
       </c>
       <c r="M4">
-        <v>1.060455612550057</v>
+        <v>1.057975276734691</v>
       </c>
       <c r="N4">
-        <v>1.015189560337704</v>
+        <v>1.015970992627262</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.056418780776234</v>
+        <v>1.054455800877003</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.054120213481207</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.051304910533082</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.026883997845881</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.017048374886941</v>
+        <v>1.01608349464567</v>
       </c>
       <c r="D5">
-        <v>1.051976582957286</v>
+        <v>1.047884180369666</v>
       </c>
       <c r="E5">
-        <v>1.020520827304178</v>
+        <v>1.0197048167394</v>
       </c>
       <c r="F5">
-        <v>1.051625992990033</v>
+        <v>1.049080330355852</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.060194312168069</v>
+        <v>1.058357553290663</v>
       </c>
       <c r="J5">
-        <v>1.035582082845503</v>
+        <v>1.034640172438546</v>
       </c>
       <c r="K5">
-        <v>1.061275791046888</v>
+        <v>1.05722610286907</v>
       </c>
       <c r="L5">
-        <v>1.030159181624231</v>
+        <v>1.029352311697108</v>
       </c>
       <c r="M5">
-        <v>1.060928844461164</v>
+        <v>1.058409725943011</v>
       </c>
       <c r="N5">
-        <v>1.015440282999248</v>
+        <v>1.016157942295628</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.05679330397531</v>
+        <v>1.054799631726887</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.054402626105457</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.051548399286991</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.026947142110183</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.017250612884263</v>
+        <v>1.016278439193018</v>
       </c>
       <c r="D6">
-        <v>1.052084597800317</v>
+        <v>1.047982482310824</v>
       </c>
       <c r="E6">
-        <v>1.020684670315273</v>
+        <v>1.019862011857279</v>
       </c>
       <c r="F6">
-        <v>1.051745772271425</v>
+        <v>1.049193329461503</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.060248981107822</v>
+        <v>1.05840662553011</v>
       </c>
       <c r="J6">
-        <v>1.035705120169105</v>
+        <v>1.034755969741989</v>
       </c>
       <c r="K6">
-        <v>1.061347443697938</v>
+        <v>1.05728795157746</v>
       </c>
       <c r="L6">
-        <v>1.030284505894094</v>
+        <v>1.029471019466676</v>
       </c>
       <c r="M6">
-        <v>1.061012123390171</v>
+        <v>1.05848617498494</v>
       </c>
       <c r="N6">
-        <v>1.015484273322817</v>
+        <v>1.01619055671109</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.056859212214352</v>
+        <v>1.054860134845669</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.054461866789012</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.051601586883563</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.026959866941491</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.015881075007439</v>
+        <v>1.014967516017959</v>
       </c>
       <c r="D7">
-        <v>1.051396516989819</v>
+        <v>1.047361603270386</v>
       </c>
       <c r="E7">
-        <v>1.019581057929537</v>
+        <v>1.018811519986933</v>
       </c>
       <c r="F7">
-        <v>1.05095576306504</v>
+        <v>1.048451902310976</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.05989795488613</v>
+        <v>1.058096422762329</v>
       </c>
       <c r="J7">
-        <v>1.03488113883644</v>
+        <v>1.033989995085002</v>
       </c>
       <c r="K7">
-        <v>1.060909007582663</v>
+        <v>1.056917319334516</v>
       </c>
       <c r="L7">
-        <v>1.029445840031147</v>
+        <v>1.028685159577827</v>
       </c>
       <c r="M7">
-        <v>1.060472955619501</v>
+        <v>1.057995897958565</v>
       </c>
       <c r="N7">
-        <v>1.015198539511816</v>
+        <v>1.016007441713294</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.056432506358198</v>
+        <v>1.054472120884786</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.054155985193874</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.051344068306045</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.026892236258022</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.010034590150396</v>
+        <v>1.009345956484858</v>
       </c>
       <c r="D8">
-        <v>1.048461469320584</v>
+        <v>1.044706346237097</v>
       </c>
       <c r="E8">
-        <v>1.014880011766195</v>
+        <v>1.01431394286667</v>
       </c>
       <c r="F8">
-        <v>1.047596083508691</v>
+        <v>1.045290536357699</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.058376284835091</v>
+        <v>1.056739107748023</v>
       </c>
       <c r="J8">
-        <v>1.031355661239561</v>
+        <v>1.030686482842626</v>
       </c>
       <c r="K8">
-        <v>1.059022698502357</v>
+        <v>1.055312969568896</v>
       </c>
       <c r="L8">
-        <v>1.025862126678979</v>
+        <v>1.025303451588412</v>
       </c>
       <c r="M8">
-        <v>1.05816773816266</v>
+        <v>1.055890071043714</v>
       </c>
       <c r="N8">
-        <v>1.013972855382681</v>
+        <v>1.015155229876688</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.054608118301997</v>
+        <v>1.052805529739183</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.052826737812484</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.050214641756509</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.0265904374668</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9992530368696734</v>
+        <v>0.9989466497898718</v>
       </c>
       <c r="D9">
-        <v>1.043090281761513</v>
+        <v>1.03984180546128</v>
       </c>
       <c r="E9">
-        <v>1.006256340209816</v>
+        <v>1.006034732958241</v>
       </c>
       <c r="F9">
-        <v>1.04146809898003</v>
+        <v>1.039516287555992</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.05549708597303</v>
+        <v>1.054148352772662</v>
       </c>
       <c r="J9">
-        <v>1.024832199932162</v>
+        <v>1.024536659480015</v>
       </c>
       <c r="K9">
-        <v>1.055520900385597</v>
+        <v>1.052319935397099</v>
       </c>
       <c r="L9">
-        <v>1.019248721673065</v>
+        <v>1.019030653760238</v>
       </c>
       <c r="M9">
-        <v>1.053922396184386</v>
+        <v>1.05199919920887</v>
       </c>
       <c r="N9">
-        <v>1.011698534572866</v>
+        <v>1.013473617097395</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.051248271406056</v>
+        <v>1.049726210657565</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.050347707076522</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.048095033920538</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.026002565540604</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9917743333720145</v>
+        <v>0.9917910143263402</v>
       </c>
       <c r="D10">
-        <v>1.039458185661389</v>
+        <v>1.036572758296136</v>
       </c>
       <c r="E10">
-        <v>1.000321463017949</v>
+        <v>1.00039105965769</v>
       </c>
       <c r="F10">
-        <v>1.037359426674257</v>
+        <v>1.035671572707523</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.053488461293237</v>
+        <v>1.052357645340087</v>
       </c>
       <c r="J10">
-        <v>1.020318153174227</v>
+        <v>1.02033415663885</v>
       </c>
       <c r="K10">
-        <v>1.053149773205772</v>
+        <v>1.050311651918918</v>
       </c>
       <c r="L10">
-        <v>1.014684915775409</v>
+        <v>1.014753256989537</v>
       </c>
       <c r="M10">
-        <v>1.051085389450352</v>
+        <v>1.049425310611818</v>
       </c>
       <c r="N10">
-        <v>1.0101396188665</v>
+        <v>1.012450213297081</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.049053786933213</v>
+        <v>1.047740039994605</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.048687743562526</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.046693300927232</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.025610358063294</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9888690384108881</v>
+        <v>0.9890427173322396</v>
       </c>
       <c r="D11">
-        <v>1.038405290563342</v>
+        <v>1.035625209676086</v>
       </c>
       <c r="E11">
-        <v>0.9981116475159107</v>
+        <v>0.9983143300624889</v>
       </c>
       <c r="F11">
-        <v>1.036437003720113</v>
+        <v>1.034842718625275</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.052906835095039</v>
+        <v>1.051858448942912</v>
       </c>
       <c r="J11">
-        <v>1.018712323547481</v>
+        <v>1.018878544954722</v>
       </c>
       <c r="K11">
-        <v>1.052637547900477</v>
+        <v>1.049905169460178</v>
       </c>
       <c r="L11">
-        <v>1.013069263478763</v>
+        <v>1.013268105817706</v>
       </c>
       <c r="M11">
-        <v>1.050703000014836</v>
+        <v>1.049136164681902</v>
       </c>
       <c r="N11">
-        <v>1.009708833036233</v>
+        <v>1.012368480216673</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.049182057797612</v>
+        <v>1.047942710775402</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.048357856562329</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.04644141542176</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.025607814489671</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9878981960281287</v>
+        <v>0.988117533557393</v>
       </c>
       <c r="D12">
-        <v>1.038178332954044</v>
+        <v>1.035413139025456</v>
       </c>
       <c r="E12">
-        <v>0.997409232036146</v>
+        <v>0.9976446609355585</v>
       </c>
       <c r="F12">
-        <v>1.036385745461525</v>
+        <v>1.034812994479913</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.052778703771252</v>
+        <v>1.051751099181843</v>
       </c>
       <c r="J12">
-        <v>1.01822370587048</v>
+        <v>1.018433435432081</v>
       </c>
       <c r="K12">
-        <v>1.052608911369113</v>
+        <v>1.049891937174827</v>
       </c>
       <c r="L12">
-        <v>1.012586235961372</v>
+        <v>1.012817125071354</v>
       </c>
       <c r="M12">
-        <v>1.050847545209445</v>
+        <v>1.049302302107588</v>
       </c>
       <c r="N12">
-        <v>1.00963648028169</v>
+        <v>1.012411712441933</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.049619151097036</v>
+        <v>1.048397288258481</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.048337610273801</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.046432060222363</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.025653938664022</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9883696069805634</v>
+        <v>0.988529383012823</v>
       </c>
       <c r="D13">
-        <v>1.038598935369925</v>
+        <v>1.035772806091196</v>
       </c>
       <c r="E13">
-        <v>0.9978341248271552</v>
+        <v>0.9980069563064486</v>
       </c>
       <c r="F13">
-        <v>1.037030310183205</v>
+        <v>1.035416265922759</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.05301015501122</v>
+        <v>1.051948367414485</v>
       </c>
       <c r="J13">
-        <v>1.018580019581298</v>
+        <v>1.018732831292346</v>
       </c>
       <c r="K13">
-        <v>1.052980527357897</v>
+        <v>1.050203468728315</v>
       </c>
       <c r="L13">
-        <v>1.0129587637308</v>
+        <v>1.0131282771302</v>
       </c>
       <c r="M13">
-        <v>1.051439095777634</v>
+        <v>1.049853143879058</v>
       </c>
       <c r="N13">
-        <v>1.00984487397701</v>
+        <v>1.012520876692659</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.050360812906103</v>
+        <v>1.049107070059579</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.048597898041271</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.046649619721054</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.02575066736034</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9893498632790501</v>
+        <v>0.9894225598541292</v>
       </c>
       <c r="D14">
-        <v>1.039186238412866</v>
+        <v>1.036284843842657</v>
       </c>
       <c r="E14">
-        <v>0.9986393179449167</v>
+        <v>0.9987278123580601</v>
       </c>
       <c r="F14">
-        <v>1.037794770463829</v>
+        <v>1.036124854967961</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.053333311501238</v>
+        <v>1.052223928719977</v>
       </c>
       <c r="J14">
-        <v>1.019208809632</v>
+        <v>1.019278384127919</v>
       </c>
       <c r="K14">
-        <v>1.053421206228994</v>
+        <v>1.050569570955074</v>
       </c>
       <c r="L14">
-        <v>1.013603943052342</v>
+        <v>1.01369076063534</v>
       </c>
       <c r="M14">
-        <v>1.052053557264545</v>
+        <v>1.050412336393022</v>
       </c>
       <c r="N14">
-        <v>1.010116652556597</v>
+        <v>1.012628638605454</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.051018356455217</v>
+        <v>1.049721094530224</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.048910861180894</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.046909992283173</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.025841623378086</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9899083655877801</v>
+        <v>0.9899365533456366</v>
       </c>
       <c r="D15">
-        <v>1.039483266737108</v>
+        <v>1.03654611063004</v>
       </c>
       <c r="E15">
-        <v>0.9990870795583929</v>
+        <v>0.999134152980669</v>
       </c>
       <c r="F15">
-        <v>1.038150298896885</v>
+        <v>1.036452452704247</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.05349781522819</v>
+        <v>1.052364291471318</v>
       </c>
       <c r="J15">
-        <v>1.019553408558171</v>
+        <v>1.01958039666911</v>
       </c>
       <c r="K15">
-        <v>1.053629104000735</v>
+        <v>1.050741943732105</v>
       </c>
       <c r="L15">
-        <v>1.013954209301974</v>
+        <v>1.014000397871248</v>
       </c>
       <c r="M15">
-        <v>1.052318780470195</v>
+        <v>1.05064988606019</v>
       </c>
       <c r="N15">
-        <v>1.010247842931924</v>
+        <v>1.012675155164979</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.051265229537893</v>
+        <v>1.049946128106219</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.049063611987259</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.047038201002954</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.025879554369871</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9929962108188018</v>
+        <v>0.992808982937363</v>
       </c>
       <c r="D16">
-        <v>1.040958328229607</v>
+        <v>1.037852840950662</v>
       </c>
       <c r="E16">
-        <v>1.001520038660968</v>
+        <v>1.001374238430829</v>
       </c>
       <c r="F16">
-        <v>1.039806351013909</v>
+        <v>1.037971493390031</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.054329491040468</v>
+        <v>1.053076475193133</v>
       </c>
       <c r="J16">
-        <v>1.021412805210878</v>
+        <v>1.021233132875916</v>
       </c>
       <c r="K16">
-        <v>1.054590829033032</v>
+        <v>1.05153593332195</v>
       </c>
       <c r="L16">
-        <v>1.015825305246955</v>
+        <v>1.015682119899174</v>
       </c>
       <c r="M16">
-        <v>1.053457573411172</v>
+        <v>1.051652645642277</v>
       </c>
       <c r="N16">
-        <v>1.010873462551555</v>
+        <v>1.0129015721996</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.052126935104562</v>
+        <v>1.050700272100837</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.049746673219832</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.047602975834762</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.026031667251522</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9948531008739891</v>
+        <v>0.9945607600908332</v>
       </c>
       <c r="D17">
-        <v>1.041783647581953</v>
+        <v>1.038591735059726</v>
       </c>
       <c r="E17">
-        <v>1.002968187313444</v>
+        <v>1.002731252987866</v>
       </c>
       <c r="F17">
-        <v>1.040672645863221</v>
+        <v>1.038766760151164</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.054796087427746</v>
+        <v>1.053481401843713</v>
       </c>
       <c r="J17">
-        <v>1.022510513830623</v>
+        <v>1.022229576969575</v>
       </c>
       <c r="K17">
-        <v>1.05509668219312</v>
+        <v>1.051955333360682</v>
       </c>
       <c r="L17">
-        <v>1.016924372840706</v>
+        <v>1.016691562322457</v>
       </c>
       <c r="M17">
-        <v>1.054003234999049</v>
+        <v>1.052127575529855</v>
       </c>
       <c r="N17">
-        <v>1.011211403578044</v>
+        <v>1.013050222940932</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.052430335536122</v>
+        <v>1.050947618665312</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.050106860149335</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.047902290762986</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.026100459377861</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.99581351118988</v>
+        <v>0.9954876250926794</v>
       </c>
       <c r="D18">
-        <v>1.042088929379064</v>
+        <v>1.038872810591046</v>
       </c>
       <c r="E18">
-        <v>1.00368780678829</v>
+        <v>1.003426527498287</v>
       </c>
       <c r="F18">
-        <v>1.040885391939766</v>
+        <v>1.03895575088175</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.054972280766186</v>
+        <v>1.05363660328998</v>
       </c>
       <c r="J18">
-        <v>1.023035617373754</v>
+        <v>1.022722195120569</v>
       </c>
       <c r="K18">
-        <v>1.055218657024621</v>
+        <v>1.052052667075607</v>
       </c>
       <c r="L18">
-        <v>1.017443186065829</v>
+        <v>1.017186375582523</v>
       </c>
       <c r="M18">
-        <v>1.054033832461414</v>
+        <v>1.052134309611074</v>
       </c>
       <c r="N18">
-        <v>1.011321533420126</v>
+        <v>1.013097344118264</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.052219195830143</v>
+        <v>1.050717307366005</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.050181673399099</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.047958537428503</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.026089680424864</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9959416696226222</v>
+        <v>0.9956421919922207</v>
       </c>
       <c r="D19">
-        <v>1.041926576266992</v>
+        <v>1.038742806646928</v>
       </c>
       <c r="E19">
-        <v>1.003732129151393</v>
+        <v>1.003502028559734</v>
       </c>
       <c r="F19">
-        <v>1.040494275911164</v>
+        <v>1.038583695066755</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.054878853771599</v>
+        <v>1.05355882910724</v>
       </c>
       <c r="J19">
-        <v>1.023023347858939</v>
+        <v>1.022735252429939</v>
       </c>
       <c r="K19">
-        <v>1.054997945559071</v>
+        <v>1.051863554922174</v>
       </c>
       <c r="L19">
-        <v>1.017422551280265</v>
+        <v>1.017196364515768</v>
       </c>
       <c r="M19">
-        <v>1.053587811833214</v>
+        <v>1.051706921251012</v>
       </c>
       <c r="N19">
-        <v>1.011227868438006</v>
+        <v>1.013033021508418</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.051544692862194</v>
+        <v>1.050057060520051</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.050031907984442</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.047831744122263</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.026007378261397</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9937378226410234</v>
+        <v>0.9936276156301432</v>
       </c>
       <c r="D20">
-        <v>1.040443559905981</v>
+        <v>1.037448378787782</v>
       </c>
       <c r="E20">
-        <v>1.001882733065029</v>
+        <v>1.001835987025163</v>
       </c>
       <c r="F20">
-        <v>1.038453719974035</v>
+        <v>1.03667994447281</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.054034642347857</v>
+        <v>1.052830322554781</v>
       </c>
       <c r="J20">
-        <v>1.021512293419573</v>
+        <v>1.021406411479485</v>
       </c>
       <c r="K20">
-        <v>1.053810677985104</v>
+        <v>1.050863224137847</v>
       </c>
       <c r="L20">
-        <v>1.015892557471894</v>
+        <v>1.015846629457184</v>
       </c>
       <c r="M20">
-        <v>1.051852506183492</v>
+        <v>1.050107091588149</v>
       </c>
       <c r="N20">
-        <v>1.01056132150754</v>
+        <v>1.012645310641486</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.049650455032146</v>
+        <v>1.048269159178006</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.049196345061926</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.047128740492055</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.025724138089807</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9880201347384104</v>
+        <v>0.9883543163130986</v>
       </c>
       <c r="D21">
-        <v>1.037611503741311</v>
+        <v>1.034963344688241</v>
       </c>
       <c r="E21">
-        <v>0.9973418396098017</v>
+        <v>0.9977048539774355</v>
       </c>
       <c r="F21">
-        <v>1.035202026158955</v>
+        <v>1.033708619696189</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.052441911589646</v>
+        <v>1.051480875024421</v>
       </c>
       <c r="J21">
-        <v>1.018027410904052</v>
+        <v>1.018347139062892</v>
       </c>
       <c r="K21">
-        <v>1.051913709984901</v>
+        <v>1.049311279548423</v>
       </c>
       <c r="L21">
-        <v>1.012373747258269</v>
+        <v>1.012729839457306</v>
       </c>
       <c r="M21">
-        <v>1.049545827036949</v>
+        <v>1.048078327132914</v>
       </c>
       <c r="N21">
-        <v>1.009334235567624</v>
+        <v>1.012236703439388</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.047784552983766</v>
+        <v>1.046623135873741</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.047858331428865</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.046034989653324</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.025412568637257</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9843592036305808</v>
+        <v>0.9849758986577902</v>
       </c>
       <c r="D22">
-        <v>1.035817998279404</v>
+        <v>1.0333898986448</v>
       </c>
       <c r="E22">
-        <v>0.994445916691441</v>
+        <v>0.9950700879403337</v>
       </c>
       <c r="F22">
-        <v>1.033169674841355</v>
+        <v>1.03185469364215</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.051422205610241</v>
+        <v>1.050615373487521</v>
       </c>
       <c r="J22">
-        <v>1.015801574788948</v>
+        <v>1.016389977218724</v>
       </c>
       <c r="K22">
-        <v>1.050711790583234</v>
+        <v>1.04832769863153</v>
       </c>
       <c r="L22">
-        <v>1.010128209889705</v>
+        <v>1.010739844081028</v>
       </c>
       <c r="M22">
-        <v>1.048111479549981</v>
+        <v>1.046820457307998</v>
       </c>
       <c r="N22">
-        <v>1.008553876555131</v>
+        <v>1.011970216774343</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.046649373568152</v>
+        <v>1.045627623935268</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.046995275186682</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.045324989414423</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.025215132849475</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9863003305384079</v>
+        <v>0.9867468023306269</v>
       </c>
       <c r="D23">
-        <v>1.036755915225043</v>
+        <v>1.034205264555189</v>
       </c>
       <c r="E23">
-        <v>0.9959784884327194</v>
+        <v>0.9964449245660143</v>
       </c>
       <c r="F23">
-        <v>1.0342403665011</v>
+        <v>1.032823237133494</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.05195835153729</v>
+        <v>1.051062197178007</v>
       </c>
       <c r="J23">
-        <v>1.01697912905249</v>
+        <v>1.017405743484026</v>
       </c>
       <c r="K23">
-        <v>1.05133598883417</v>
+        <v>1.048830406730337</v>
       </c>
       <c r="L23">
-        <v>1.011315365850412</v>
+        <v>1.011772685752532</v>
       </c>
       <c r="M23">
-        <v>1.048864886487465</v>
+        <v>1.047472919635035</v>
       </c>
       <c r="N23">
-        <v>1.008963451989634</v>
+        <v>1.012061356404164</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.047245639373189</v>
+        <v>1.046144000299986</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.047427125630914</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.045669995141934</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.025312350473325</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9937772230568467</v>
+        <v>0.9936729276299774</v>
       </c>
       <c r="D24">
-        <v>1.040410950972677</v>
+        <v>1.037421189481137</v>
       </c>
       <c r="E24">
-        <v>1.001902824273543</v>
+        <v>1.00186267670186</v>
       </c>
       <c r="F24">
-        <v>1.038401637027435</v>
+        <v>1.036631766566584</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.054016538627925</v>
+        <v>1.052815618959177</v>
       </c>
       <c r="J24">
-        <v>1.021516935975433</v>
+        <v>1.021416727367708</v>
       </c>
       <c r="K24">
-        <v>1.053763718628433</v>
+        <v>1.050821540815633</v>
       </c>
       <c r="L24">
-        <v>1.015896606384182</v>
+        <v>1.015857160420915</v>
       </c>
       <c r="M24">
-        <v>1.05178634531051</v>
+        <v>1.050044740724934</v>
       </c>
       <c r="N24">
-        <v>1.010547040316366</v>
+        <v>1.01263407630737</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.049557753169951</v>
+        <v>1.048179405673212</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.049136219753734</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.047069649254081</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.02570471642266</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.002112087930032</v>
+        <v>1.001684585219307</v>
       </c>
       <c r="D25">
-        <v>1.044527650877688</v>
+        <v>1.041138124765475</v>
       </c>
       <c r="E25">
-        <v>1.008540351785827</v>
+        <v>1.008208817916941</v>
       </c>
       <c r="F25">
-        <v>1.04309334008739</v>
+        <v>1.041040002593944</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.056277101995834</v>
+        <v>1.054844505751789</v>
       </c>
       <c r="J25">
-        <v>1.026568580360181</v>
+        <v>1.026155389047141</v>
       </c>
       <c r="K25">
-        <v>1.056471932506851</v>
+        <v>1.053129707813974</v>
       </c>
       <c r="L25">
-        <v>1.021007520812792</v>
+        <v>1.020681025189831</v>
       </c>
       <c r="M25">
-        <v>1.055057590417316</v>
+        <v>1.053032960747099</v>
       </c>
       <c r="N25">
-        <v>1.012309127355865</v>
+        <v>1.013887803968131</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.052146687851922</v>
+        <v>1.050544352856005</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.051048190295092</v>
+        <v>1.048698474724758</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.026167043017497</v>
       </c>
     </row>
   </sheetData>
